--- a/PIID/MC.xlsx
+++ b/PIID/MC.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
   <si>
     <t>MC</t>
   </si>
@@ -69,12 +69,6 @@
     <t>Verified- Y/N</t>
   </si>
   <si>
-    <t>GGE200</t>
-  </si>
-  <si>
-    <t>CHAR - GGE200-FI/LI</t>
-  </si>
-  <si>
     <t>Level 1</t>
   </si>
   <si>
@@ -85,21 +79,6 @@
   </si>
   <si>
     <t>Doc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s:MPP with actual dates of activities to monitor progress against schedule </t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>FM</t>
-  </si>
-  <si>
-    <t>PM affirmed  mpp updated after completion of task</t>
-  </si>
-  <si>
-    <t>Aff</t>
   </si>
   <si>
     <t>-</t>
@@ -115,15 +94,6 @@
 </t>
   </si>
   <si>
-    <t>i: Issue with are identified in project should be mentioned in issue log with resolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s: Team meeting during the projects showing action has been taken against decision </t>
-  </si>
-  <si>
-    <t>s:Document received against affirmation</t>
-  </si>
-  <si>
     <t>Level 2</t>
   </si>
   <si>
@@ -131,9 +101,6 @@
   </si>
   <si>
     <t>Project Plan according to effort estimation</t>
-  </si>
-  <si>
-    <t>s:</t>
   </si>
   <si>
     <t>https://gil.einframe.com/data-capture/development/capprojecttalentmap.aspx?projectid=96</t>
@@ -148,16 +115,10 @@
     <t>Budget Deatails</t>
   </si>
   <si>
-    <t>s:Milestone review with senior management at  the end of each phase</t>
-  </si>
-  <si>
     <t xml:space="preserve">Track the involvement of identified stakeholders and commitments. </t>
   </si>
   <si>
     <t>Team</t>
-  </si>
-  <si>
-    <t>I: Action items are not consolidated at one place and tracked</t>
   </si>
   <si>
     <t>Time Sheet</t>
@@ -166,22 +127,10 @@
     <t>timesheet los for GGE302</t>
   </si>
   <si>
-    <t>s:Monitor stakeholder involvement through Time sheet</t>
-  </si>
-  <si>
     <t xml:space="preserve">Monitor the transition to operations and support. </t>
   </si>
   <si>
-    <t>s:Applicable design output with release items</t>
-  </si>
-  <si>
     <t>http://192.168.100.9:8080/svn/DC_DC_Converter/SP10_GGE302/Testing/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s:rivision history mentioned </t>
-  </si>
-  <si>
-    <t>s: Feedback from production has been mentioned in the pilot report</t>
   </si>
   <si>
     <t xml:space="preserve">Take corrective actions when actual results differ significantly from planned results and manage to closure. </t>
@@ -208,19 +157,10 @@
     <t>continuous monitoring of project through status meetings</t>
   </si>
   <si>
-    <t xml:space="preserve">s: Team meeting during the projects showing project plan has been monitored </t>
-  </si>
-  <si>
-    <t>PM affirmed that plan is monitored using MPP and team meeting</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manage critical dependencies and activities. </t>
   </si>
   <si>
     <t>Status review meetings have details about each activity and roadblocks</t>
-  </si>
-  <si>
-    <t>s: Team meeting during the projects showing that dependencies are reviewed and updated</t>
   </si>
   <si>
     <t>GGE302_RSKMTX</t>
@@ -229,16 +169,10 @@
     <t xml:space="preserve">risk matrix for detail </t>
   </si>
   <si>
-    <t>s: in risk matrix ,risk has been identified and plan for mitigation and contingency is mentioned</t>
-  </si>
-  <si>
     <t xml:space="preserve">Monitor the work environment to identify issues. </t>
   </si>
   <si>
     <t>Status review meetings have details about each activity and roadblocks if any, critical dependency. (C69), eg. SMF battery procurement</t>
-  </si>
-  <si>
-    <t>s: Team meeting during the projects showing activities monitor during the meeting</t>
   </si>
   <si>
     <t xml:space="preserve">Manage and resolve issues with affected stakeholders. </t>
@@ -247,19 +181,7 @@
     <t>project metrics report provide every measurement data related to project an their causal analysis for the issues faced,</t>
   </si>
   <si>
-    <t>s:Metrics report where analysis the measurement with corrective action</t>
-  </si>
-  <si>
-    <t>LM</t>
-  </si>
-  <si>
     <t>any discrepancy/problem/issue is mentioned in MOM (C-100)</t>
-  </si>
-  <si>
-    <t>s: Team meeting during the projects showing action against the decision taken in previous meeting</t>
-  </si>
-  <si>
-    <t>W: The actions to resolve identified issues are not explicit.</t>
   </si>
   <si>
     <t>S</t>
@@ -281,6 +203,12 @@
   </si>
   <si>
     <t>SVN repository for project</t>
+  </si>
+  <si>
+    <t>GGE302</t>
+  </si>
+  <si>
+    <t>CHAR - GGE302-FI/LI</t>
   </si>
 </sst>
 </file>
@@ -1608,11 +1536,11 @@
   </sheetPr>
   <dimension ref="A1:R276"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:A33"/>
+      <selection pane="bottomRight" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1681,54 +1609,50 @@
         <v>11</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" ht="38.25">
+    <row r="4" spans="1:18" ht="15.75">
       <c r="A4" s="56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="58">
         <v>1.1000000000000001</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="str">
         <f>IF(LEN(E4)&gt;5,IF(LEN(K4&amp;L4&amp;M4)&gt;=1,"OK","Check"),"-")</f>
         <v>OK</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H4" s="5"/>
       <c r="I4" s="14" t="str">
         <f t="shared" ref="I4:I5" si="0">IF(MID(H4,2,1)=":",LEFT(H4,1),"-")</f>
-        <v>s</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>19</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J4" s="14"/>
       <c r="K4" s="8" t="str">
         <f>IF(COUNTIFS($E4,"*"&amp;K$3&amp;"*")&gt;=1,"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L4" s="8" t="str">
         <f t="shared" ref="L4:M19" si="1">IF(COUNTIFS($E4,"*"&amp;L$3&amp;"*")&gt;=1,"X","")</f>
@@ -1738,15 +1662,13 @@
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
-      <c r="N4" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="58"/>
       <c r="R4" s="56"/>
     </row>
-    <row r="5" spans="1:18" ht="25.5">
+    <row r="5" spans="1:18" ht="15.75">
       <c r="A5" s="56"/>
       <c r="B5" s="59"/>
       <c r="C5" s="65"/>
@@ -1755,20 +1677,14 @@
         <v>-</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="J5" s="14"/>
       <c r="K5" s="8" t="str">
         <f t="shared" ref="K5:M68" si="3">IF(COUNTIFS($E5,"*"&amp;K$3&amp;"*")&gt;=1,"X","")</f>
         <v/>
@@ -1800,7 +1716,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="14" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="8" t="str">
@@ -2247,34 +2163,30 @@
         <v>1.2</v>
       </c>
       <c r="C19" s="66" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D19" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H19" s="5"/>
       <c r="I19" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>i</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>19</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J19" s="14"/>
       <c r="K19" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L19" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2284,15 +2196,13 @@
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
-      <c r="N19" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="58"/>
       <c r="R19" s="56"/>
     </row>
-    <row r="20" spans="1:18" ht="38.25">
+    <row r="20" spans="1:18" ht="15.75">
       <c r="A20" s="56"/>
       <c r="B20" s="59"/>
       <c r="C20" s="66"/>
@@ -2302,19 +2212,13 @@
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>s</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>19</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J20" s="14"/>
       <c r="K20" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2343,19 +2247,13 @@
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
       <c r="I21" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>s</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>19</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J21" s="14"/>
       <c r="K21" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2492,7 +2390,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="14" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J25" s="14"/>
       <c r="K25" s="8" t="str">
@@ -2795,40 +2693,36 @@
     </row>
     <row r="34" spans="1:18" ht="38.25" customHeight="1">
       <c r="A34" s="56" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B34" s="58">
         <v>2.1</v>
       </c>
       <c r="C34" s="65" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D34" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H34" s="5"/>
       <c r="I34" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>s</v>
-      </c>
-      <c r="J34" s="14" t="s">
-        <v>19</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J34" s="14"/>
       <c r="K34" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L34" s="8" t="str">
         <f t="shared" si="3"/>
@@ -2838,9 +2732,7 @@
         <f t="shared" si="3"/>
         <v>X</v>
       </c>
-      <c r="N34" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="N34" s="11"/>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
       <c r="Q34" s="58"/>
@@ -2855,24 +2747,20 @@
         <v>OK</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H35" s="5"/>
       <c r="I35" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>s</v>
-      </c>
-      <c r="J35" s="14" t="s">
-        <v>19</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J35" s="14"/>
       <c r="K35" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2891,7 +2779,7 @@
       <c r="Q35" s="59"/>
       <c r="R35" s="56"/>
     </row>
-    <row r="36" spans="1:18" ht="38.25">
+    <row r="36" spans="1:18" ht="15.75">
       <c r="A36" s="56"/>
       <c r="B36" s="59"/>
       <c r="C36" s="65"/>
@@ -2900,24 +2788,20 @@
         <v>OK</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>38</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H36" s="5"/>
       <c r="I36" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>s</v>
-      </c>
-      <c r="J36" s="14" t="s">
-        <v>19</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J36" s="14"/>
       <c r="K36" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2946,17 +2830,13 @@
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="G37" s="11"/>
       <c r="H37" s="5"/>
       <c r="I37" s="14" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="J37" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="J37" s="14"/>
       <c r="K37" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2985,17 +2865,13 @@
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="G38" s="11"/>
       <c r="H38" s="5"/>
       <c r="I38" s="14" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="J38" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="J38" s="14"/>
       <c r="K38" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3370,31 +3246,27 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C49" s="65" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D49" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>41</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H49" s="5"/>
       <c r="I49" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>I</v>
-      </c>
-      <c r="J49" s="14" t="s">
-        <v>19</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J49" s="14"/>
       <c r="K49" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3407,15 +3279,13 @@
         <f t="shared" si="3"/>
         <v>X</v>
       </c>
-      <c r="N49" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="N49" s="11"/>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="58"/>
       <c r="R49" s="56"/>
     </row>
-    <row r="50" spans="1:18" ht="38.25">
+    <row r="50" spans="1:18" ht="15.75">
       <c r="A50" s="56"/>
       <c r="B50" s="59"/>
       <c r="C50" s="65"/>
@@ -3424,24 +3294,20 @@
         <v>OK</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H50" s="5"/>
       <c r="I50" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>s</v>
-      </c>
-      <c r="J50" s="14" t="s">
-        <v>19</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J50" s="14"/>
       <c r="K50" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3470,17 +3336,13 @@
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="G51" s="11"/>
       <c r="H51" s="8"/>
       <c r="I51" s="14" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="J51" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="J51" s="14"/>
       <c r="K51" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3925,7 +3787,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C64" s="67" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D64" s="5" t="str">
         <f t="shared" si="2"/>
@@ -3958,7 +3820,7 @@
       <c r="Q64" s="58"/>
       <c r="R64" s="56"/>
     </row>
-    <row r="65" spans="1:18" ht="25.5">
+    <row r="65" spans="1:18" ht="15.75">
       <c r="A65" s="56"/>
       <c r="B65" s="59"/>
       <c r="C65" s="67"/>
@@ -3967,27 +3829,23 @@
         <v>OK</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>46</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H65" s="5"/>
       <c r="I65" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>s</v>
-      </c>
-      <c r="J65" s="14" t="s">
-        <v>19</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J65" s="14"/>
       <c r="K65" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L65" s="8" t="str">
         <f t="shared" si="3"/>
@@ -3997,9 +3855,7 @@
         <f t="shared" si="3"/>
         <v>X</v>
       </c>
-      <c r="N65" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="N65" s="11"/>
       <c r="O65" s="11"/>
       <c r="P65" s="11"/>
       <c r="Q65" s="59"/>
@@ -4014,27 +3870,23 @@
         <v>OK</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H66" s="5"/>
       <c r="I66" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>s</v>
-      </c>
-      <c r="J66" s="14" t="s">
-        <v>19</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J66" s="14"/>
       <c r="K66" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L66" s="8" t="str">
         <f t="shared" si="3"/>
@@ -4061,18 +3913,14 @@
       <c r="E67" s="9"/>
       <c r="F67" s="7"/>
       <c r="G67" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>49</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H67" s="8"/>
       <c r="I67" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>s</v>
-      </c>
-      <c r="J67" s="14" t="s">
-        <v>19</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J67" s="14"/>
       <c r="K67" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4101,17 +3949,13 @@
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="7"/>
-      <c r="G68" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="G68" s="11"/>
       <c r="H68" s="5"/>
       <c r="I68" s="14" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="J68" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="J68" s="14"/>
       <c r="K68" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4486,34 +4330,30 @@
         <v>2.4</v>
       </c>
       <c r="C79" s="66" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D79" s="5" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H79" s="8"/>
       <c r="I79" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>s</v>
-      </c>
-      <c r="J79" s="14" t="s">
-        <v>19</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J79" s="14"/>
       <c r="K79" s="8" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L79" s="8" t="str">
         <f t="shared" si="7"/>
@@ -4523,9 +4363,7 @@
         <f t="shared" si="7"/>
         <v>X</v>
       </c>
-      <c r="N79" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="N79" s="11"/>
       <c r="O79" s="11"/>
       <c r="P79" s="11"/>
       <c r="Q79" s="58"/>
@@ -4540,25 +4378,23 @@
         <v>OK</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="14" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="J80" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="J80" s="14"/>
       <c r="K80" s="8" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L80" s="8" t="str">
         <f t="shared" si="7"/>
@@ -4584,17 +4420,13 @@
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="7"/>
-      <c r="G81" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="G81" s="11"/>
       <c r="H81" s="8"/>
       <c r="I81" s="14" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="J81" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="J81" s="14"/>
       <c r="K81" s="8" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5035,40 +4867,36 @@
     </row>
     <row r="94" spans="1:18" ht="12.75" customHeight="1">
       <c r="A94" s="57" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B94" s="61">
         <v>3.1</v>
       </c>
       <c r="C94" s="66" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D94" s="5" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H94" s="5"/>
       <c r="I94" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>s</v>
-      </c>
-      <c r="J94" s="14" t="s">
-        <v>19</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J94" s="14"/>
       <c r="K94" s="8" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L94" s="8" t="str">
         <f t="shared" si="7"/>
@@ -5078,15 +4906,13 @@
         <f t="shared" si="7"/>
         <v>X</v>
       </c>
-      <c r="N94" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="N94" s="11"/>
       <c r="O94" s="11"/>
       <c r="P94" s="11"/>
       <c r="Q94" s="61"/>
       <c r="R94" s="57"/>
     </row>
-    <row r="95" spans="1:18" ht="38.25">
+    <row r="95" spans="1:18" ht="25.5">
       <c r="A95" s="57"/>
       <c r="B95" s="62"/>
       <c r="C95" s="66"/>
@@ -5095,27 +4921,23 @@
         <v>OK</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>58</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H95" s="5"/>
       <c r="I95" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>s</v>
-      </c>
-      <c r="J95" s="14" t="s">
-        <v>19</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J95" s="14"/>
       <c r="K95" s="8" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L95" s="8" t="str">
         <f t="shared" si="7"/>
@@ -5140,20 +4962,14 @@
         <v>-</v>
       </c>
       <c r="E96" s="9"/>
-      <c r="F96" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G96" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="F96" s="16"/>
+      <c r="G96" s="11"/>
       <c r="H96" s="8"/>
       <c r="I96" s="14" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="J96" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="J96" s="14"/>
       <c r="K96" s="8" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5592,40 +5408,36 @@
       <c r="Q108" s="63"/>
       <c r="R108" s="57"/>
     </row>
-    <row r="109" spans="1:18" ht="51">
+    <row r="109" spans="1:18" ht="38.25">
       <c r="A109" s="57"/>
       <c r="B109" s="61">
         <v>3.2</v>
       </c>
       <c r="C109" s="66" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D109" s="5" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H109" s="5" t="s">
-        <v>62</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H109" s="5"/>
       <c r="I109" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>s</v>
-      </c>
-      <c r="J109" s="14" t="s">
-        <v>19</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J109" s="14"/>
       <c r="K109" s="8" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L109" s="8" t="str">
         <f t="shared" si="7"/>
@@ -5635,15 +5447,13 @@
         <f t="shared" si="7"/>
         <v>X</v>
       </c>
-      <c r="N109" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="N109" s="11"/>
       <c r="O109" s="11"/>
       <c r="P109" s="11"/>
       <c r="Q109" s="61"/>
       <c r="R109" s="57"/>
     </row>
-    <row r="110" spans="1:18" ht="51">
+    <row r="110" spans="1:18" ht="15.75">
       <c r="A110" s="57"/>
       <c r="B110" s="62"/>
       <c r="C110" s="66"/>
@@ -5652,27 +5462,23 @@
         <v>OK</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H110" s="5" t="s">
-        <v>65</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H110" s="5"/>
       <c r="I110" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>s</v>
-      </c>
-      <c r="J110" s="14" t="s">
-        <v>19</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J110" s="14"/>
       <c r="K110" s="8" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L110" s="8" t="str">
         <f t="shared" si="7"/>
@@ -5698,17 +5504,13 @@
       </c>
       <c r="E111" s="9"/>
       <c r="F111" s="7"/>
-      <c r="G111" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="G111" s="11"/>
       <c r="H111" s="8"/>
       <c r="I111" s="14" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="J111" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="J111" s="14"/>
       <c r="K111" s="8" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6153,34 +5955,30 @@
         <v>3.3</v>
       </c>
       <c r="C124" s="66" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D124" s="5" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H124" s="5" t="s">
-        <v>68</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H124" s="5"/>
       <c r="I124" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>s</v>
-      </c>
-      <c r="J124" s="14" t="s">
-        <v>19</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J124" s="14"/>
       <c r="K124" s="8" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L124" s="8" t="str">
         <f t="shared" si="7"/>
@@ -6190,9 +5988,7 @@
         <f t="shared" si="7"/>
         <v>X</v>
       </c>
-      <c r="N124" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="N124" s="11"/>
       <c r="O124" s="11"/>
       <c r="P124" s="11"/>
       <c r="Q124" s="61"/>
@@ -6208,17 +6004,13 @@
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="7"/>
-      <c r="G125" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="G125" s="11"/>
       <c r="H125" s="8"/>
       <c r="I125" s="14" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="J125" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="J125" s="14"/>
       <c r="K125" s="8" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6698,34 +6490,30 @@
         <v>3.4</v>
       </c>
       <c r="C139" s="66" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D139" s="5" t="str">
         <f t="shared" si="8"/>
         <v>OK</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H139" s="8" t="s">
-        <v>71</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H139" s="8"/>
       <c r="I139" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>s</v>
-      </c>
-      <c r="J139" s="14" t="s">
-        <v>19</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J139" s="14"/>
       <c r="K139" s="8" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L139" s="8" t="str">
         <f t="shared" si="10"/>
@@ -6735,15 +6523,13 @@
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
-      <c r="N139" s="11" t="s">
-        <v>72</v>
-      </c>
+      <c r="N139" s="11"/>
       <c r="O139" s="11"/>
       <c r="P139" s="11"/>
       <c r="Q139" s="61"/>
       <c r="R139" s="57"/>
     </row>
-    <row r="140" spans="1:18" ht="51">
+    <row r="140" spans="1:18" ht="25.5">
       <c r="A140" s="57"/>
       <c r="B140" s="62"/>
       <c r="C140" s="66"/>
@@ -6752,27 +6538,23 @@
         <v>OK</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H140" s="5" t="s">
-        <v>74</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H140" s="5"/>
       <c r="I140" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>s</v>
-      </c>
-      <c r="J140" s="14" t="s">
-        <v>19</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J140" s="14"/>
       <c r="K140" s="8" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L140" s="8" t="str">
         <f t="shared" si="10"/>
@@ -6788,7 +6570,7 @@
       <c r="Q140" s="62"/>
       <c r="R140" s="57"/>
     </row>
-    <row r="141" spans="1:18" ht="38.25">
+    <row r="141" spans="1:18" ht="15.75">
       <c r="A141" s="57"/>
       <c r="B141" s="62"/>
       <c r="C141" s="66"/>
@@ -6798,19 +6580,13 @@
       </c>
       <c r="E141" s="9"/>
       <c r="F141" s="7"/>
-      <c r="G141" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H141" s="5" t="s">
-        <v>75</v>
-      </c>
+      <c r="G141" s="11"/>
+      <c r="H141" s="5"/>
       <c r="I141" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>W</v>
-      </c>
-      <c r="J141" s="14" t="s">
-        <v>19</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J141" s="14"/>
       <c r="K141" s="8" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -8627,7 +8403,7 @@
       <c r="G193" s="11"/>
       <c r="H193" s="8"/>
       <c r="I193" s="14" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="J193" s="14"/>
       <c r="K193" s="8" t="str">
@@ -11463,7 +11239,7 @@
     </row>
     <row r="275" spans="1:18" ht="15.75" customHeight="1">
       <c r="A275" s="51" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B275" s="51"/>
       <c r="C275" s="51"/>

--- a/PIID/MC.xlsx
+++ b/PIID/MC.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
   <si>
     <t>MC</t>
   </si>
@@ -118,13 +118,7 @@
     <t xml:space="preserve">Track the involvement of identified stakeholders and commitments. </t>
   </si>
   <si>
-    <t>Team</t>
-  </si>
-  <si>
     <t>Time Sheet</t>
-  </si>
-  <si>
-    <t>timesheet los for GGE302</t>
   </si>
   <si>
     <t xml:space="preserve">Monitor the transition to operations and support. </t>
@@ -140,9 +134,6 @@
   </si>
   <si>
     <t>GGE302_MINMET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">any discrepancy/problem/issue is mentioned in MOM </t>
   </si>
   <si>
     <t>Level 3</t>
@@ -190,15 +181,6 @@
     <t>** Minimum 2 and maximum 3 evidences require for each practice</t>
   </si>
   <si>
-    <t>GGE302_Task Approval</t>
-  </si>
-  <si>
-    <t>Tasks approved after completion</t>
-  </si>
-  <si>
-    <t>Project team in Project plan</t>
-  </si>
-  <si>
     <t>GGE302_Design Data</t>
   </si>
   <si>
@@ -209,6 +191,37 @@
   </si>
   <si>
     <t>CHAR - GGE302-FI/LI</t>
+  </si>
+  <si>
+    <t>GGE302_Project Task report</t>
+  </si>
+  <si>
+    <t>Updating Task satus date wise .
+and puting remarks as approved,delay,and running status..</t>
+  </si>
+  <si>
+    <t>GGE302_Incident mamagment</t>
+  </si>
+  <si>
+    <t>All audit,testing .review related log and issuse monitoring in einframe in incident mamagment .
+and checking all the status of open and close incident.
+and status off each incident updated in project taskif project is gopin in delay side or any if any problem is there</t>
+  </si>
+  <si>
+    <t>Team meeting</t>
+  </si>
+  <si>
+    <t>Tack the pending and new action items in project during team meetings and throught out the project as making action item respectivly team member .</t>
+  </si>
+  <si>
+    <t>All identify action item and asigned task verify and track by the time sheet</t>
+  </si>
+  <si>
+    <t>Listed out the issuse and define action item again the issuse .define the persone responcibility.
+regular follow-up to complte action item</t>
+  </si>
+  <si>
+    <t>other sequencial task  started without any delay .</t>
   </si>
 </sst>
 </file>
@@ -634,6 +647,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -649,37 +683,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -689,7 +702,21 @@
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 2 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="82">
+  <dxfs count="84">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1536,7 +1563,7 @@
   </sheetPr>
   <dimension ref="A1:R276"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1557,25 +1584,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
       <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" ht="57">
       <c r="A3" s="3" t="s">
@@ -1609,37 +1636,37 @@
         <v>11</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75">
-      <c r="A4" s="56" t="s">
+    <row r="4" spans="1:18" ht="51">
+      <c r="A4" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="58">
+      <c r="B4" s="65">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="69" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="5" t="str">
         <f>IF(LEN(E4)&gt;5,IF(LEN(K4&amp;L4&amp;M4)&gt;=1,"OK","Check"),"-")</f>
         <v>OK</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>52</v>
+      <c r="E4" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>15</v>
@@ -1665,13 +1692,13 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="56"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="63"/>
     </row>
     <row r="5" spans="1:18" ht="15.75">
-      <c r="A5" s="56"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="65"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="5" t="str">
         <f t="shared" ref="D5:D68" si="2">IF(LEN(E5)&gt;5,IF(LEN(K5&amp;L5&amp;M5)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -1700,13 +1727,13 @@
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="56"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="63"/>
     </row>
     <row r="6" spans="1:18" ht="15.75">
-      <c r="A6" s="56"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="65"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1734,13 +1761,13 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="56"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="63"/>
     </row>
     <row r="7" spans="1:18" ht="15.75">
-      <c r="A7" s="56"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="65"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1769,13 +1796,13 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="56"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="63"/>
     </row>
     <row r="8" spans="1:18" ht="15.75">
-      <c r="A8" s="56"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="65"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1804,13 +1831,13 @@
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="56"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="63"/>
     </row>
     <row r="9" spans="1:18" ht="15.75">
-      <c r="A9" s="56"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="65"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1839,13 +1866,13 @@
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="56"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="63"/>
     </row>
     <row r="10" spans="1:18" ht="15.75">
-      <c r="A10" s="56"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="65"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1874,13 +1901,13 @@
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="56"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="63"/>
     </row>
     <row r="11" spans="1:18" ht="15.75">
-      <c r="A11" s="56"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="65"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1909,13 +1936,13 @@
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="56"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="63"/>
     </row>
     <row r="12" spans="1:18" ht="15.75">
-      <c r="A12" s="56"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="65"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1944,13 +1971,13 @@
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="56"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="63"/>
     </row>
     <row r="13" spans="1:18" ht="15.75">
-      <c r="A13" s="56"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="65"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1979,13 +2006,13 @@
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="56"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="63"/>
     </row>
     <row r="14" spans="1:18" ht="15.75">
-      <c r="A14" s="56"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="65"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2014,13 +2041,13 @@
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="56"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="63"/>
     </row>
     <row r="15" spans="1:18" ht="15.75">
-      <c r="A15" s="56"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="65"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2049,13 +2076,13 @@
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="56"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="63"/>
     </row>
     <row r="16" spans="1:18" ht="15.75">
-      <c r="A16" s="56"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="65"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2084,13 +2111,13 @@
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="56"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="63"/>
     </row>
     <row r="17" spans="1:18" ht="15.75">
-      <c r="A17" s="56"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="65"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2119,13 +2146,13 @@
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="56"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="63"/>
     </row>
     <row r="18" spans="1:18" ht="15.75">
-      <c r="A18" s="56"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="65"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2154,15 +2181,15 @@
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="56"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="63"/>
     </row>
     <row r="19" spans="1:18" ht="63.75">
-      <c r="A19" s="56"/>
-      <c r="B19" s="58">
+      <c r="A19" s="63"/>
+      <c r="B19" s="65">
         <v>1.2</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="70" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="5" t="str">
@@ -2199,20 +2226,26 @@
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="56"/>
-    </row>
-    <row r="20" spans="1:18" ht="15.75">
-      <c r="A20" s="56"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="66"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="63"/>
+    </row>
+    <row r="20" spans="1:18" ht="127.5">
+      <c r="A20" s="63"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="70"/>
       <c r="D20" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
+        <v>OK</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="H20" s="5"/>
       <c r="I20" s="14" t="str">
         <f t="shared" si="4"/>
@@ -2221,26 +2254,26 @@
       <c r="J20" s="14"/>
       <c r="K20" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L20" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M20" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="56"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="63"/>
     </row>
     <row r="21" spans="1:18" ht="15.75">
-      <c r="A21" s="56"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="66"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="70"/>
       <c r="D21" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2269,13 +2302,13 @@
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="56"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="63"/>
     </row>
     <row r="22" spans="1:18" ht="15.75">
-      <c r="A22" s="56"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="66"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="70"/>
       <c r="D22" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2304,13 +2337,13 @@
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="56"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="63"/>
     </row>
     <row r="23" spans="1:18" ht="15.75">
-      <c r="A23" s="56"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="66"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="70"/>
       <c r="D23" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2339,13 +2372,13 @@
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="56"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="63"/>
     </row>
     <row r="24" spans="1:18" ht="15.75">
-      <c r="A24" s="56"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="66"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="70"/>
       <c r="D24" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2374,13 +2407,13 @@
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="56"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="63"/>
     </row>
     <row r="25" spans="1:18" ht="15.75">
-      <c r="A25" s="56"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="66"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="70"/>
       <c r="D25" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2408,13 +2441,13 @@
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="56"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="63"/>
     </row>
     <row r="26" spans="1:18" ht="26.25" customHeight="1">
-      <c r="A26" s="56"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="66"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2443,13 +2476,13 @@
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="56"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="63"/>
     </row>
     <row r="27" spans="1:18" ht="15.75">
-      <c r="A27" s="56"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="66"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="70"/>
       <c r="D27" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2478,13 +2511,13 @@
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="56"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="63"/>
     </row>
     <row r="28" spans="1:18" ht="15.75">
-      <c r="A28" s="56"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="66"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="70"/>
       <c r="D28" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2513,13 +2546,13 @@
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="56"/>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="63"/>
     </row>
     <row r="29" spans="1:18" ht="15.75">
-      <c r="A29" s="56"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="66"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2548,13 +2581,13 @@
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="56"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="63"/>
     </row>
     <row r="30" spans="1:18" ht="15.75">
-      <c r="A30" s="56"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="66"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2583,13 +2616,13 @@
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="56"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="63"/>
     </row>
     <row r="31" spans="1:18" ht="15.75">
-      <c r="A31" s="56"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="66"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2618,13 +2651,13 @@
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="56"/>
+      <c r="Q31" s="66"/>
+      <c r="R31" s="63"/>
     </row>
     <row r="32" spans="1:18" ht="15.75">
-      <c r="A32" s="56"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="66"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="70"/>
       <c r="D32" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2653,13 +2686,13 @@
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="56"/>
+      <c r="Q32" s="66"/>
+      <c r="R32" s="63"/>
     </row>
     <row r="33" spans="1:18" ht="15.75">
-      <c r="A33" s="56"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="66"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2688,17 +2721,17 @@
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
-      <c r="Q33" s="60"/>
-      <c r="R33" s="56"/>
+      <c r="Q33" s="67"/>
+      <c r="R33" s="63"/>
     </row>
     <row r="34" spans="1:18" ht="38.25" customHeight="1">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="58">
+      <c r="B34" s="65">
         <v>2.1</v>
       </c>
-      <c r="C34" s="65" t="s">
+      <c r="C34" s="68" t="s">
         <v>21</v>
       </c>
       <c r="D34" s="5" t="str">
@@ -2735,13 +2768,13 @@
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
-      <c r="Q34" s="58"/>
-      <c r="R34" s="56"/>
+      <c r="Q34" s="65"/>
+      <c r="R34" s="63"/>
     </row>
     <row r="35" spans="1:18" ht="63.75">
-      <c r="A35" s="56"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="65"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="68"/>
       <c r="D35" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -2776,13 +2809,13 @@
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="56"/>
+      <c r="Q35" s="66"/>
+      <c r="R35" s="63"/>
     </row>
     <row r="36" spans="1:18" ht="15.75">
-      <c r="A36" s="56"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="65"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="68"/>
       <c r="D36" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -2817,13 +2850,13 @@
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="56"/>
+      <c r="Q36" s="66"/>
+      <c r="R36" s="63"/>
     </row>
     <row r="37" spans="1:18" ht="15.75">
-      <c r="A37" s="56"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="65"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="68"/>
       <c r="D37" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2852,13 +2885,13 @@
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="56"/>
+      <c r="Q37" s="66"/>
+      <c r="R37" s="63"/>
     </row>
     <row r="38" spans="1:18" ht="15.75">
-      <c r="A38" s="56"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="65"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="68"/>
       <c r="D38" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2887,13 +2920,13 @@
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="56"/>
+      <c r="Q38" s="66"/>
+      <c r="R38" s="63"/>
     </row>
     <row r="39" spans="1:18" ht="15.75">
-      <c r="A39" s="56"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="65"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="68"/>
       <c r="D39" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2922,13 +2955,13 @@
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="56"/>
+      <c r="Q39" s="66"/>
+      <c r="R39" s="63"/>
     </row>
     <row r="40" spans="1:18" ht="15.75">
-      <c r="A40" s="56"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="65"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="68"/>
       <c r="D40" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2957,13 +2990,13 @@
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="56"/>
+      <c r="Q40" s="66"/>
+      <c r="R40" s="63"/>
     </row>
     <row r="41" spans="1:18" ht="15.75">
-      <c r="A41" s="56"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="65"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="68"/>
       <c r="D41" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2992,13 +3025,13 @@
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="56"/>
+      <c r="Q41" s="66"/>
+      <c r="R41" s="63"/>
     </row>
     <row r="42" spans="1:18" ht="15.75">
-      <c r="A42" s="56"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="65"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="68"/>
       <c r="D42" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3027,13 +3060,13 @@
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="56"/>
+      <c r="Q42" s="66"/>
+      <c r="R42" s="63"/>
     </row>
     <row r="43" spans="1:18" ht="15.75">
-      <c r="A43" s="56"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="65"/>
+      <c r="A43" s="63"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="68"/>
       <c r="D43" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3062,13 +3095,13 @@
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="56"/>
+      <c r="Q43" s="66"/>
+      <c r="R43" s="63"/>
     </row>
     <row r="44" spans="1:18" ht="15.75">
-      <c r="A44" s="56"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="65"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="68"/>
       <c r="D44" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3097,13 +3130,13 @@
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
-      <c r="Q44" s="59"/>
-      <c r="R44" s="56"/>
+      <c r="Q44" s="66"/>
+      <c r="R44" s="63"/>
     </row>
     <row r="45" spans="1:18" ht="15.75">
-      <c r="A45" s="56"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="65"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="68"/>
       <c r="D45" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3132,13 +3165,13 @@
       <c r="N45" s="11"/>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="56"/>
+      <c r="Q45" s="66"/>
+      <c r="R45" s="63"/>
     </row>
     <row r="46" spans="1:18" ht="15.75">
-      <c r="A46" s="56"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="65"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3167,13 +3200,13 @@
       <c r="N46" s="11"/>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
-      <c r="Q46" s="59"/>
-      <c r="R46" s="56"/>
+      <c r="Q46" s="66"/>
+      <c r="R46" s="63"/>
     </row>
     <row r="47" spans="1:18" ht="15.75">
-      <c r="A47" s="56"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="65"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="68"/>
       <c r="D47" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3202,13 +3235,13 @@
       <c r="N47" s="11"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
-      <c r="Q47" s="59"/>
-      <c r="R47" s="56"/>
+      <c r="Q47" s="66"/>
+      <c r="R47" s="63"/>
     </row>
     <row r="48" spans="1:18" ht="15.75">
-      <c r="A48" s="56"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="65"/>
+      <c r="A48" s="63"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="68"/>
       <c r="D48" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3237,26 +3270,26 @@
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
-      <c r="Q48" s="60"/>
-      <c r="R48" s="56"/>
-    </row>
-    <row r="49" spans="1:18" ht="42.75" customHeight="1">
-      <c r="A49" s="56"/>
-      <c r="B49" s="58">
+      <c r="Q48" s="67"/>
+      <c r="R48" s="63"/>
+    </row>
+    <row r="49" spans="1:18" ht="63.75">
+      <c r="A49" s="63"/>
+      <c r="B49" s="65">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C49" s="65" t="s">
+      <c r="C49" s="68" t="s">
         <v>27</v>
       </c>
       <c r="D49" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v>OK</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>15</v>
@@ -3282,22 +3315,22 @@
       <c r="N49" s="11"/>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
-      <c r="Q49" s="58"/>
-      <c r="R49" s="56"/>
-    </row>
-    <row r="50" spans="1:18" ht="15.75">
-      <c r="A50" s="56"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="65"/>
+      <c r="Q49" s="65"/>
+      <c r="R49" s="63"/>
+    </row>
+    <row r="50" spans="1:18" ht="38.25">
+      <c r="A50" s="63"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="68"/>
       <c r="D50" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="G50" s="11" t="s">
         <v>15</v>
@@ -3323,13 +3356,13 @@
       <c r="N50" s="11"/>
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
-      <c r="Q50" s="59"/>
-      <c r="R50" s="56"/>
+      <c r="Q50" s="66"/>
+      <c r="R50" s="63"/>
     </row>
     <row r="51" spans="1:18" ht="15.75">
-      <c r="A51" s="56"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="65"/>
+      <c r="A51" s="63"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="68"/>
       <c r="D51" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3358,13 +3391,13 @@
       <c r="N51" s="11"/>
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
-      <c r="Q51" s="59"/>
-      <c r="R51" s="56"/>
+      <c r="Q51" s="66"/>
+      <c r="R51" s="63"/>
     </row>
     <row r="52" spans="1:18" ht="15.75">
-      <c r="A52" s="56"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="65"/>
+      <c r="A52" s="63"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="68"/>
       <c r="D52" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3393,13 +3426,13 @@
       <c r="N52" s="11"/>
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
-      <c r="Q52" s="59"/>
-      <c r="R52" s="56"/>
+      <c r="Q52" s="66"/>
+      <c r="R52" s="63"/>
     </row>
     <row r="53" spans="1:18" ht="15.75">
-      <c r="A53" s="56"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="65"/>
+      <c r="A53" s="63"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="68"/>
       <c r="D53" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3428,13 +3461,13 @@
       <c r="N53" s="11"/>
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
-      <c r="Q53" s="59"/>
-      <c r="R53" s="56"/>
+      <c r="Q53" s="66"/>
+      <c r="R53" s="63"/>
     </row>
     <row r="54" spans="1:18" ht="15.75">
-      <c r="A54" s="56"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="65"/>
+      <c r="A54" s="63"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="68"/>
       <c r="D54" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3463,13 +3496,13 @@
       <c r="N54" s="11"/>
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
-      <c r="Q54" s="59"/>
-      <c r="R54" s="56"/>
+      <c r="Q54" s="66"/>
+      <c r="R54" s="63"/>
     </row>
     <row r="55" spans="1:18" ht="15.75">
-      <c r="A55" s="56"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="65"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="68"/>
       <c r="D55" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3498,13 +3531,13 @@
       <c r="N55" s="11"/>
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
-      <c r="Q55" s="59"/>
-      <c r="R55" s="56"/>
+      <c r="Q55" s="66"/>
+      <c r="R55" s="63"/>
     </row>
     <row r="56" spans="1:18" ht="15.75">
-      <c r="A56" s="56"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="65"/>
+      <c r="A56" s="63"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="68"/>
       <c r="D56" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3533,13 +3566,13 @@
       <c r="N56" s="11"/>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
-      <c r="Q56" s="59"/>
-      <c r="R56" s="56"/>
+      <c r="Q56" s="66"/>
+      <c r="R56" s="63"/>
     </row>
     <row r="57" spans="1:18" ht="15.75">
-      <c r="A57" s="56"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="65"/>
+      <c r="A57" s="63"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="68"/>
       <c r="D57" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3568,13 +3601,13 @@
       <c r="N57" s="11"/>
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
-      <c r="Q57" s="59"/>
-      <c r="R57" s="56"/>
+      <c r="Q57" s="66"/>
+      <c r="R57" s="63"/>
     </row>
     <row r="58" spans="1:18" ht="15.75">
-      <c r="A58" s="56"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="65"/>
+      <c r="A58" s="63"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="68"/>
       <c r="D58" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3603,13 +3636,13 @@
       <c r="N58" s="11"/>
       <c r="O58" s="11"/>
       <c r="P58" s="11"/>
-      <c r="Q58" s="59"/>
-      <c r="R58" s="56"/>
+      <c r="Q58" s="66"/>
+      <c r="R58" s="63"/>
     </row>
     <row r="59" spans="1:18" ht="15.75">
-      <c r="A59" s="56"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="65"/>
+      <c r="A59" s="63"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="68"/>
       <c r="D59" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3638,13 +3671,13 @@
       <c r="N59" s="11"/>
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
-      <c r="Q59" s="59"/>
-      <c r="R59" s="56"/>
+      <c r="Q59" s="66"/>
+      <c r="R59" s="63"/>
     </row>
     <row r="60" spans="1:18" ht="15.75">
-      <c r="A60" s="56"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="65"/>
+      <c r="A60" s="63"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="68"/>
       <c r="D60" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3673,13 +3706,13 @@
       <c r="N60" s="11"/>
       <c r="O60" s="11"/>
       <c r="P60" s="11"/>
-      <c r="Q60" s="59"/>
-      <c r="R60" s="56"/>
+      <c r="Q60" s="66"/>
+      <c r="R60" s="63"/>
     </row>
     <row r="61" spans="1:18" ht="15.75">
-      <c r="A61" s="56"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="65"/>
+      <c r="A61" s="63"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="68"/>
       <c r="D61" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3708,13 +3741,13 @@
       <c r="N61" s="11"/>
       <c r="O61" s="11"/>
       <c r="P61" s="11"/>
-      <c r="Q61" s="59"/>
-      <c r="R61" s="56"/>
+      <c r="Q61" s="66"/>
+      <c r="R61" s="63"/>
     </row>
     <row r="62" spans="1:18" ht="15.75">
-      <c r="A62" s="56"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="65"/>
+      <c r="A62" s="63"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="68"/>
       <c r="D62" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3743,13 +3776,13 @@
       <c r="N62" s="11"/>
       <c r="O62" s="11"/>
       <c r="P62" s="11"/>
-      <c r="Q62" s="59"/>
-      <c r="R62" s="56"/>
+      <c r="Q62" s="66"/>
+      <c r="R62" s="63"/>
     </row>
     <row r="63" spans="1:18" ht="15.75">
-      <c r="A63" s="56"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="65"/>
+      <c r="A63" s="63"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="68"/>
       <c r="D63" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3778,16 +3811,16 @@
       <c r="N63" s="11"/>
       <c r="O63" s="11"/>
       <c r="P63" s="11"/>
-      <c r="Q63" s="60"/>
-      <c r="R63" s="56"/>
+      <c r="Q63" s="67"/>
+      <c r="R63" s="63"/>
     </row>
     <row r="64" spans="1:18" ht="66.75" customHeight="1">
-      <c r="A64" s="56"/>
-      <c r="B64" s="58">
+      <c r="A64" s="63"/>
+      <c r="B64" s="65">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C64" s="67" t="s">
-        <v>31</v>
+      <c r="C64" s="71" t="s">
+        <v>29</v>
       </c>
       <c r="D64" s="5" t="str">
         <f t="shared" si="2"/>
@@ -3817,22 +3850,22 @@
       <c r="N64" s="11"/>
       <c r="O64" s="11"/>
       <c r="P64" s="11"/>
-      <c r="Q64" s="58"/>
-      <c r="R64" s="56"/>
+      <c r="Q64" s="65"/>
+      <c r="R64" s="63"/>
     </row>
     <row r="65" spans="1:18" ht="15.75">
-      <c r="A65" s="56"/>
-      <c r="B65" s="59"/>
-      <c r="C65" s="67"/>
+      <c r="A65" s="63"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="71"/>
       <c r="D65" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G65" s="11" t="s">
         <v>15</v>
@@ -3858,22 +3891,22 @@
       <c r="N65" s="11"/>
       <c r="O65" s="11"/>
       <c r="P65" s="11"/>
-      <c r="Q65" s="59"/>
-      <c r="R65" s="56"/>
+      <c r="Q65" s="66"/>
+      <c r="R65" s="63"/>
     </row>
     <row r="66" spans="1:18" ht="51">
-      <c r="A66" s="56"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="67"/>
+      <c r="A66" s="63"/>
+      <c r="B66" s="66"/>
+      <c r="C66" s="71"/>
       <c r="D66" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>15</v>
@@ -3899,13 +3932,13 @@
       <c r="N66" s="11"/>
       <c r="O66" s="11"/>
       <c r="P66" s="11"/>
-      <c r="Q66" s="59"/>
-      <c r="R66" s="56"/>
+      <c r="Q66" s="66"/>
+      <c r="R66" s="63"/>
     </row>
     <row r="67" spans="1:18" ht="15.75">
-      <c r="A67" s="56"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="67"/>
+      <c r="A67" s="63"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="71"/>
       <c r="D67" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3936,13 +3969,13 @@
       <c r="N67" s="11"/>
       <c r="O67" s="11"/>
       <c r="P67" s="11"/>
-      <c r="Q67" s="59"/>
-      <c r="R67" s="56"/>
+      <c r="Q67" s="66"/>
+      <c r="R67" s="63"/>
     </row>
     <row r="68" spans="1:18" ht="15.75">
-      <c r="A68" s="56"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="67"/>
+      <c r="A68" s="63"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="71"/>
       <c r="D68" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3971,13 +4004,13 @@
       <c r="N68" s="11"/>
       <c r="O68" s="11"/>
       <c r="P68" s="11"/>
-      <c r="Q68" s="59"/>
-      <c r="R68" s="56"/>
+      <c r="Q68" s="66"/>
+      <c r="R68" s="63"/>
     </row>
     <row r="69" spans="1:18" ht="15.75">
-      <c r="A69" s="56"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="67"/>
+      <c r="A69" s="63"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="71"/>
       <c r="D69" s="5" t="str">
         <f t="shared" ref="D69:D132" si="5">IF(LEN(E69)&gt;5,IF(LEN(K69&amp;L69&amp;M69)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -4006,13 +4039,13 @@
       <c r="N69" s="11"/>
       <c r="O69" s="11"/>
       <c r="P69" s="11"/>
-      <c r="Q69" s="59"/>
-      <c r="R69" s="56"/>
+      <c r="Q69" s="66"/>
+      <c r="R69" s="63"/>
     </row>
     <row r="70" spans="1:18" ht="15.75">
-      <c r="A70" s="56"/>
-      <c r="B70" s="59"/>
-      <c r="C70" s="67"/>
+      <c r="A70" s="63"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="71"/>
       <c r="D70" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4041,13 +4074,13 @@
       <c r="N70" s="11"/>
       <c r="O70" s="11"/>
       <c r="P70" s="11"/>
-      <c r="Q70" s="59"/>
-      <c r="R70" s="56"/>
+      <c r="Q70" s="66"/>
+      <c r="R70" s="63"/>
     </row>
     <row r="71" spans="1:18" ht="15.75">
-      <c r="A71" s="56"/>
-      <c r="B71" s="59"/>
-      <c r="C71" s="67"/>
+      <c r="A71" s="63"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="71"/>
       <c r="D71" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4076,13 +4109,13 @@
       <c r="N71" s="11"/>
       <c r="O71" s="11"/>
       <c r="P71" s="11"/>
-      <c r="Q71" s="59"/>
-      <c r="R71" s="56"/>
+      <c r="Q71" s="66"/>
+      <c r="R71" s="63"/>
     </row>
     <row r="72" spans="1:18" ht="15.75">
-      <c r="A72" s="56"/>
-      <c r="B72" s="59"/>
-      <c r="C72" s="67"/>
+      <c r="A72" s="63"/>
+      <c r="B72" s="66"/>
+      <c r="C72" s="71"/>
       <c r="D72" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4111,13 +4144,13 @@
       <c r="N72" s="11"/>
       <c r="O72" s="11"/>
       <c r="P72" s="11"/>
-      <c r="Q72" s="59"/>
-      <c r="R72" s="56"/>
+      <c r="Q72" s="66"/>
+      <c r="R72" s="63"/>
     </row>
     <row r="73" spans="1:18" ht="15.75">
-      <c r="A73" s="56"/>
-      <c r="B73" s="59"/>
-      <c r="C73" s="67"/>
+      <c r="A73" s="63"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="71"/>
       <c r="D73" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4146,13 +4179,13 @@
       <c r="N73" s="11"/>
       <c r="O73" s="11"/>
       <c r="P73" s="11"/>
-      <c r="Q73" s="59"/>
-      <c r="R73" s="56"/>
+      <c r="Q73" s="66"/>
+      <c r="R73" s="63"/>
     </row>
     <row r="74" spans="1:18" ht="15.75">
-      <c r="A74" s="56"/>
-      <c r="B74" s="59"/>
-      <c r="C74" s="67"/>
+      <c r="A74" s="63"/>
+      <c r="B74" s="66"/>
+      <c r="C74" s="71"/>
       <c r="D74" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4181,13 +4214,13 @@
       <c r="N74" s="11"/>
       <c r="O74" s="11"/>
       <c r="P74" s="11"/>
-      <c r="Q74" s="59"/>
-      <c r="R74" s="56"/>
+      <c r="Q74" s="66"/>
+      <c r="R74" s="63"/>
     </row>
     <row r="75" spans="1:18" ht="15.75">
-      <c r="A75" s="56"/>
-      <c r="B75" s="59"/>
-      <c r="C75" s="67"/>
+      <c r="A75" s="63"/>
+      <c r="B75" s="66"/>
+      <c r="C75" s="71"/>
       <c r="D75" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4216,13 +4249,13 @@
       <c r="N75" s="11"/>
       <c r="O75" s="11"/>
       <c r="P75" s="11"/>
-      <c r="Q75" s="59"/>
-      <c r="R75" s="56"/>
+      <c r="Q75" s="66"/>
+      <c r="R75" s="63"/>
     </row>
     <row r="76" spans="1:18" ht="15.75">
-      <c r="A76" s="56"/>
-      <c r="B76" s="59"/>
-      <c r="C76" s="67"/>
+      <c r="A76" s="63"/>
+      <c r="B76" s="66"/>
+      <c r="C76" s="71"/>
       <c r="D76" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4251,13 +4284,13 @@
       <c r="N76" s="11"/>
       <c r="O76" s="11"/>
       <c r="P76" s="11"/>
-      <c r="Q76" s="59"/>
-      <c r="R76" s="56"/>
+      <c r="Q76" s="66"/>
+      <c r="R76" s="63"/>
     </row>
     <row r="77" spans="1:18" ht="15.75">
-      <c r="A77" s="56"/>
-      <c r="B77" s="59"/>
-      <c r="C77" s="67"/>
+      <c r="A77" s="63"/>
+      <c r="B77" s="66"/>
+      <c r="C77" s="71"/>
       <c r="D77" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4286,13 +4319,13 @@
       <c r="N77" s="11"/>
       <c r="O77" s="11"/>
       <c r="P77" s="11"/>
-      <c r="Q77" s="59"/>
-      <c r="R77" s="56"/>
+      <c r="Q77" s="66"/>
+      <c r="R77" s="63"/>
     </row>
     <row r="78" spans="1:18" ht="15.75">
-      <c r="A78" s="56"/>
-      <c r="B78" s="60"/>
-      <c r="C78" s="67"/>
+      <c r="A78" s="63"/>
+      <c r="B78" s="67"/>
+      <c r="C78" s="71"/>
       <c r="D78" s="15" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4321,16 +4354,16 @@
       <c r="N78" s="11"/>
       <c r="O78" s="11"/>
       <c r="P78" s="11"/>
-      <c r="Q78" s="60"/>
-      <c r="R78" s="56"/>
+      <c r="Q78" s="67"/>
+      <c r="R78" s="63"/>
     </row>
     <row r="79" spans="1:18" ht="38.25">
-      <c r="A79" s="56"/>
-      <c r="B79" s="58">
+      <c r="A79" s="63"/>
+      <c r="B79" s="65">
         <v>2.4</v>
       </c>
-      <c r="C79" s="66" t="s">
-        <v>33</v>
+      <c r="C79" s="70" t="s">
+        <v>31</v>
       </c>
       <c r="D79" s="5" t="str">
         <f t="shared" si="5"/>
@@ -4340,7 +4373,7 @@
         <v>18</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G79" s="11" t="s">
         <v>15</v>
@@ -4366,22 +4399,22 @@
       <c r="N79" s="11"/>
       <c r="O79" s="11"/>
       <c r="P79" s="11"/>
-      <c r="Q79" s="58"/>
-      <c r="R79" s="56"/>
-    </row>
-    <row r="80" spans="1:18" ht="25.5">
-      <c r="A80" s="56"/>
-      <c r="B80" s="59"/>
-      <c r="C80" s="66"/>
+      <c r="Q79" s="65"/>
+      <c r="R79" s="63"/>
+    </row>
+    <row r="80" spans="1:18" ht="63.75">
+      <c r="A80" s="63"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="70"/>
       <c r="D80" s="5" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="G80" s="11" t="s">
         <v>15</v>
@@ -4407,20 +4440,26 @@
       <c r="N80" s="11"/>
       <c r="O80" s="11"/>
       <c r="P80" s="11"/>
-      <c r="Q80" s="59"/>
-      <c r="R80" s="56"/>
-    </row>
-    <row r="81" spans="1:18" ht="15.75">
-      <c r="A81" s="56"/>
-      <c r="B81" s="59"/>
-      <c r="C81" s="66"/>
+      <c r="Q80" s="66"/>
+      <c r="R80" s="63"/>
+    </row>
+    <row r="81" spans="1:18" ht="25.5">
+      <c r="A81" s="63"/>
+      <c r="B81" s="66"/>
+      <c r="C81" s="70"/>
       <c r="D81" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="E81" s="9"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="11"/>
+        <v>OK</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H81" s="8"/>
       <c r="I81" s="14" t="str">
         <f t="shared" si="6"/>
@@ -4429,26 +4468,26 @@
       <c r="J81" s="14"/>
       <c r="K81" s="8" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L81" s="8" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M81" s="8" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N81" s="11"/>
       <c r="O81" s="11"/>
       <c r="P81" s="11"/>
-      <c r="Q81" s="59"/>
-      <c r="R81" s="56"/>
+      <c r="Q81" s="66"/>
+      <c r="R81" s="63"/>
     </row>
     <row r="82" spans="1:18" ht="15.75">
-      <c r="A82" s="56"/>
-      <c r="B82" s="59"/>
-      <c r="C82" s="66"/>
+      <c r="A82" s="63"/>
+      <c r="B82" s="66"/>
+      <c r="C82" s="70"/>
       <c r="D82" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4477,13 +4516,13 @@
       <c r="N82" s="11"/>
       <c r="O82" s="11"/>
       <c r="P82" s="11"/>
-      <c r="Q82" s="59"/>
-      <c r="R82" s="56"/>
+      <c r="Q82" s="66"/>
+      <c r="R82" s="63"/>
     </row>
     <row r="83" spans="1:18" ht="15.75">
-      <c r="A83" s="56"/>
-      <c r="B83" s="59"/>
-      <c r="C83" s="66"/>
+      <c r="A83" s="63"/>
+      <c r="B83" s="66"/>
+      <c r="C83" s="70"/>
       <c r="D83" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4512,13 +4551,13 @@
       <c r="N83" s="11"/>
       <c r="O83" s="11"/>
       <c r="P83" s="11"/>
-      <c r="Q83" s="59"/>
-      <c r="R83" s="56"/>
+      <c r="Q83" s="66"/>
+      <c r="R83" s="63"/>
     </row>
     <row r="84" spans="1:18" ht="15.75">
-      <c r="A84" s="56"/>
-      <c r="B84" s="59"/>
-      <c r="C84" s="66"/>
+      <c r="A84" s="63"/>
+      <c r="B84" s="66"/>
+      <c r="C84" s="70"/>
       <c r="D84" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4547,13 +4586,13 @@
       <c r="N84" s="11"/>
       <c r="O84" s="11"/>
       <c r="P84" s="11"/>
-      <c r="Q84" s="59"/>
-      <c r="R84" s="56"/>
+      <c r="Q84" s="66"/>
+      <c r="R84" s="63"/>
     </row>
     <row r="85" spans="1:18" ht="15.75">
-      <c r="A85" s="56"/>
-      <c r="B85" s="59"/>
-      <c r="C85" s="66"/>
+      <c r="A85" s="63"/>
+      <c r="B85" s="66"/>
+      <c r="C85" s="70"/>
       <c r="D85" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4582,13 +4621,13 @@
       <c r="N85" s="11"/>
       <c r="O85" s="11"/>
       <c r="P85" s="11"/>
-      <c r="Q85" s="59"/>
-      <c r="R85" s="56"/>
+      <c r="Q85" s="66"/>
+      <c r="R85" s="63"/>
     </row>
     <row r="86" spans="1:18" ht="15.75">
-      <c r="A86" s="56"/>
-      <c r="B86" s="59"/>
-      <c r="C86" s="66"/>
+      <c r="A86" s="63"/>
+      <c r="B86" s="66"/>
+      <c r="C86" s="70"/>
       <c r="D86" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4617,13 +4656,13 @@
       <c r="N86" s="11"/>
       <c r="O86" s="11"/>
       <c r="P86" s="11"/>
-      <c r="Q86" s="59"/>
-      <c r="R86" s="56"/>
+      <c r="Q86" s="66"/>
+      <c r="R86" s="63"/>
     </row>
     <row r="87" spans="1:18" ht="15.75">
-      <c r="A87" s="56"/>
-      <c r="B87" s="59"/>
-      <c r="C87" s="66"/>
+      <c r="A87" s="63"/>
+      <c r="B87" s="66"/>
+      <c r="C87" s="70"/>
       <c r="D87" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4652,13 +4691,13 @@
       <c r="N87" s="11"/>
       <c r="O87" s="11"/>
       <c r="P87" s="11"/>
-      <c r="Q87" s="59"/>
-      <c r="R87" s="56"/>
+      <c r="Q87" s="66"/>
+      <c r="R87" s="63"/>
     </row>
     <row r="88" spans="1:18" ht="15.75">
-      <c r="A88" s="56"/>
-      <c r="B88" s="59"/>
-      <c r="C88" s="66"/>
+      <c r="A88" s="63"/>
+      <c r="B88" s="66"/>
+      <c r="C88" s="70"/>
       <c r="D88" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4687,13 +4726,13 @@
       <c r="N88" s="11"/>
       <c r="O88" s="11"/>
       <c r="P88" s="11"/>
-      <c r="Q88" s="59"/>
-      <c r="R88" s="56"/>
+      <c r="Q88" s="66"/>
+      <c r="R88" s="63"/>
     </row>
     <row r="89" spans="1:18" ht="15.75">
-      <c r="A89" s="56"/>
-      <c r="B89" s="59"/>
-      <c r="C89" s="66"/>
+      <c r="A89" s="63"/>
+      <c r="B89" s="66"/>
+      <c r="C89" s="70"/>
       <c r="D89" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4722,13 +4761,13 @@
       <c r="N89" s="11"/>
       <c r="O89" s="11"/>
       <c r="P89" s="11"/>
-      <c r="Q89" s="59"/>
-      <c r="R89" s="56"/>
+      <c r="Q89" s="66"/>
+      <c r="R89" s="63"/>
     </row>
     <row r="90" spans="1:18" ht="15.75">
-      <c r="A90" s="56"/>
-      <c r="B90" s="59"/>
-      <c r="C90" s="66"/>
+      <c r="A90" s="63"/>
+      <c r="B90" s="66"/>
+      <c r="C90" s="70"/>
       <c r="D90" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4757,13 +4796,13 @@
       <c r="N90" s="11"/>
       <c r="O90" s="11"/>
       <c r="P90" s="11"/>
-      <c r="Q90" s="59"/>
-      <c r="R90" s="56"/>
+      <c r="Q90" s="66"/>
+      <c r="R90" s="63"/>
     </row>
     <row r="91" spans="1:18" ht="15.75">
-      <c r="A91" s="56"/>
-      <c r="B91" s="59"/>
-      <c r="C91" s="66"/>
+      <c r="A91" s="63"/>
+      <c r="B91" s="66"/>
+      <c r="C91" s="70"/>
       <c r="D91" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4792,13 +4831,13 @@
       <c r="N91" s="11"/>
       <c r="O91" s="11"/>
       <c r="P91" s="11"/>
-      <c r="Q91" s="59"/>
-      <c r="R91" s="56"/>
+      <c r="Q91" s="66"/>
+      <c r="R91" s="63"/>
     </row>
     <row r="92" spans="1:18" ht="15.75">
-      <c r="A92" s="56"/>
-      <c r="B92" s="59"/>
-      <c r="C92" s="66"/>
+      <c r="A92" s="63"/>
+      <c r="B92" s="66"/>
+      <c r="C92" s="70"/>
       <c r="D92" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4827,13 +4866,13 @@
       <c r="N92" s="11"/>
       <c r="O92" s="11"/>
       <c r="P92" s="11"/>
-      <c r="Q92" s="59"/>
-      <c r="R92" s="56"/>
+      <c r="Q92" s="66"/>
+      <c r="R92" s="63"/>
     </row>
     <row r="93" spans="1:18" ht="15.75">
-      <c r="A93" s="56"/>
-      <c r="B93" s="60"/>
-      <c r="C93" s="66"/>
+      <c r="A93" s="63"/>
+      <c r="B93" s="67"/>
+      <c r="C93" s="70"/>
       <c r="D93" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4862,18 +4901,18 @@
       <c r="N93" s="11"/>
       <c r="O93" s="11"/>
       <c r="P93" s="11"/>
-      <c r="Q93" s="60"/>
-      <c r="R93" s="56"/>
+      <c r="Q93" s="67"/>
+      <c r="R93" s="63"/>
     </row>
     <row r="94" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A94" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="B94" s="61">
+      <c r="A94" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" s="60">
         <v>3.1</v>
       </c>
-      <c r="C94" s="66" t="s">
-        <v>38</v>
+      <c r="C94" s="70" t="s">
+        <v>35</v>
       </c>
       <c r="D94" s="5" t="str">
         <f t="shared" si="5"/>
@@ -4883,7 +4922,7 @@
         <v>14</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>15</v>
@@ -4909,22 +4948,22 @@
       <c r="N94" s="11"/>
       <c r="O94" s="11"/>
       <c r="P94" s="11"/>
-      <c r="Q94" s="61"/>
-      <c r="R94" s="57"/>
+      <c r="Q94" s="60"/>
+      <c r="R94" s="64"/>
     </row>
     <row r="95" spans="1:18" ht="25.5">
-      <c r="A95" s="57"/>
-      <c r="B95" s="62"/>
-      <c r="C95" s="66"/>
+      <c r="A95" s="64"/>
+      <c r="B95" s="61"/>
+      <c r="C95" s="70"/>
       <c r="D95" s="5" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>15</v>
@@ -4950,13 +4989,13 @@
       <c r="N95" s="11"/>
       <c r="O95" s="11"/>
       <c r="P95" s="11"/>
-      <c r="Q95" s="62"/>
-      <c r="R95" s="57"/>
+      <c r="Q95" s="61"/>
+      <c r="R95" s="64"/>
     </row>
     <row r="96" spans="1:18" ht="28.5" customHeight="1">
-      <c r="A96" s="57"/>
-      <c r="B96" s="62"/>
-      <c r="C96" s="66"/>
+      <c r="A96" s="64"/>
+      <c r="B96" s="61"/>
+      <c r="C96" s="70"/>
       <c r="D96" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4985,13 +5024,13 @@
       <c r="N96" s="11"/>
       <c r="O96" s="11"/>
       <c r="P96" s="11"/>
-      <c r="Q96" s="62"/>
-      <c r="R96" s="57"/>
+      <c r="Q96" s="61"/>
+      <c r="R96" s="64"/>
     </row>
     <row r="97" spans="1:18" ht="15.75">
-      <c r="A97" s="57"/>
-      <c r="B97" s="62"/>
-      <c r="C97" s="66"/>
+      <c r="A97" s="64"/>
+      <c r="B97" s="61"/>
+      <c r="C97" s="70"/>
       <c r="D97" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5020,13 +5059,13 @@
       <c r="N97" s="11"/>
       <c r="O97" s="11"/>
       <c r="P97" s="11"/>
-      <c r="Q97" s="62"/>
-      <c r="R97" s="57"/>
+      <c r="Q97" s="61"/>
+      <c r="R97" s="64"/>
     </row>
     <row r="98" spans="1:18" ht="15.75">
-      <c r="A98" s="57"/>
-      <c r="B98" s="62"/>
-      <c r="C98" s="66"/>
+      <c r="A98" s="64"/>
+      <c r="B98" s="61"/>
+      <c r="C98" s="70"/>
       <c r="D98" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5055,13 +5094,13 @@
       <c r="N98" s="11"/>
       <c r="O98" s="11"/>
       <c r="P98" s="11"/>
-      <c r="Q98" s="62"/>
-      <c r="R98" s="57"/>
+      <c r="Q98" s="61"/>
+      <c r="R98" s="64"/>
     </row>
     <row r="99" spans="1:18" ht="15.75">
-      <c r="A99" s="57"/>
-      <c r="B99" s="62"/>
-      <c r="C99" s="66"/>
+      <c r="A99" s="64"/>
+      <c r="B99" s="61"/>
+      <c r="C99" s="70"/>
       <c r="D99" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5090,13 +5129,13 @@
       <c r="N99" s="11"/>
       <c r="O99" s="11"/>
       <c r="P99" s="11"/>
-      <c r="Q99" s="62"/>
-      <c r="R99" s="57"/>
+      <c r="Q99" s="61"/>
+      <c r="R99" s="64"/>
     </row>
     <row r="100" spans="1:18" ht="15.75">
-      <c r="A100" s="57"/>
-      <c r="B100" s="62"/>
-      <c r="C100" s="66"/>
+      <c r="A100" s="64"/>
+      <c r="B100" s="61"/>
+      <c r="C100" s="70"/>
       <c r="D100" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5125,13 +5164,13 @@
       <c r="N100" s="11"/>
       <c r="O100" s="11"/>
       <c r="P100" s="11"/>
-      <c r="Q100" s="62"/>
-      <c r="R100" s="57"/>
+      <c r="Q100" s="61"/>
+      <c r="R100" s="64"/>
     </row>
     <row r="101" spans="1:18" ht="15.75">
-      <c r="A101" s="57"/>
-      <c r="B101" s="62"/>
-      <c r="C101" s="66"/>
+      <c r="A101" s="64"/>
+      <c r="B101" s="61"/>
+      <c r="C101" s="70"/>
       <c r="D101" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5160,13 +5199,13 @@
       <c r="N101" s="11"/>
       <c r="O101" s="11"/>
       <c r="P101" s="11"/>
-      <c r="Q101" s="62"/>
-      <c r="R101" s="57"/>
+      <c r="Q101" s="61"/>
+      <c r="R101" s="64"/>
     </row>
     <row r="102" spans="1:18" ht="15.75">
-      <c r="A102" s="57"/>
-      <c r="B102" s="62"/>
-      <c r="C102" s="66"/>
+      <c r="A102" s="64"/>
+      <c r="B102" s="61"/>
+      <c r="C102" s="70"/>
       <c r="D102" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5195,13 +5234,13 @@
       <c r="N102" s="11"/>
       <c r="O102" s="11"/>
       <c r="P102" s="11"/>
-      <c r="Q102" s="62"/>
-      <c r="R102" s="57"/>
+      <c r="Q102" s="61"/>
+      <c r="R102" s="64"/>
     </row>
     <row r="103" spans="1:18" ht="15.75">
-      <c r="A103" s="57"/>
-      <c r="B103" s="62"/>
-      <c r="C103" s="66"/>
+      <c r="A103" s="64"/>
+      <c r="B103" s="61"/>
+      <c r="C103" s="70"/>
       <c r="D103" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5230,13 +5269,13 @@
       <c r="N103" s="11"/>
       <c r="O103" s="11"/>
       <c r="P103" s="11"/>
-      <c r="Q103" s="62"/>
-      <c r="R103" s="57"/>
+      <c r="Q103" s="61"/>
+      <c r="R103" s="64"/>
     </row>
     <row r="104" spans="1:18" ht="15.75">
-      <c r="A104" s="57"/>
-      <c r="B104" s="62"/>
-      <c r="C104" s="66"/>
+      <c r="A104" s="64"/>
+      <c r="B104" s="61"/>
+      <c r="C104" s="70"/>
       <c r="D104" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5265,13 +5304,13 @@
       <c r="N104" s="11"/>
       <c r="O104" s="11"/>
       <c r="P104" s="11"/>
-      <c r="Q104" s="62"/>
-      <c r="R104" s="57"/>
+      <c r="Q104" s="61"/>
+      <c r="R104" s="64"/>
     </row>
     <row r="105" spans="1:18" ht="15.75">
-      <c r="A105" s="57"/>
-      <c r="B105" s="62"/>
-      <c r="C105" s="66"/>
+      <c r="A105" s="64"/>
+      <c r="B105" s="61"/>
+      <c r="C105" s="70"/>
       <c r="D105" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5300,13 +5339,13 @@
       <c r="N105" s="11"/>
       <c r="O105" s="11"/>
       <c r="P105" s="11"/>
-      <c r="Q105" s="62"/>
-      <c r="R105" s="57"/>
+      <c r="Q105" s="61"/>
+      <c r="R105" s="64"/>
     </row>
     <row r="106" spans="1:18" ht="15.75">
-      <c r="A106" s="57"/>
-      <c r="B106" s="62"/>
-      <c r="C106" s="66"/>
+      <c r="A106" s="64"/>
+      <c r="B106" s="61"/>
+      <c r="C106" s="70"/>
       <c r="D106" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5335,13 +5374,13 @@
       <c r="N106" s="11"/>
       <c r="O106" s="11"/>
       <c r="P106" s="11"/>
-      <c r="Q106" s="62"/>
-      <c r="R106" s="57"/>
+      <c r="Q106" s="61"/>
+      <c r="R106" s="64"/>
     </row>
     <row r="107" spans="1:18" ht="15.75">
-      <c r="A107" s="57"/>
-      <c r="B107" s="62"/>
-      <c r="C107" s="66"/>
+      <c r="A107" s="64"/>
+      <c r="B107" s="61"/>
+      <c r="C107" s="70"/>
       <c r="D107" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5370,13 +5409,13 @@
       <c r="N107" s="11"/>
       <c r="O107" s="11"/>
       <c r="P107" s="11"/>
-      <c r="Q107" s="62"/>
-      <c r="R107" s="57"/>
+      <c r="Q107" s="61"/>
+      <c r="R107" s="64"/>
     </row>
     <row r="108" spans="1:18" ht="15.75">
-      <c r="A108" s="57"/>
-      <c r="B108" s="63"/>
-      <c r="C108" s="66"/>
+      <c r="A108" s="64"/>
+      <c r="B108" s="62"/>
+      <c r="C108" s="70"/>
       <c r="D108" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5405,26 +5444,26 @@
       <c r="N108" s="11"/>
       <c r="O108" s="11"/>
       <c r="P108" s="11"/>
-      <c r="Q108" s="63"/>
-      <c r="R108" s="57"/>
+      <c r="Q108" s="62"/>
+      <c r="R108" s="64"/>
     </row>
     <row r="109" spans="1:18" ht="38.25">
-      <c r="A109" s="57"/>
-      <c r="B109" s="61">
+      <c r="A109" s="64"/>
+      <c r="B109" s="60">
         <v>3.2</v>
       </c>
-      <c r="C109" s="66" t="s">
-        <v>41</v>
+      <c r="C109" s="70" t="s">
+        <v>38</v>
       </c>
       <c r="D109" s="5" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>15</v>
@@ -5450,22 +5489,22 @@
       <c r="N109" s="11"/>
       <c r="O109" s="11"/>
       <c r="P109" s="11"/>
-      <c r="Q109" s="61"/>
-      <c r="R109" s="57"/>
+      <c r="Q109" s="60"/>
+      <c r="R109" s="64"/>
     </row>
     <row r="110" spans="1:18" ht="15.75">
-      <c r="A110" s="57"/>
-      <c r="B110" s="62"/>
-      <c r="C110" s="66"/>
+      <c r="A110" s="64"/>
+      <c r="B110" s="61"/>
+      <c r="C110" s="70"/>
       <c r="D110" s="5" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>15</v>
@@ -5491,13 +5530,13 @@
       <c r="N110" s="11"/>
       <c r="O110" s="11"/>
       <c r="P110" s="11"/>
-      <c r="Q110" s="62"/>
-      <c r="R110" s="57"/>
+      <c r="Q110" s="61"/>
+      <c r="R110" s="64"/>
     </row>
     <row r="111" spans="1:18" ht="15.75">
-      <c r="A111" s="57"/>
-      <c r="B111" s="62"/>
-      <c r="C111" s="66"/>
+      <c r="A111" s="64"/>
+      <c r="B111" s="61"/>
+      <c r="C111" s="70"/>
       <c r="D111" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5526,13 +5565,13 @@
       <c r="N111" s="11"/>
       <c r="O111" s="11"/>
       <c r="P111" s="11"/>
-      <c r="Q111" s="62"/>
-      <c r="R111" s="57"/>
+      <c r="Q111" s="61"/>
+      <c r="R111" s="64"/>
     </row>
     <row r="112" spans="1:18" ht="15.75">
-      <c r="A112" s="57"/>
-      <c r="B112" s="62"/>
-      <c r="C112" s="66"/>
+      <c r="A112" s="64"/>
+      <c r="B112" s="61"/>
+      <c r="C112" s="70"/>
       <c r="D112" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5561,13 +5600,13 @@
       <c r="N112" s="11"/>
       <c r="O112" s="11"/>
       <c r="P112" s="11"/>
-      <c r="Q112" s="62"/>
-      <c r="R112" s="57"/>
+      <c r="Q112" s="61"/>
+      <c r="R112" s="64"/>
     </row>
     <row r="113" spans="1:18" ht="15.75">
-      <c r="A113" s="57"/>
-      <c r="B113" s="62"/>
-      <c r="C113" s="66"/>
+      <c r="A113" s="64"/>
+      <c r="B113" s="61"/>
+      <c r="C113" s="70"/>
       <c r="D113" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5596,13 +5635,13 @@
       <c r="N113" s="11"/>
       <c r="O113" s="11"/>
       <c r="P113" s="11"/>
-      <c r="Q113" s="62"/>
-      <c r="R113" s="57"/>
+      <c r="Q113" s="61"/>
+      <c r="R113" s="64"/>
     </row>
     <row r="114" spans="1:18" ht="15.75">
-      <c r="A114" s="57"/>
-      <c r="B114" s="62"/>
-      <c r="C114" s="66"/>
+      <c r="A114" s="64"/>
+      <c r="B114" s="61"/>
+      <c r="C114" s="70"/>
       <c r="D114" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5631,13 +5670,13 @@
       <c r="N114" s="11"/>
       <c r="O114" s="11"/>
       <c r="P114" s="11"/>
-      <c r="Q114" s="62"/>
-      <c r="R114" s="57"/>
+      <c r="Q114" s="61"/>
+      <c r="R114" s="64"/>
     </row>
     <row r="115" spans="1:18" ht="15.75">
-      <c r="A115" s="57"/>
-      <c r="B115" s="62"/>
-      <c r="C115" s="66"/>
+      <c r="A115" s="64"/>
+      <c r="B115" s="61"/>
+      <c r="C115" s="70"/>
       <c r="D115" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5666,13 +5705,13 @@
       <c r="N115" s="11"/>
       <c r="O115" s="11"/>
       <c r="P115" s="11"/>
-      <c r="Q115" s="62"/>
-      <c r="R115" s="57"/>
+      <c r="Q115" s="61"/>
+      <c r="R115" s="64"/>
     </row>
     <row r="116" spans="1:18" ht="15.75">
-      <c r="A116" s="57"/>
-      <c r="B116" s="62"/>
-      <c r="C116" s="66"/>
+      <c r="A116" s="64"/>
+      <c r="B116" s="61"/>
+      <c r="C116" s="70"/>
       <c r="D116" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5701,13 +5740,13 @@
       <c r="N116" s="11"/>
       <c r="O116" s="11"/>
       <c r="P116" s="11"/>
-      <c r="Q116" s="62"/>
-      <c r="R116" s="57"/>
+      <c r="Q116" s="61"/>
+      <c r="R116" s="64"/>
     </row>
     <row r="117" spans="1:18" ht="15.75">
-      <c r="A117" s="57"/>
-      <c r="B117" s="62"/>
-      <c r="C117" s="66"/>
+      <c r="A117" s="64"/>
+      <c r="B117" s="61"/>
+      <c r="C117" s="70"/>
       <c r="D117" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5736,13 +5775,13 @@
       <c r="N117" s="11"/>
       <c r="O117" s="11"/>
       <c r="P117" s="11"/>
-      <c r="Q117" s="62"/>
-      <c r="R117" s="57"/>
+      <c r="Q117" s="61"/>
+      <c r="R117" s="64"/>
     </row>
     <row r="118" spans="1:18" ht="15.75">
-      <c r="A118" s="57"/>
-      <c r="B118" s="62"/>
-      <c r="C118" s="66"/>
+      <c r="A118" s="64"/>
+      <c r="B118" s="61"/>
+      <c r="C118" s="70"/>
       <c r="D118" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5771,13 +5810,13 @@
       <c r="N118" s="11"/>
       <c r="O118" s="11"/>
       <c r="P118" s="11"/>
-      <c r="Q118" s="62"/>
-      <c r="R118" s="57"/>
+      <c r="Q118" s="61"/>
+      <c r="R118" s="64"/>
     </row>
     <row r="119" spans="1:18" ht="15.75">
-      <c r="A119" s="57"/>
-      <c r="B119" s="62"/>
-      <c r="C119" s="66"/>
+      <c r="A119" s="64"/>
+      <c r="B119" s="61"/>
+      <c r="C119" s="70"/>
       <c r="D119" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5806,13 +5845,13 @@
       <c r="N119" s="11"/>
       <c r="O119" s="11"/>
       <c r="P119" s="11"/>
-      <c r="Q119" s="62"/>
-      <c r="R119" s="57"/>
+      <c r="Q119" s="61"/>
+      <c r="R119" s="64"/>
     </row>
     <row r="120" spans="1:18" ht="15.75">
-      <c r="A120" s="57"/>
-      <c r="B120" s="62"/>
-      <c r="C120" s="66"/>
+      <c r="A120" s="64"/>
+      <c r="B120" s="61"/>
+      <c r="C120" s="70"/>
       <c r="D120" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5841,13 +5880,13 @@
       <c r="N120" s="11"/>
       <c r="O120" s="11"/>
       <c r="P120" s="11"/>
-      <c r="Q120" s="62"/>
-      <c r="R120" s="57"/>
+      <c r="Q120" s="61"/>
+      <c r="R120" s="64"/>
     </row>
     <row r="121" spans="1:18" ht="15.75">
-      <c r="A121" s="57"/>
-      <c r="B121" s="62"/>
-      <c r="C121" s="66"/>
+      <c r="A121" s="64"/>
+      <c r="B121" s="61"/>
+      <c r="C121" s="70"/>
       <c r="D121" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5876,13 +5915,13 @@
       <c r="N121" s="11"/>
       <c r="O121" s="11"/>
       <c r="P121" s="11"/>
-      <c r="Q121" s="62"/>
-      <c r="R121" s="57"/>
+      <c r="Q121" s="61"/>
+      <c r="R121" s="64"/>
     </row>
     <row r="122" spans="1:18" ht="15.75">
-      <c r="A122" s="57"/>
-      <c r="B122" s="62"/>
-      <c r="C122" s="66"/>
+      <c r="A122" s="64"/>
+      <c r="B122" s="61"/>
+      <c r="C122" s="70"/>
       <c r="D122" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5911,13 +5950,13 @@
       <c r="N122" s="11"/>
       <c r="O122" s="11"/>
       <c r="P122" s="11"/>
-      <c r="Q122" s="62"/>
-      <c r="R122" s="57"/>
+      <c r="Q122" s="61"/>
+      <c r="R122" s="64"/>
     </row>
     <row r="123" spans="1:18" ht="15.75">
-      <c r="A123" s="57"/>
-      <c r="B123" s="63"/>
-      <c r="C123" s="66"/>
+      <c r="A123" s="64"/>
+      <c r="B123" s="62"/>
+      <c r="C123" s="70"/>
       <c r="D123" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5946,26 +5985,26 @@
       <c r="N123" s="11"/>
       <c r="O123" s="11"/>
       <c r="P123" s="11"/>
-      <c r="Q123" s="63"/>
-      <c r="R123" s="57"/>
+      <c r="Q123" s="62"/>
+      <c r="R123" s="64"/>
     </row>
     <row r="124" spans="1:18" ht="63.75">
-      <c r="A124" s="57"/>
-      <c r="B124" s="61">
+      <c r="A124" s="64"/>
+      <c r="B124" s="60">
         <v>3.3</v>
       </c>
-      <c r="C124" s="66" t="s">
-        <v>45</v>
+      <c r="C124" s="70" t="s">
+        <v>42</v>
       </c>
       <c r="D124" s="5" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G124" s="11" t="s">
         <v>15</v>
@@ -5991,13 +6030,13 @@
       <c r="N124" s="11"/>
       <c r="O124" s="11"/>
       <c r="P124" s="11"/>
-      <c r="Q124" s="61"/>
-      <c r="R124" s="57"/>
+      <c r="Q124" s="60"/>
+      <c r="R124" s="64"/>
     </row>
     <row r="125" spans="1:18" ht="15.75">
-      <c r="A125" s="57"/>
-      <c r="B125" s="62"/>
-      <c r="C125" s="66"/>
+      <c r="A125" s="64"/>
+      <c r="B125" s="61"/>
+      <c r="C125" s="70"/>
       <c r="D125" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6026,13 +6065,13 @@
       <c r="N125" s="11"/>
       <c r="O125" s="11"/>
       <c r="P125" s="11"/>
-      <c r="Q125" s="62"/>
-      <c r="R125" s="57"/>
+      <c r="Q125" s="61"/>
+      <c r="R125" s="64"/>
     </row>
     <row r="126" spans="1:18" ht="15.75">
-      <c r="A126" s="57"/>
-      <c r="B126" s="62"/>
-      <c r="C126" s="66"/>
+      <c r="A126" s="64"/>
+      <c r="B126" s="61"/>
+      <c r="C126" s="70"/>
       <c r="D126" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6061,13 +6100,13 @@
       <c r="N126" s="11"/>
       <c r="O126" s="11"/>
       <c r="P126" s="11"/>
-      <c r="Q126" s="62"/>
-      <c r="R126" s="57"/>
+      <c r="Q126" s="61"/>
+      <c r="R126" s="64"/>
     </row>
     <row r="127" spans="1:18" ht="15.75">
-      <c r="A127" s="57"/>
-      <c r="B127" s="62"/>
-      <c r="C127" s="66"/>
+      <c r="A127" s="64"/>
+      <c r="B127" s="61"/>
+      <c r="C127" s="70"/>
       <c r="D127" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6096,13 +6135,13 @@
       <c r="N127" s="11"/>
       <c r="O127" s="11"/>
       <c r="P127" s="11"/>
-      <c r="Q127" s="62"/>
-      <c r="R127" s="57"/>
+      <c r="Q127" s="61"/>
+      <c r="R127" s="64"/>
     </row>
     <row r="128" spans="1:18" ht="15.75">
-      <c r="A128" s="57"/>
-      <c r="B128" s="62"/>
-      <c r="C128" s="66"/>
+      <c r="A128" s="64"/>
+      <c r="B128" s="61"/>
+      <c r="C128" s="70"/>
       <c r="D128" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6131,13 +6170,13 @@
       <c r="N128" s="11"/>
       <c r="O128" s="11"/>
       <c r="P128" s="11"/>
-      <c r="Q128" s="62"/>
-      <c r="R128" s="57"/>
+      <c r="Q128" s="61"/>
+      <c r="R128" s="64"/>
     </row>
     <row r="129" spans="1:18" ht="15.75">
-      <c r="A129" s="57"/>
-      <c r="B129" s="62"/>
-      <c r="C129" s="66"/>
+      <c r="A129" s="64"/>
+      <c r="B129" s="61"/>
+      <c r="C129" s="70"/>
       <c r="D129" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6166,13 +6205,13 @@
       <c r="N129" s="11"/>
       <c r="O129" s="11"/>
       <c r="P129" s="11"/>
-      <c r="Q129" s="62"/>
-      <c r="R129" s="57"/>
+      <c r="Q129" s="61"/>
+      <c r="R129" s="64"/>
     </row>
     <row r="130" spans="1:18" ht="15.75">
-      <c r="A130" s="57"/>
-      <c r="B130" s="62"/>
-      <c r="C130" s="66"/>
+      <c r="A130" s="64"/>
+      <c r="B130" s="61"/>
+      <c r="C130" s="70"/>
       <c r="D130" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6201,13 +6240,13 @@
       <c r="N130" s="11"/>
       <c r="O130" s="11"/>
       <c r="P130" s="11"/>
-      <c r="Q130" s="62"/>
-      <c r="R130" s="57"/>
+      <c r="Q130" s="61"/>
+      <c r="R130" s="64"/>
     </row>
     <row r="131" spans="1:18" ht="15.75">
-      <c r="A131" s="57"/>
-      <c r="B131" s="62"/>
-      <c r="C131" s="66"/>
+      <c r="A131" s="64"/>
+      <c r="B131" s="61"/>
+      <c r="C131" s="70"/>
       <c r="D131" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6236,13 +6275,13 @@
       <c r="N131" s="11"/>
       <c r="O131" s="11"/>
       <c r="P131" s="11"/>
-      <c r="Q131" s="62"/>
-      <c r="R131" s="57"/>
+      <c r="Q131" s="61"/>
+      <c r="R131" s="64"/>
     </row>
     <row r="132" spans="1:18" ht="15.75">
-      <c r="A132" s="57"/>
-      <c r="B132" s="62"/>
-      <c r="C132" s="66"/>
+      <c r="A132" s="64"/>
+      <c r="B132" s="61"/>
+      <c r="C132" s="70"/>
       <c r="D132" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6271,13 +6310,13 @@
       <c r="N132" s="11"/>
       <c r="O132" s="11"/>
       <c r="P132" s="11"/>
-      <c r="Q132" s="62"/>
-      <c r="R132" s="57"/>
+      <c r="Q132" s="61"/>
+      <c r="R132" s="64"/>
     </row>
     <row r="133" spans="1:18" ht="15.75">
-      <c r="A133" s="57"/>
-      <c r="B133" s="62"/>
-      <c r="C133" s="66"/>
+      <c r="A133" s="64"/>
+      <c r="B133" s="61"/>
+      <c r="C133" s="70"/>
       <c r="D133" s="5" t="str">
         <f t="shared" ref="D133:D196" si="8">IF(LEN(E133)&gt;5,IF(LEN(K133&amp;L133&amp;M133)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -6306,13 +6345,13 @@
       <c r="N133" s="11"/>
       <c r="O133" s="11"/>
       <c r="P133" s="11"/>
-      <c r="Q133" s="62"/>
-      <c r="R133" s="57"/>
+      <c r="Q133" s="61"/>
+      <c r="R133" s="64"/>
     </row>
     <row r="134" spans="1:18" ht="15.75">
-      <c r="A134" s="57"/>
-      <c r="B134" s="62"/>
-      <c r="C134" s="66"/>
+      <c r="A134" s="64"/>
+      <c r="B134" s="61"/>
+      <c r="C134" s="70"/>
       <c r="D134" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6341,13 +6380,13 @@
       <c r="N134" s="11"/>
       <c r="O134" s="11"/>
       <c r="P134" s="11"/>
-      <c r="Q134" s="62"/>
-      <c r="R134" s="57"/>
+      <c r="Q134" s="61"/>
+      <c r="R134" s="64"/>
     </row>
     <row r="135" spans="1:18" ht="15.75">
-      <c r="A135" s="57"/>
-      <c r="B135" s="62"/>
-      <c r="C135" s="66"/>
+      <c r="A135" s="64"/>
+      <c r="B135" s="61"/>
+      <c r="C135" s="70"/>
       <c r="D135" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6376,13 +6415,13 @@
       <c r="N135" s="11"/>
       <c r="O135" s="11"/>
       <c r="P135" s="11"/>
-      <c r="Q135" s="62"/>
-      <c r="R135" s="57"/>
+      <c r="Q135" s="61"/>
+      <c r="R135" s="64"/>
     </row>
     <row r="136" spans="1:18" ht="15.75">
-      <c r="A136" s="57"/>
-      <c r="B136" s="62"/>
-      <c r="C136" s="66"/>
+      <c r="A136" s="64"/>
+      <c r="B136" s="61"/>
+      <c r="C136" s="70"/>
       <c r="D136" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6411,13 +6450,13 @@
       <c r="N136" s="11"/>
       <c r="O136" s="11"/>
       <c r="P136" s="11"/>
-      <c r="Q136" s="62"/>
-      <c r="R136" s="57"/>
+      <c r="Q136" s="61"/>
+      <c r="R136" s="64"/>
     </row>
     <row r="137" spans="1:18" ht="15.75">
-      <c r="A137" s="57"/>
-      <c r="B137" s="62"/>
-      <c r="C137" s="66"/>
+      <c r="A137" s="64"/>
+      <c r="B137" s="61"/>
+      <c r="C137" s="70"/>
       <c r="D137" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6446,13 +6485,13 @@
       <c r="N137" s="11"/>
       <c r="O137" s="11"/>
       <c r="P137" s="11"/>
-      <c r="Q137" s="62"/>
-      <c r="R137" s="57"/>
+      <c r="Q137" s="61"/>
+      <c r="R137" s="64"/>
     </row>
     <row r="138" spans="1:18" ht="15.75">
-      <c r="A138" s="57"/>
-      <c r="B138" s="63"/>
-      <c r="C138" s="66"/>
+      <c r="A138" s="64"/>
+      <c r="B138" s="62"/>
+      <c r="C138" s="70"/>
       <c r="D138" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6481,16 +6520,16 @@
       <c r="N138" s="11"/>
       <c r="O138" s="11"/>
       <c r="P138" s="11"/>
-      <c r="Q138" s="63"/>
-      <c r="R138" s="57"/>
+      <c r="Q138" s="62"/>
+      <c r="R138" s="64"/>
     </row>
     <row r="139" spans="1:18" ht="51">
-      <c r="A139" s="57"/>
-      <c r="B139" s="61">
+      <c r="A139" s="64"/>
+      <c r="B139" s="60">
         <v>3.4</v>
       </c>
-      <c r="C139" s="66" t="s">
-        <v>47</v>
+      <c r="C139" s="70" t="s">
+        <v>44</v>
       </c>
       <c r="D139" s="5" t="str">
         <f t="shared" si="8"/>
@@ -6500,7 +6539,7 @@
         <v>18</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G139" s="11" t="s">
         <v>15</v>
@@ -6526,22 +6565,22 @@
       <c r="N139" s="11"/>
       <c r="O139" s="11"/>
       <c r="P139" s="11"/>
-      <c r="Q139" s="61"/>
-      <c r="R139" s="57"/>
+      <c r="Q139" s="60"/>
+      <c r="R139" s="64"/>
     </row>
     <row r="140" spans="1:18" ht="25.5">
-      <c r="A140" s="57"/>
-      <c r="B140" s="62"/>
-      <c r="C140" s="66"/>
+      <c r="A140" s="64"/>
+      <c r="B140" s="61"/>
+      <c r="C140" s="70"/>
       <c r="D140" s="5" t="str">
         <f t="shared" si="8"/>
         <v>OK</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G140" s="11" t="s">
         <v>15</v>
@@ -6567,13 +6606,13 @@
       <c r="N140" s="11"/>
       <c r="O140" s="11"/>
       <c r="P140" s="11"/>
-      <c r="Q140" s="62"/>
-      <c r="R140" s="57"/>
+      <c r="Q140" s="61"/>
+      <c r="R140" s="64"/>
     </row>
     <row r="141" spans="1:18" ht="15.75">
-      <c r="A141" s="57"/>
-      <c r="B141" s="62"/>
-      <c r="C141" s="66"/>
+      <c r="A141" s="64"/>
+      <c r="B141" s="61"/>
+      <c r="C141" s="70"/>
       <c r="D141" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6602,13 +6641,13 @@
       <c r="N141" s="11"/>
       <c r="O141" s="11"/>
       <c r="P141" s="11"/>
-      <c r="Q141" s="62"/>
-      <c r="R141" s="57"/>
+      <c r="Q141" s="61"/>
+      <c r="R141" s="64"/>
     </row>
     <row r="142" spans="1:18" ht="15.75">
-      <c r="A142" s="57"/>
-      <c r="B142" s="62"/>
-      <c r="C142" s="66"/>
+      <c r="A142" s="64"/>
+      <c r="B142" s="61"/>
+      <c r="C142" s="70"/>
       <c r="D142" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6637,13 +6676,13 @@
       <c r="N142" s="11"/>
       <c r="O142" s="11"/>
       <c r="P142" s="11"/>
-      <c r="Q142" s="62"/>
-      <c r="R142" s="57"/>
+      <c r="Q142" s="61"/>
+      <c r="R142" s="64"/>
     </row>
     <row r="143" spans="1:18" ht="15.75">
-      <c r="A143" s="57"/>
-      <c r="B143" s="62"/>
-      <c r="C143" s="66"/>
+      <c r="A143" s="64"/>
+      <c r="B143" s="61"/>
+      <c r="C143" s="70"/>
       <c r="D143" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6672,13 +6711,13 @@
       <c r="N143" s="11"/>
       <c r="O143" s="11"/>
       <c r="P143" s="11"/>
-      <c r="Q143" s="62"/>
-      <c r="R143" s="57"/>
+      <c r="Q143" s="61"/>
+      <c r="R143" s="64"/>
     </row>
     <row r="144" spans="1:18" ht="15.75">
-      <c r="A144" s="57"/>
-      <c r="B144" s="62"/>
-      <c r="C144" s="66"/>
+      <c r="A144" s="64"/>
+      <c r="B144" s="61"/>
+      <c r="C144" s="70"/>
       <c r="D144" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6707,13 +6746,13 @@
       <c r="N144" s="11"/>
       <c r="O144" s="11"/>
       <c r="P144" s="11"/>
-      <c r="Q144" s="62"/>
-      <c r="R144" s="57"/>
+      <c r="Q144" s="61"/>
+      <c r="R144" s="64"/>
     </row>
     <row r="145" spans="1:18" ht="15.75">
-      <c r="A145" s="57"/>
-      <c r="B145" s="62"/>
-      <c r="C145" s="66"/>
+      <c r="A145" s="64"/>
+      <c r="B145" s="61"/>
+      <c r="C145" s="70"/>
       <c r="D145" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6742,13 +6781,13 @@
       <c r="N145" s="11"/>
       <c r="O145" s="11"/>
       <c r="P145" s="11"/>
-      <c r="Q145" s="62"/>
-      <c r="R145" s="57"/>
+      <c r="Q145" s="61"/>
+      <c r="R145" s="64"/>
     </row>
     <row r="146" spans="1:18" ht="15.75">
-      <c r="A146" s="57"/>
-      <c r="B146" s="62"/>
-      <c r="C146" s="66"/>
+      <c r="A146" s="64"/>
+      <c r="B146" s="61"/>
+      <c r="C146" s="70"/>
       <c r="D146" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6777,13 +6816,13 @@
       <c r="N146" s="11"/>
       <c r="O146" s="11"/>
       <c r="P146" s="11"/>
-      <c r="Q146" s="62"/>
-      <c r="R146" s="57"/>
+      <c r="Q146" s="61"/>
+      <c r="R146" s="64"/>
     </row>
     <row r="147" spans="1:18" ht="15.75">
-      <c r="A147" s="57"/>
-      <c r="B147" s="62"/>
-      <c r="C147" s="66"/>
+      <c r="A147" s="64"/>
+      <c r="B147" s="61"/>
+      <c r="C147" s="70"/>
       <c r="D147" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6812,13 +6851,13 @@
       <c r="N147" s="11"/>
       <c r="O147" s="11"/>
       <c r="P147" s="11"/>
-      <c r="Q147" s="62"/>
-      <c r="R147" s="57"/>
+      <c r="Q147" s="61"/>
+      <c r="R147" s="64"/>
     </row>
     <row r="148" spans="1:18" ht="15.75">
-      <c r="A148" s="57"/>
-      <c r="B148" s="62"/>
-      <c r="C148" s="66"/>
+      <c r="A148" s="64"/>
+      <c r="B148" s="61"/>
+      <c r="C148" s="70"/>
       <c r="D148" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6847,13 +6886,13 @@
       <c r="N148" s="11"/>
       <c r="O148" s="11"/>
       <c r="P148" s="11"/>
-      <c r="Q148" s="62"/>
-      <c r="R148" s="57"/>
+      <c r="Q148" s="61"/>
+      <c r="R148" s="64"/>
     </row>
     <row r="149" spans="1:18" ht="15.75">
-      <c r="A149" s="57"/>
-      <c r="B149" s="62"/>
-      <c r="C149" s="66"/>
+      <c r="A149" s="64"/>
+      <c r="B149" s="61"/>
+      <c r="C149" s="70"/>
       <c r="D149" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6882,13 +6921,13 @@
       <c r="N149" s="11"/>
       <c r="O149" s="11"/>
       <c r="P149" s="11"/>
-      <c r="Q149" s="62"/>
-      <c r="R149" s="57"/>
+      <c r="Q149" s="61"/>
+      <c r="R149" s="64"/>
     </row>
     <row r="150" spans="1:18" ht="15.75">
-      <c r="A150" s="57"/>
-      <c r="B150" s="62"/>
-      <c r="C150" s="66"/>
+      <c r="A150" s="64"/>
+      <c r="B150" s="61"/>
+      <c r="C150" s="70"/>
       <c r="D150" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6917,13 +6956,13 @@
       <c r="N150" s="11"/>
       <c r="O150" s="11"/>
       <c r="P150" s="11"/>
-      <c r="Q150" s="62"/>
-      <c r="R150" s="57"/>
+      <c r="Q150" s="61"/>
+      <c r="R150" s="64"/>
     </row>
     <row r="151" spans="1:18" ht="15.75">
-      <c r="A151" s="57"/>
-      <c r="B151" s="62"/>
-      <c r="C151" s="66"/>
+      <c r="A151" s="64"/>
+      <c r="B151" s="61"/>
+      <c r="C151" s="70"/>
       <c r="D151" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6952,13 +6991,13 @@
       <c r="N151" s="11"/>
       <c r="O151" s="11"/>
       <c r="P151" s="11"/>
-      <c r="Q151" s="62"/>
-      <c r="R151" s="57"/>
+      <c r="Q151" s="61"/>
+      <c r="R151" s="64"/>
     </row>
     <row r="152" spans="1:18" ht="15.75">
-      <c r="A152" s="57"/>
-      <c r="B152" s="62"/>
-      <c r="C152" s="66"/>
+      <c r="A152" s="64"/>
+      <c r="B152" s="61"/>
+      <c r="C152" s="70"/>
       <c r="D152" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6987,13 +7026,13 @@
       <c r="N152" s="11"/>
       <c r="O152" s="11"/>
       <c r="P152" s="11"/>
-      <c r="Q152" s="62"/>
-      <c r="R152" s="57"/>
+      <c r="Q152" s="61"/>
+      <c r="R152" s="64"/>
     </row>
     <row r="153" spans="1:18" ht="15.75">
-      <c r="A153" s="57"/>
-      <c r="B153" s="63"/>
-      <c r="C153" s="66"/>
+      <c r="A153" s="64"/>
+      <c r="B153" s="62"/>
+      <c r="C153" s="70"/>
       <c r="D153" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7022,13 +7061,13 @@
       <c r="N153" s="11"/>
       <c r="O153" s="11"/>
       <c r="P153" s="11"/>
-      <c r="Q153" s="63"/>
-      <c r="R153" s="57"/>
+      <c r="Q153" s="62"/>
+      <c r="R153" s="64"/>
     </row>
     <row r="154" spans="1:18" ht="102" customHeight="1">
       <c r="A154" s="17"/>
-      <c r="B154" s="61"/>
-      <c r="C154" s="65"/>
+      <c r="B154" s="60"/>
+      <c r="C154" s="68"/>
       <c r="D154" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7057,13 +7096,13 @@
       <c r="N154" s="11"/>
       <c r="O154" s="11"/>
       <c r="P154" s="11"/>
-      <c r="Q154" s="61"/>
-      <c r="R154" s="57"/>
+      <c r="Q154" s="60"/>
+      <c r="R154" s="64"/>
     </row>
     <row r="155" spans="1:18" ht="15.75">
       <c r="A155" s="17"/>
-      <c r="B155" s="62"/>
-      <c r="C155" s="65"/>
+      <c r="B155" s="61"/>
+      <c r="C155" s="68"/>
       <c r="D155" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7092,13 +7131,13 @@
       <c r="N155" s="11"/>
       <c r="O155" s="11"/>
       <c r="P155" s="11"/>
-      <c r="Q155" s="62"/>
-      <c r="R155" s="57"/>
+      <c r="Q155" s="61"/>
+      <c r="R155" s="64"/>
     </row>
     <row r="156" spans="1:18" ht="15.75">
       <c r="A156" s="17"/>
-      <c r="B156" s="62"/>
-      <c r="C156" s="65"/>
+      <c r="B156" s="61"/>
+      <c r="C156" s="68"/>
       <c r="D156" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7127,13 +7166,13 @@
       <c r="N156" s="11"/>
       <c r="O156" s="11"/>
       <c r="P156" s="11"/>
-      <c r="Q156" s="62"/>
-      <c r="R156" s="57"/>
+      <c r="Q156" s="61"/>
+      <c r="R156" s="64"/>
     </row>
     <row r="157" spans="1:18" ht="15.75">
       <c r="A157" s="17"/>
-      <c r="B157" s="62"/>
-      <c r="C157" s="65"/>
+      <c r="B157" s="61"/>
+      <c r="C157" s="68"/>
       <c r="D157" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7162,13 +7201,13 @@
       <c r="N157" s="11"/>
       <c r="O157" s="11"/>
       <c r="P157" s="11"/>
-      <c r="Q157" s="62"/>
-      <c r="R157" s="57"/>
+      <c r="Q157" s="61"/>
+      <c r="R157" s="64"/>
     </row>
     <row r="158" spans="1:18" ht="15.75">
       <c r="A158" s="17"/>
-      <c r="B158" s="62"/>
-      <c r="C158" s="65"/>
+      <c r="B158" s="61"/>
+      <c r="C158" s="68"/>
       <c r="D158" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7197,13 +7236,13 @@
       <c r="N158" s="11"/>
       <c r="O158" s="11"/>
       <c r="P158" s="11"/>
-      <c r="Q158" s="62"/>
-      <c r="R158" s="57"/>
+      <c r="Q158" s="61"/>
+      <c r="R158" s="64"/>
     </row>
     <row r="159" spans="1:18" ht="15.75">
       <c r="A159" s="17"/>
-      <c r="B159" s="62"/>
-      <c r="C159" s="65"/>
+      <c r="B159" s="61"/>
+      <c r="C159" s="68"/>
       <c r="D159" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7232,13 +7271,13 @@
       <c r="N159" s="11"/>
       <c r="O159" s="11"/>
       <c r="P159" s="11"/>
-      <c r="Q159" s="62"/>
-      <c r="R159" s="57"/>
+      <c r="Q159" s="61"/>
+      <c r="R159" s="64"/>
     </row>
     <row r="160" spans="1:18" ht="15.75">
       <c r="A160" s="17"/>
-      <c r="B160" s="62"/>
-      <c r="C160" s="65"/>
+      <c r="B160" s="61"/>
+      <c r="C160" s="68"/>
       <c r="D160" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7267,13 +7306,13 @@
       <c r="N160" s="11"/>
       <c r="O160" s="11"/>
       <c r="P160" s="11"/>
-      <c r="Q160" s="62"/>
-      <c r="R160" s="57"/>
+      <c r="Q160" s="61"/>
+      <c r="R160" s="64"/>
     </row>
     <row r="161" spans="1:18" ht="15.75">
       <c r="A161" s="17"/>
-      <c r="B161" s="62"/>
-      <c r="C161" s="65"/>
+      <c r="B161" s="61"/>
+      <c r="C161" s="68"/>
       <c r="D161" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7302,13 +7341,13 @@
       <c r="N161" s="11"/>
       <c r="O161" s="11"/>
       <c r="P161" s="11"/>
-      <c r="Q161" s="62"/>
-      <c r="R161" s="57"/>
+      <c r="Q161" s="61"/>
+      <c r="R161" s="64"/>
     </row>
     <row r="162" spans="1:18" ht="15.75">
       <c r="A162" s="17"/>
-      <c r="B162" s="62"/>
-      <c r="C162" s="65"/>
+      <c r="B162" s="61"/>
+      <c r="C162" s="68"/>
       <c r="D162" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7337,13 +7376,13 @@
       <c r="N162" s="11"/>
       <c r="O162" s="11"/>
       <c r="P162" s="11"/>
-      <c r="Q162" s="62"/>
-      <c r="R162" s="57"/>
+      <c r="Q162" s="61"/>
+      <c r="R162" s="64"/>
     </row>
     <row r="163" spans="1:18" ht="15.75">
       <c r="A163" s="17"/>
-      <c r="B163" s="62"/>
-      <c r="C163" s="65"/>
+      <c r="B163" s="61"/>
+      <c r="C163" s="68"/>
       <c r="D163" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7372,13 +7411,13 @@
       <c r="N163" s="11"/>
       <c r="O163" s="11"/>
       <c r="P163" s="11"/>
-      <c r="Q163" s="62"/>
-      <c r="R163" s="57"/>
+      <c r="Q163" s="61"/>
+      <c r="R163" s="64"/>
     </row>
     <row r="164" spans="1:18" ht="15.75">
       <c r="A164" s="17"/>
-      <c r="B164" s="62"/>
-      <c r="C164" s="65"/>
+      <c r="B164" s="61"/>
+      <c r="C164" s="68"/>
       <c r="D164" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7407,13 +7446,13 @@
       <c r="N164" s="11"/>
       <c r="O164" s="11"/>
       <c r="P164" s="11"/>
-      <c r="Q164" s="62"/>
-      <c r="R164" s="57"/>
+      <c r="Q164" s="61"/>
+      <c r="R164" s="64"/>
     </row>
     <row r="165" spans="1:18" ht="15.75">
       <c r="A165" s="17"/>
-      <c r="B165" s="62"/>
-      <c r="C165" s="65"/>
+      <c r="B165" s="61"/>
+      <c r="C165" s="68"/>
       <c r="D165" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7442,13 +7481,13 @@
       <c r="N165" s="11"/>
       <c r="O165" s="11"/>
       <c r="P165" s="11"/>
-      <c r="Q165" s="62"/>
-      <c r="R165" s="57"/>
+      <c r="Q165" s="61"/>
+      <c r="R165" s="64"/>
     </row>
     <row r="166" spans="1:18" ht="15.75">
       <c r="A166" s="17"/>
-      <c r="B166" s="62"/>
-      <c r="C166" s="65"/>
+      <c r="B166" s="61"/>
+      <c r="C166" s="68"/>
       <c r="D166" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7477,13 +7516,13 @@
       <c r="N166" s="11"/>
       <c r="O166" s="11"/>
       <c r="P166" s="11"/>
-      <c r="Q166" s="62"/>
-      <c r="R166" s="57"/>
+      <c r="Q166" s="61"/>
+      <c r="R166" s="64"/>
     </row>
     <row r="167" spans="1:18" ht="15.75">
       <c r="A167" s="17"/>
-      <c r="B167" s="62"/>
-      <c r="C167" s="65"/>
+      <c r="B167" s="61"/>
+      <c r="C167" s="68"/>
       <c r="D167" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7512,13 +7551,13 @@
       <c r="N167" s="11"/>
       <c r="O167" s="11"/>
       <c r="P167" s="11"/>
-      <c r="Q167" s="62"/>
-      <c r="R167" s="57"/>
+      <c r="Q167" s="61"/>
+      <c r="R167" s="64"/>
     </row>
     <row r="168" spans="1:18" ht="15.75">
       <c r="A168" s="17"/>
-      <c r="B168" s="63"/>
-      <c r="C168" s="65"/>
+      <c r="B168" s="62"/>
+      <c r="C168" s="68"/>
       <c r="D168" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7547,13 +7586,13 @@
       <c r="N168" s="11"/>
       <c r="O168" s="11"/>
       <c r="P168" s="11"/>
-      <c r="Q168" s="63"/>
-      <c r="R168" s="57"/>
+      <c r="Q168" s="62"/>
+      <c r="R168" s="64"/>
     </row>
     <row r="169" spans="1:18" ht="15.75">
       <c r="A169" s="17"/>
-      <c r="B169" s="61"/>
-      <c r="C169" s="65"/>
+      <c r="B169" s="60"/>
+      <c r="C169" s="68"/>
       <c r="D169" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7582,13 +7621,13 @@
       <c r="N169" s="11"/>
       <c r="O169" s="11"/>
       <c r="P169" s="11"/>
-      <c r="Q169" s="61"/>
-      <c r="R169" s="57"/>
+      <c r="Q169" s="60"/>
+      <c r="R169" s="64"/>
     </row>
     <row r="170" spans="1:18" ht="15.75">
       <c r="A170" s="17"/>
-      <c r="B170" s="62"/>
-      <c r="C170" s="65"/>
+      <c r="B170" s="61"/>
+      <c r="C170" s="68"/>
       <c r="D170" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7617,13 +7656,13 @@
       <c r="N170" s="11"/>
       <c r="O170" s="11"/>
       <c r="P170" s="11"/>
-      <c r="Q170" s="62"/>
-      <c r="R170" s="57"/>
+      <c r="Q170" s="61"/>
+      <c r="R170" s="64"/>
     </row>
     <row r="171" spans="1:18" ht="15.75">
       <c r="A171" s="17"/>
-      <c r="B171" s="62"/>
-      <c r="C171" s="65"/>
+      <c r="B171" s="61"/>
+      <c r="C171" s="68"/>
       <c r="D171" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7652,13 +7691,13 @@
       <c r="N171" s="11"/>
       <c r="O171" s="11"/>
       <c r="P171" s="11"/>
-      <c r="Q171" s="62"/>
-      <c r="R171" s="57"/>
+      <c r="Q171" s="61"/>
+      <c r="R171" s="64"/>
     </row>
     <row r="172" spans="1:18" ht="15.75">
       <c r="A172" s="17"/>
-      <c r="B172" s="62"/>
-      <c r="C172" s="65"/>
+      <c r="B172" s="61"/>
+      <c r="C172" s="68"/>
       <c r="D172" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7687,13 +7726,13 @@
       <c r="N172" s="11"/>
       <c r="O172" s="11"/>
       <c r="P172" s="11"/>
-      <c r="Q172" s="62"/>
-      <c r="R172" s="57"/>
+      <c r="Q172" s="61"/>
+      <c r="R172" s="64"/>
     </row>
     <row r="173" spans="1:18" ht="15.75">
       <c r="A173" s="17"/>
-      <c r="B173" s="62"/>
-      <c r="C173" s="65"/>
+      <c r="B173" s="61"/>
+      <c r="C173" s="68"/>
       <c r="D173" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7722,13 +7761,13 @@
       <c r="N173" s="11"/>
       <c r="O173" s="11"/>
       <c r="P173" s="11"/>
-      <c r="Q173" s="62"/>
-      <c r="R173" s="57"/>
+      <c r="Q173" s="61"/>
+      <c r="R173" s="64"/>
     </row>
     <row r="174" spans="1:18" ht="28.5" customHeight="1">
       <c r="A174" s="17"/>
-      <c r="B174" s="62"/>
-      <c r="C174" s="65"/>
+      <c r="B174" s="61"/>
+      <c r="C174" s="68"/>
       <c r="D174" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7757,13 +7796,13 @@
       <c r="N174" s="11"/>
       <c r="O174" s="11"/>
       <c r="P174" s="11"/>
-      <c r="Q174" s="62"/>
-      <c r="R174" s="57"/>
+      <c r="Q174" s="61"/>
+      <c r="R174" s="64"/>
     </row>
     <row r="175" spans="1:18" ht="33.75" customHeight="1">
       <c r="A175" s="17"/>
-      <c r="B175" s="62"/>
-      <c r="C175" s="65"/>
+      <c r="B175" s="61"/>
+      <c r="C175" s="68"/>
       <c r="D175" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7792,13 +7831,13 @@
       <c r="N175" s="11"/>
       <c r="O175" s="11"/>
       <c r="P175" s="11"/>
-      <c r="Q175" s="62"/>
-      <c r="R175" s="57"/>
+      <c r="Q175" s="61"/>
+      <c r="R175" s="64"/>
     </row>
     <row r="176" spans="1:18" ht="15.75">
       <c r="A176" s="17"/>
-      <c r="B176" s="62"/>
-      <c r="C176" s="65"/>
+      <c r="B176" s="61"/>
+      <c r="C176" s="68"/>
       <c r="D176" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7827,13 +7866,13 @@
       <c r="N176" s="11"/>
       <c r="O176" s="11"/>
       <c r="P176" s="11"/>
-      <c r="Q176" s="62"/>
-      <c r="R176" s="57"/>
+      <c r="Q176" s="61"/>
+      <c r="R176" s="64"/>
     </row>
     <row r="177" spans="1:18" ht="15.75">
       <c r="A177" s="17"/>
-      <c r="B177" s="62"/>
-      <c r="C177" s="65"/>
+      <c r="B177" s="61"/>
+      <c r="C177" s="68"/>
       <c r="D177" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7862,13 +7901,13 @@
       <c r="N177" s="11"/>
       <c r="O177" s="11"/>
       <c r="P177" s="11"/>
-      <c r="Q177" s="62"/>
-      <c r="R177" s="57"/>
+      <c r="Q177" s="61"/>
+      <c r="R177" s="64"/>
     </row>
     <row r="178" spans="1:18" ht="15.75">
       <c r="A178" s="17"/>
-      <c r="B178" s="62"/>
-      <c r="C178" s="65"/>
+      <c r="B178" s="61"/>
+      <c r="C178" s="68"/>
       <c r="D178" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7897,13 +7936,13 @@
       <c r="N178" s="11"/>
       <c r="O178" s="11"/>
       <c r="P178" s="11"/>
-      <c r="Q178" s="62"/>
-      <c r="R178" s="57"/>
+      <c r="Q178" s="61"/>
+      <c r="R178" s="64"/>
     </row>
     <row r="179" spans="1:18" ht="15.75">
       <c r="A179" s="17"/>
-      <c r="B179" s="62"/>
-      <c r="C179" s="65"/>
+      <c r="B179" s="61"/>
+      <c r="C179" s="68"/>
       <c r="D179" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7932,13 +7971,13 @@
       <c r="N179" s="11"/>
       <c r="O179" s="11"/>
       <c r="P179" s="11"/>
-      <c r="Q179" s="62"/>
-      <c r="R179" s="57"/>
+      <c r="Q179" s="61"/>
+      <c r="R179" s="64"/>
     </row>
     <row r="180" spans="1:18" ht="15.75">
       <c r="A180" s="17"/>
-      <c r="B180" s="62"/>
-      <c r="C180" s="65"/>
+      <c r="B180" s="61"/>
+      <c r="C180" s="68"/>
       <c r="D180" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7967,13 +8006,13 @@
       <c r="N180" s="11"/>
       <c r="O180" s="11"/>
       <c r="P180" s="11"/>
-      <c r="Q180" s="62"/>
-      <c r="R180" s="57"/>
+      <c r="Q180" s="61"/>
+      <c r="R180" s="64"/>
     </row>
     <row r="181" spans="1:18" ht="15.75">
       <c r="A181" s="17"/>
-      <c r="B181" s="62"/>
-      <c r="C181" s="65"/>
+      <c r="B181" s="61"/>
+      <c r="C181" s="68"/>
       <c r="D181" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8002,13 +8041,13 @@
       <c r="N181" s="11"/>
       <c r="O181" s="11"/>
       <c r="P181" s="11"/>
-      <c r="Q181" s="62"/>
-      <c r="R181" s="57"/>
+      <c r="Q181" s="61"/>
+      <c r="R181" s="64"/>
     </row>
     <row r="182" spans="1:18" ht="15.75">
       <c r="A182" s="17"/>
-      <c r="B182" s="62"/>
-      <c r="C182" s="65"/>
+      <c r="B182" s="61"/>
+      <c r="C182" s="68"/>
       <c r="D182" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8037,13 +8076,13 @@
       <c r="N182" s="11"/>
       <c r="O182" s="11"/>
       <c r="P182" s="11"/>
-      <c r="Q182" s="62"/>
-      <c r="R182" s="57"/>
+      <c r="Q182" s="61"/>
+      <c r="R182" s="64"/>
     </row>
     <row r="183" spans="1:18" ht="15.75">
       <c r="A183" s="17"/>
-      <c r="B183" s="63"/>
-      <c r="C183" s="65"/>
+      <c r="B183" s="62"/>
+      <c r="C183" s="68"/>
       <c r="D183" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8072,13 +8111,13 @@
       <c r="N183" s="11"/>
       <c r="O183" s="11"/>
       <c r="P183" s="11"/>
-      <c r="Q183" s="63"/>
-      <c r="R183" s="57"/>
+      <c r="Q183" s="62"/>
+      <c r="R183" s="64"/>
     </row>
     <row r="184" spans="1:18" ht="38.25" customHeight="1">
       <c r="A184" s="17"/>
-      <c r="B184" s="61"/>
-      <c r="C184" s="65"/>
+      <c r="B184" s="60"/>
+      <c r="C184" s="68"/>
       <c r="D184" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8107,13 +8146,13 @@
       <c r="N184" s="11"/>
       <c r="O184" s="11"/>
       <c r="P184" s="11"/>
-      <c r="Q184" s="61"/>
-      <c r="R184" s="57"/>
+      <c r="Q184" s="60"/>
+      <c r="R184" s="64"/>
     </row>
     <row r="185" spans="1:18" ht="15.75">
       <c r="A185" s="17"/>
-      <c r="B185" s="62"/>
-      <c r="C185" s="65"/>
+      <c r="B185" s="61"/>
+      <c r="C185" s="68"/>
       <c r="D185" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8142,13 +8181,13 @@
       <c r="N185" s="11"/>
       <c r="O185" s="11"/>
       <c r="P185" s="11"/>
-      <c r="Q185" s="62"/>
-      <c r="R185" s="57"/>
+      <c r="Q185" s="61"/>
+      <c r="R185" s="64"/>
     </row>
     <row r="186" spans="1:18" ht="15.75">
       <c r="A186" s="17"/>
-      <c r="B186" s="62"/>
-      <c r="C186" s="65"/>
+      <c r="B186" s="61"/>
+      <c r="C186" s="68"/>
       <c r="D186" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8177,13 +8216,13 @@
       <c r="N186" s="11"/>
       <c r="O186" s="11"/>
       <c r="P186" s="11"/>
-      <c r="Q186" s="62"/>
-      <c r="R186" s="57"/>
+      <c r="Q186" s="61"/>
+      <c r="R186" s="64"/>
     </row>
     <row r="187" spans="1:18" ht="15.75">
       <c r="A187" s="17"/>
-      <c r="B187" s="62"/>
-      <c r="C187" s="65"/>
+      <c r="B187" s="61"/>
+      <c r="C187" s="68"/>
       <c r="D187" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8212,13 +8251,13 @@
       <c r="N187" s="11"/>
       <c r="O187" s="11"/>
       <c r="P187" s="11"/>
-      <c r="Q187" s="62"/>
-      <c r="R187" s="57"/>
+      <c r="Q187" s="61"/>
+      <c r="R187" s="64"/>
     </row>
     <row r="188" spans="1:18" ht="15.75">
       <c r="A188" s="17"/>
-      <c r="B188" s="62"/>
-      <c r="C188" s="65"/>
+      <c r="B188" s="61"/>
+      <c r="C188" s="68"/>
       <c r="D188" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8247,13 +8286,13 @@
       <c r="N188" s="11"/>
       <c r="O188" s="11"/>
       <c r="P188" s="11"/>
-      <c r="Q188" s="62"/>
-      <c r="R188" s="57"/>
+      <c r="Q188" s="61"/>
+      <c r="R188" s="64"/>
     </row>
     <row r="189" spans="1:18" ht="15.75">
       <c r="A189" s="17"/>
-      <c r="B189" s="62"/>
-      <c r="C189" s="65"/>
+      <c r="B189" s="61"/>
+      <c r="C189" s="68"/>
       <c r="D189" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8282,13 +8321,13 @@
       <c r="N189" s="11"/>
       <c r="O189" s="11"/>
       <c r="P189" s="11"/>
-      <c r="Q189" s="62"/>
-      <c r="R189" s="57"/>
+      <c r="Q189" s="61"/>
+      <c r="R189" s="64"/>
     </row>
     <row r="190" spans="1:18" ht="15.75">
       <c r="A190" s="17"/>
-      <c r="B190" s="62"/>
-      <c r="C190" s="65"/>
+      <c r="B190" s="61"/>
+      <c r="C190" s="68"/>
       <c r="D190" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8317,13 +8356,13 @@
       <c r="N190" s="11"/>
       <c r="O190" s="11"/>
       <c r="P190" s="11"/>
-      <c r="Q190" s="62"/>
-      <c r="R190" s="57"/>
+      <c r="Q190" s="61"/>
+      <c r="R190" s="64"/>
     </row>
     <row r="191" spans="1:18" ht="27.75" customHeight="1">
       <c r="A191" s="17"/>
-      <c r="B191" s="62"/>
-      <c r="C191" s="65"/>
+      <c r="B191" s="61"/>
+      <c r="C191" s="68"/>
       <c r="D191" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8352,13 +8391,13 @@
       <c r="N191" s="11"/>
       <c r="O191" s="11"/>
       <c r="P191" s="11"/>
-      <c r="Q191" s="62"/>
-      <c r="R191" s="57"/>
+      <c r="Q191" s="61"/>
+      <c r="R191" s="64"/>
     </row>
     <row r="192" spans="1:18" ht="15.75">
       <c r="A192" s="17"/>
-      <c r="B192" s="62"/>
-      <c r="C192" s="65"/>
+      <c r="B192" s="61"/>
+      <c r="C192" s="68"/>
       <c r="D192" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8387,13 +8426,13 @@
       <c r="N192" s="11"/>
       <c r="O192" s="11"/>
       <c r="P192" s="11"/>
-      <c r="Q192" s="62"/>
-      <c r="R192" s="57"/>
+      <c r="Q192" s="61"/>
+      <c r="R192" s="64"/>
     </row>
     <row r="193" spans="1:18" ht="15.75">
       <c r="A193" s="17"/>
-      <c r="B193" s="62"/>
-      <c r="C193" s="65"/>
+      <c r="B193" s="61"/>
+      <c r="C193" s="68"/>
       <c r="D193" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8403,7 +8442,7 @@
       <c r="G193" s="11"/>
       <c r="H193" s="8"/>
       <c r="I193" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J193" s="14"/>
       <c r="K193" s="8" t="str">
@@ -8421,13 +8460,13 @@
       <c r="N193" s="11"/>
       <c r="O193" s="11"/>
       <c r="P193" s="11"/>
-      <c r="Q193" s="62"/>
-      <c r="R193" s="57"/>
+      <c r="Q193" s="61"/>
+      <c r="R193" s="64"/>
     </row>
     <row r="194" spans="1:18" ht="15.75">
       <c r="A194" s="17"/>
-      <c r="B194" s="62"/>
-      <c r="C194" s="65"/>
+      <c r="B194" s="61"/>
+      <c r="C194" s="68"/>
       <c r="D194" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8456,13 +8495,13 @@
       <c r="N194" s="11"/>
       <c r="O194" s="11"/>
       <c r="P194" s="11"/>
-      <c r="Q194" s="62"/>
-      <c r="R194" s="57"/>
+      <c r="Q194" s="61"/>
+      <c r="R194" s="64"/>
     </row>
     <row r="195" spans="1:18" ht="15.75">
       <c r="A195" s="17"/>
-      <c r="B195" s="62"/>
-      <c r="C195" s="65"/>
+      <c r="B195" s="61"/>
+      <c r="C195" s="68"/>
       <c r="D195" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8491,13 +8530,13 @@
       <c r="N195" s="11"/>
       <c r="O195" s="11"/>
       <c r="P195" s="11"/>
-      <c r="Q195" s="62"/>
-      <c r="R195" s="57"/>
+      <c r="Q195" s="61"/>
+      <c r="R195" s="64"/>
     </row>
     <row r="196" spans="1:18" ht="15.75">
       <c r="A196" s="17"/>
-      <c r="B196" s="62"/>
-      <c r="C196" s="65"/>
+      <c r="B196" s="61"/>
+      <c r="C196" s="68"/>
       <c r="D196" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8526,13 +8565,13 @@
       <c r="N196" s="11"/>
       <c r="O196" s="11"/>
       <c r="P196" s="11"/>
-      <c r="Q196" s="62"/>
-      <c r="R196" s="57"/>
+      <c r="Q196" s="61"/>
+      <c r="R196" s="64"/>
     </row>
     <row r="197" spans="1:18" ht="15.75">
       <c r="A197" s="17"/>
-      <c r="B197" s="62"/>
-      <c r="C197" s="65"/>
+      <c r="B197" s="61"/>
+      <c r="C197" s="68"/>
       <c r="D197" s="5" t="str">
         <f t="shared" ref="D197:D260" si="12">IF(LEN(E197)&gt;5,IF(LEN(K197&amp;L197&amp;M197)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -8561,13 +8600,13 @@
       <c r="N197" s="11"/>
       <c r="O197" s="11"/>
       <c r="P197" s="11"/>
-      <c r="Q197" s="62"/>
-      <c r="R197" s="57"/>
+      <c r="Q197" s="61"/>
+      <c r="R197" s="64"/>
     </row>
     <row r="198" spans="1:18" ht="15.75">
       <c r="A198" s="17"/>
-      <c r="B198" s="63"/>
-      <c r="C198" s="65"/>
+      <c r="B198" s="62"/>
+      <c r="C198" s="68"/>
       <c r="D198" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8596,13 +8635,13 @@
       <c r="N198" s="11"/>
       <c r="O198" s="11"/>
       <c r="P198" s="11"/>
-      <c r="Q198" s="63"/>
-      <c r="R198" s="57"/>
+      <c r="Q198" s="62"/>
+      <c r="R198" s="64"/>
     </row>
     <row r="199" spans="1:18" ht="25.5" customHeight="1">
       <c r="A199" s="17"/>
-      <c r="B199" s="61"/>
-      <c r="C199" s="65"/>
+      <c r="B199" s="60"/>
+      <c r="C199" s="68"/>
       <c r="D199" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8631,13 +8670,13 @@
       <c r="N199" s="11"/>
       <c r="O199" s="11"/>
       <c r="P199" s="11"/>
-      <c r="Q199" s="61"/>
-      <c r="R199" s="57"/>
+      <c r="Q199" s="60"/>
+      <c r="R199" s="64"/>
     </row>
     <row r="200" spans="1:18" ht="15.75">
       <c r="A200" s="17"/>
-      <c r="B200" s="62"/>
-      <c r="C200" s="65"/>
+      <c r="B200" s="61"/>
+      <c r="C200" s="68"/>
       <c r="D200" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8666,13 +8705,13 @@
       <c r="N200" s="11"/>
       <c r="O200" s="11"/>
       <c r="P200" s="11"/>
-      <c r="Q200" s="62"/>
-      <c r="R200" s="57"/>
+      <c r="Q200" s="61"/>
+      <c r="R200" s="64"/>
     </row>
     <row r="201" spans="1:18" ht="15.75">
       <c r="A201" s="17"/>
-      <c r="B201" s="62"/>
-      <c r="C201" s="65"/>
+      <c r="B201" s="61"/>
+      <c r="C201" s="68"/>
       <c r="D201" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8701,13 +8740,13 @@
       <c r="N201" s="11"/>
       <c r="O201" s="11"/>
       <c r="P201" s="11"/>
-      <c r="Q201" s="62"/>
-      <c r="R201" s="57"/>
+      <c r="Q201" s="61"/>
+      <c r="R201" s="64"/>
     </row>
     <row r="202" spans="1:18" ht="15.75">
       <c r="A202" s="17"/>
-      <c r="B202" s="62"/>
-      <c r="C202" s="65"/>
+      <c r="B202" s="61"/>
+      <c r="C202" s="68"/>
       <c r="D202" s="31" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8736,13 +8775,13 @@
       <c r="N202" s="11"/>
       <c r="O202" s="11"/>
       <c r="P202" s="11"/>
-      <c r="Q202" s="62"/>
-      <c r="R202" s="57"/>
+      <c r="Q202" s="61"/>
+      <c r="R202" s="64"/>
     </row>
     <row r="203" spans="1:18" ht="15.75">
       <c r="A203" s="17"/>
-      <c r="B203" s="62"/>
-      <c r="C203" s="65"/>
+      <c r="B203" s="61"/>
+      <c r="C203" s="68"/>
       <c r="D203" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8771,13 +8810,13 @@
       <c r="N203" s="11"/>
       <c r="O203" s="11"/>
       <c r="P203" s="11"/>
-      <c r="Q203" s="62"/>
-      <c r="R203" s="57"/>
+      <c r="Q203" s="61"/>
+      <c r="R203" s="64"/>
     </row>
     <row r="204" spans="1:18" ht="15.75">
       <c r="A204" s="17"/>
-      <c r="B204" s="62"/>
-      <c r="C204" s="65"/>
+      <c r="B204" s="61"/>
+      <c r="C204" s="68"/>
       <c r="D204" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8806,13 +8845,13 @@
       <c r="N204" s="11"/>
       <c r="O204" s="11"/>
       <c r="P204" s="11"/>
-      <c r="Q204" s="62"/>
-      <c r="R204" s="57"/>
+      <c r="Q204" s="61"/>
+      <c r="R204" s="64"/>
     </row>
     <row r="205" spans="1:18" ht="15.75">
       <c r="A205" s="17"/>
-      <c r="B205" s="62"/>
-      <c r="C205" s="65"/>
+      <c r="B205" s="61"/>
+      <c r="C205" s="68"/>
       <c r="D205" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8841,13 +8880,13 @@
       <c r="N205" s="11"/>
       <c r="O205" s="11"/>
       <c r="P205" s="11"/>
-      <c r="Q205" s="62"/>
-      <c r="R205" s="57"/>
+      <c r="Q205" s="61"/>
+      <c r="R205" s="64"/>
     </row>
     <row r="206" spans="1:18" ht="15.75">
       <c r="A206" s="17"/>
-      <c r="B206" s="62"/>
-      <c r="C206" s="65"/>
+      <c r="B206" s="61"/>
+      <c r="C206" s="68"/>
       <c r="D206" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8876,13 +8915,13 @@
       <c r="N206" s="11"/>
       <c r="O206" s="11"/>
       <c r="P206" s="11"/>
-      <c r="Q206" s="62"/>
-      <c r="R206" s="57"/>
+      <c r="Q206" s="61"/>
+      <c r="R206" s="64"/>
     </row>
     <row r="207" spans="1:18" ht="15.75">
       <c r="A207" s="17"/>
-      <c r="B207" s="62"/>
-      <c r="C207" s="65"/>
+      <c r="B207" s="61"/>
+      <c r="C207" s="68"/>
       <c r="D207" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8911,13 +8950,13 @@
       <c r="N207" s="11"/>
       <c r="O207" s="11"/>
       <c r="P207" s="11"/>
-      <c r="Q207" s="62"/>
-      <c r="R207" s="57"/>
+      <c r="Q207" s="61"/>
+      <c r="R207" s="64"/>
     </row>
     <row r="208" spans="1:18" ht="15.75">
       <c r="A208" s="17"/>
-      <c r="B208" s="62"/>
-      <c r="C208" s="65"/>
+      <c r="B208" s="61"/>
+      <c r="C208" s="68"/>
       <c r="D208" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8946,13 +8985,13 @@
       <c r="N208" s="11"/>
       <c r="O208" s="11"/>
       <c r="P208" s="11"/>
-      <c r="Q208" s="62"/>
-      <c r="R208" s="57"/>
+      <c r="Q208" s="61"/>
+      <c r="R208" s="64"/>
     </row>
     <row r="209" spans="1:18" ht="15.75">
       <c r="A209" s="17"/>
-      <c r="B209" s="62"/>
-      <c r="C209" s="65"/>
+      <c r="B209" s="61"/>
+      <c r="C209" s="68"/>
       <c r="D209" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8981,13 +9020,13 @@
       <c r="N209" s="11"/>
       <c r="O209" s="11"/>
       <c r="P209" s="11"/>
-      <c r="Q209" s="62"/>
-      <c r="R209" s="57"/>
+      <c r="Q209" s="61"/>
+      <c r="R209" s="64"/>
     </row>
     <row r="210" spans="1:18" ht="15.75">
       <c r="A210" s="17"/>
-      <c r="B210" s="62"/>
-      <c r="C210" s="65"/>
+      <c r="B210" s="61"/>
+      <c r="C210" s="68"/>
       <c r="D210" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9016,13 +9055,13 @@
       <c r="N210" s="11"/>
       <c r="O210" s="11"/>
       <c r="P210" s="11"/>
-      <c r="Q210" s="62"/>
-      <c r="R210" s="57"/>
+      <c r="Q210" s="61"/>
+      <c r="R210" s="64"/>
     </row>
     <row r="211" spans="1:18" ht="15.75">
       <c r="A211" s="17"/>
-      <c r="B211" s="62"/>
-      <c r="C211" s="65"/>
+      <c r="B211" s="61"/>
+      <c r="C211" s="68"/>
       <c r="D211" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9051,13 +9090,13 @@
       <c r="N211" s="11"/>
       <c r="O211" s="11"/>
       <c r="P211" s="11"/>
-      <c r="Q211" s="62"/>
-      <c r="R211" s="57"/>
+      <c r="Q211" s="61"/>
+      <c r="R211" s="64"/>
     </row>
     <row r="212" spans="1:18" ht="15.75">
       <c r="A212" s="17"/>
-      <c r="B212" s="62"/>
-      <c r="C212" s="65"/>
+      <c r="B212" s="61"/>
+      <c r="C212" s="68"/>
       <c r="D212" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9086,13 +9125,13 @@
       <c r="N212" s="11"/>
       <c r="O212" s="11"/>
       <c r="P212" s="11"/>
-      <c r="Q212" s="62"/>
-      <c r="R212" s="57"/>
+      <c r="Q212" s="61"/>
+      <c r="R212" s="64"/>
     </row>
     <row r="213" spans="1:18" ht="15.75">
       <c r="A213" s="17"/>
-      <c r="B213" s="63"/>
-      <c r="C213" s="65"/>
+      <c r="B213" s="62"/>
+      <c r="C213" s="68"/>
       <c r="D213" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9121,13 +9160,13 @@
       <c r="N213" s="11"/>
       <c r="O213" s="11"/>
       <c r="P213" s="11"/>
-      <c r="Q213" s="63"/>
-      <c r="R213" s="57"/>
+      <c r="Q213" s="62"/>
+      <c r="R213" s="64"/>
     </row>
     <row r="214" spans="1:18" ht="12.75" customHeight="1">
       <c r="A214" s="17"/>
-      <c r="B214" s="61"/>
-      <c r="C214" s="65"/>
+      <c r="B214" s="60"/>
+      <c r="C214" s="68"/>
       <c r="D214" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9156,13 +9195,13 @@
       <c r="N214" s="11"/>
       <c r="O214" s="11"/>
       <c r="P214" s="11"/>
-      <c r="Q214" s="61"/>
-      <c r="R214" s="57"/>
+      <c r="Q214" s="60"/>
+      <c r="R214" s="64"/>
     </row>
     <row r="215" spans="1:18" ht="15.75">
       <c r="A215" s="17"/>
-      <c r="B215" s="62"/>
-      <c r="C215" s="65"/>
+      <c r="B215" s="61"/>
+      <c r="C215" s="68"/>
       <c r="D215" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9191,13 +9230,13 @@
       <c r="N215" s="11"/>
       <c r="O215" s="11"/>
       <c r="P215" s="11"/>
-      <c r="Q215" s="62"/>
-      <c r="R215" s="57"/>
+      <c r="Q215" s="61"/>
+      <c r="R215" s="64"/>
     </row>
     <row r="216" spans="1:18" ht="15.75">
       <c r="A216" s="17"/>
-      <c r="B216" s="62"/>
-      <c r="C216" s="65"/>
+      <c r="B216" s="61"/>
+      <c r="C216" s="68"/>
       <c r="D216" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9226,13 +9265,13 @@
       <c r="N216" s="11"/>
       <c r="O216" s="11"/>
       <c r="P216" s="11"/>
-      <c r="Q216" s="62"/>
-      <c r="R216" s="57"/>
+      <c r="Q216" s="61"/>
+      <c r="R216" s="64"/>
     </row>
     <row r="217" spans="1:18" ht="15.75">
       <c r="A217" s="17"/>
-      <c r="B217" s="62"/>
-      <c r="C217" s="65"/>
+      <c r="B217" s="61"/>
+      <c r="C217" s="68"/>
       <c r="D217" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9261,13 +9300,13 @@
       <c r="N217" s="11"/>
       <c r="O217" s="11"/>
       <c r="P217" s="11"/>
-      <c r="Q217" s="62"/>
-      <c r="R217" s="57"/>
+      <c r="Q217" s="61"/>
+      <c r="R217" s="64"/>
     </row>
     <row r="218" spans="1:18" ht="15.75">
       <c r="A218" s="17"/>
-      <c r="B218" s="62"/>
-      <c r="C218" s="65"/>
+      <c r="B218" s="61"/>
+      <c r="C218" s="68"/>
       <c r="D218" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9296,13 +9335,13 @@
       <c r="N218" s="11"/>
       <c r="O218" s="11"/>
       <c r="P218" s="11"/>
-      <c r="Q218" s="62"/>
-      <c r="R218" s="57"/>
+      <c r="Q218" s="61"/>
+      <c r="R218" s="64"/>
     </row>
     <row r="219" spans="1:18" ht="15.75">
       <c r="A219" s="17"/>
-      <c r="B219" s="62"/>
-      <c r="C219" s="65"/>
+      <c r="B219" s="61"/>
+      <c r="C219" s="68"/>
       <c r="D219" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9331,13 +9370,13 @@
       <c r="N219" s="11"/>
       <c r="O219" s="11"/>
       <c r="P219" s="11"/>
-      <c r="Q219" s="62"/>
-      <c r="R219" s="57"/>
+      <c r="Q219" s="61"/>
+      <c r="R219" s="64"/>
     </row>
     <row r="220" spans="1:18" ht="15.75">
       <c r="A220" s="17"/>
-      <c r="B220" s="62"/>
-      <c r="C220" s="65"/>
+      <c r="B220" s="61"/>
+      <c r="C220" s="68"/>
       <c r="D220" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9366,13 +9405,13 @@
       <c r="N220" s="11"/>
       <c r="O220" s="11"/>
       <c r="P220" s="11"/>
-      <c r="Q220" s="62"/>
-      <c r="R220" s="57"/>
+      <c r="Q220" s="61"/>
+      <c r="R220" s="64"/>
     </row>
     <row r="221" spans="1:18" ht="15.75">
       <c r="A221" s="17"/>
-      <c r="B221" s="62"/>
-      <c r="C221" s="65"/>
+      <c r="B221" s="61"/>
+      <c r="C221" s="68"/>
       <c r="D221" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9401,13 +9440,13 @@
       <c r="N221" s="11"/>
       <c r="O221" s="11"/>
       <c r="P221" s="11"/>
-      <c r="Q221" s="62"/>
-      <c r="R221" s="57"/>
+      <c r="Q221" s="61"/>
+      <c r="R221" s="64"/>
     </row>
     <row r="222" spans="1:18" ht="15.75">
       <c r="A222" s="17"/>
-      <c r="B222" s="62"/>
-      <c r="C222" s="65"/>
+      <c r="B222" s="61"/>
+      <c r="C222" s="68"/>
       <c r="D222" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9436,13 +9475,13 @@
       <c r="N222" s="11"/>
       <c r="O222" s="11"/>
       <c r="P222" s="11"/>
-      <c r="Q222" s="62"/>
-      <c r="R222" s="57"/>
+      <c r="Q222" s="61"/>
+      <c r="R222" s="64"/>
     </row>
     <row r="223" spans="1:18" ht="15.75">
       <c r="A223" s="17"/>
-      <c r="B223" s="62"/>
-      <c r="C223" s="65"/>
+      <c r="B223" s="61"/>
+      <c r="C223" s="68"/>
       <c r="D223" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9471,13 +9510,13 @@
       <c r="N223" s="11"/>
       <c r="O223" s="11"/>
       <c r="P223" s="11"/>
-      <c r="Q223" s="62"/>
-      <c r="R223" s="57"/>
+      <c r="Q223" s="61"/>
+      <c r="R223" s="64"/>
     </row>
     <row r="224" spans="1:18" ht="15.75">
       <c r="A224" s="17"/>
-      <c r="B224" s="62"/>
-      <c r="C224" s="65"/>
+      <c r="B224" s="61"/>
+      <c r="C224" s="68"/>
       <c r="D224" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9506,13 +9545,13 @@
       <c r="N224" s="11"/>
       <c r="O224" s="11"/>
       <c r="P224" s="11"/>
-      <c r="Q224" s="62"/>
-      <c r="R224" s="57"/>
+      <c r="Q224" s="61"/>
+      <c r="R224" s="64"/>
     </row>
     <row r="225" spans="1:18" ht="15.75">
       <c r="A225" s="17"/>
-      <c r="B225" s="62"/>
-      <c r="C225" s="65"/>
+      <c r="B225" s="61"/>
+      <c r="C225" s="68"/>
       <c r="D225" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9541,13 +9580,13 @@
       <c r="N225" s="11"/>
       <c r="O225" s="11"/>
       <c r="P225" s="11"/>
-      <c r="Q225" s="62"/>
-      <c r="R225" s="57"/>
+      <c r="Q225" s="61"/>
+      <c r="R225" s="64"/>
     </row>
     <row r="226" spans="1:18" ht="15.75">
       <c r="A226" s="17"/>
-      <c r="B226" s="62"/>
-      <c r="C226" s="65"/>
+      <c r="B226" s="61"/>
+      <c r="C226" s="68"/>
       <c r="D226" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9576,13 +9615,13 @@
       <c r="N226" s="11"/>
       <c r="O226" s="11"/>
       <c r="P226" s="11"/>
-      <c r="Q226" s="62"/>
-      <c r="R226" s="57"/>
+      <c r="Q226" s="61"/>
+      <c r="R226" s="64"/>
     </row>
     <row r="227" spans="1:18" ht="15.75">
       <c r="A227" s="17"/>
-      <c r="B227" s="62"/>
-      <c r="C227" s="65"/>
+      <c r="B227" s="61"/>
+      <c r="C227" s="68"/>
       <c r="D227" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9611,13 +9650,13 @@
       <c r="N227" s="11"/>
       <c r="O227" s="11"/>
       <c r="P227" s="11"/>
-      <c r="Q227" s="62"/>
-      <c r="R227" s="57"/>
+      <c r="Q227" s="61"/>
+      <c r="R227" s="64"/>
     </row>
     <row r="228" spans="1:18" ht="15.75">
       <c r="A228" s="17"/>
-      <c r="B228" s="63"/>
-      <c r="C228" s="65"/>
+      <c r="B228" s="62"/>
+      <c r="C228" s="68"/>
       <c r="D228" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9646,13 +9685,13 @@
       <c r="N228" s="11"/>
       <c r="O228" s="11"/>
       <c r="P228" s="11"/>
-      <c r="Q228" s="63"/>
-      <c r="R228" s="57"/>
+      <c r="Q228" s="62"/>
+      <c r="R228" s="64"/>
     </row>
     <row r="229" spans="1:18" ht="25.5" customHeight="1">
       <c r="A229" s="17"/>
-      <c r="B229" s="61"/>
-      <c r="C229" s="65"/>
+      <c r="B229" s="60"/>
+      <c r="C229" s="68"/>
       <c r="D229" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9681,13 +9720,13 @@
       <c r="N229" s="11"/>
       <c r="O229" s="11"/>
       <c r="P229" s="43"/>
-      <c r="Q229" s="61"/>
-      <c r="R229" s="57"/>
+      <c r="Q229" s="60"/>
+      <c r="R229" s="64"/>
     </row>
     <row r="230" spans="1:18" ht="15.75">
       <c r="A230" s="17"/>
-      <c r="B230" s="62"/>
-      <c r="C230" s="65"/>
+      <c r="B230" s="61"/>
+      <c r="C230" s="68"/>
       <c r="D230" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9716,13 +9755,13 @@
       <c r="N230" s="11"/>
       <c r="O230" s="11"/>
       <c r="P230" s="43"/>
-      <c r="Q230" s="62"/>
-      <c r="R230" s="57"/>
+      <c r="Q230" s="61"/>
+      <c r="R230" s="64"/>
     </row>
     <row r="231" spans="1:18" ht="15.75">
       <c r="A231" s="17"/>
-      <c r="B231" s="62"/>
-      <c r="C231" s="65"/>
+      <c r="B231" s="61"/>
+      <c r="C231" s="68"/>
       <c r="D231" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9751,13 +9790,13 @@
       <c r="N231" s="11"/>
       <c r="O231" s="11"/>
       <c r="P231" s="11"/>
-      <c r="Q231" s="62"/>
-      <c r="R231" s="57"/>
+      <c r="Q231" s="61"/>
+      <c r="R231" s="64"/>
     </row>
     <row r="232" spans="1:18" ht="15.75">
       <c r="A232" s="17"/>
-      <c r="B232" s="62"/>
-      <c r="C232" s="65"/>
+      <c r="B232" s="61"/>
+      <c r="C232" s="68"/>
       <c r="D232" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9786,13 +9825,13 @@
       <c r="N232" s="11"/>
       <c r="O232" s="11"/>
       <c r="P232" s="11"/>
-      <c r="Q232" s="62"/>
-      <c r="R232" s="57"/>
+      <c r="Q232" s="61"/>
+      <c r="R232" s="64"/>
     </row>
     <row r="233" spans="1:18" ht="15.75">
       <c r="A233" s="17"/>
-      <c r="B233" s="62"/>
-      <c r="C233" s="65"/>
+      <c r="B233" s="61"/>
+      <c r="C233" s="68"/>
       <c r="D233" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9821,13 +9860,13 @@
       <c r="N233" s="11"/>
       <c r="O233" s="11"/>
       <c r="P233" s="11"/>
-      <c r="Q233" s="62"/>
-      <c r="R233" s="57"/>
+      <c r="Q233" s="61"/>
+      <c r="R233" s="64"/>
     </row>
     <row r="234" spans="1:18" ht="15.75">
       <c r="A234" s="17"/>
-      <c r="B234" s="62"/>
-      <c r="C234" s="65"/>
+      <c r="B234" s="61"/>
+      <c r="C234" s="68"/>
       <c r="D234" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9856,13 +9895,13 @@
       <c r="N234" s="11"/>
       <c r="O234" s="11"/>
       <c r="P234" s="11"/>
-      <c r="Q234" s="62"/>
-      <c r="R234" s="57"/>
+      <c r="Q234" s="61"/>
+      <c r="R234" s="64"/>
     </row>
     <row r="235" spans="1:18" ht="15.75">
       <c r="A235" s="17"/>
-      <c r="B235" s="62"/>
-      <c r="C235" s="65"/>
+      <c r="B235" s="61"/>
+      <c r="C235" s="68"/>
       <c r="D235" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9891,13 +9930,13 @@
       <c r="N235" s="11"/>
       <c r="O235" s="11"/>
       <c r="P235" s="11"/>
-      <c r="Q235" s="62"/>
-      <c r="R235" s="57"/>
+      <c r="Q235" s="61"/>
+      <c r="R235" s="64"/>
     </row>
     <row r="236" spans="1:18" ht="15.75">
       <c r="A236" s="17"/>
-      <c r="B236" s="62"/>
-      <c r="C236" s="65"/>
+      <c r="B236" s="61"/>
+      <c r="C236" s="68"/>
       <c r="D236" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9926,13 +9965,13 @@
       <c r="N236" s="11"/>
       <c r="O236" s="11"/>
       <c r="P236" s="11"/>
-      <c r="Q236" s="62"/>
-      <c r="R236" s="57"/>
+      <c r="Q236" s="61"/>
+      <c r="R236" s="64"/>
     </row>
     <row r="237" spans="1:18" ht="15.75">
       <c r="A237" s="17"/>
-      <c r="B237" s="62"/>
-      <c r="C237" s="65"/>
+      <c r="B237" s="61"/>
+      <c r="C237" s="68"/>
       <c r="D237" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9961,13 +10000,13 @@
       <c r="N237" s="11"/>
       <c r="O237" s="11"/>
       <c r="P237" s="11"/>
-      <c r="Q237" s="62"/>
-      <c r="R237" s="57"/>
+      <c r="Q237" s="61"/>
+      <c r="R237" s="64"/>
     </row>
     <row r="238" spans="1:18" ht="15.75">
       <c r="A238" s="17"/>
-      <c r="B238" s="62"/>
-      <c r="C238" s="65"/>
+      <c r="B238" s="61"/>
+      <c r="C238" s="68"/>
       <c r="D238" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9996,13 +10035,13 @@
       <c r="N238" s="11"/>
       <c r="O238" s="11"/>
       <c r="P238" s="11"/>
-      <c r="Q238" s="62"/>
-      <c r="R238" s="57"/>
+      <c r="Q238" s="61"/>
+      <c r="R238" s="64"/>
     </row>
     <row r="239" spans="1:18" ht="15.75">
       <c r="A239" s="17"/>
-      <c r="B239" s="62"/>
-      <c r="C239" s="65"/>
+      <c r="B239" s="61"/>
+      <c r="C239" s="68"/>
       <c r="D239" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10031,13 +10070,13 @@
       <c r="N239" s="11"/>
       <c r="O239" s="11"/>
       <c r="P239" s="11"/>
-      <c r="Q239" s="62"/>
-      <c r="R239" s="57"/>
+      <c r="Q239" s="61"/>
+      <c r="R239" s="64"/>
     </row>
     <row r="240" spans="1:18" ht="15.75">
       <c r="A240" s="17"/>
-      <c r="B240" s="62"/>
-      <c r="C240" s="65"/>
+      <c r="B240" s="61"/>
+      <c r="C240" s="68"/>
       <c r="D240" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10066,13 +10105,13 @@
       <c r="N240" s="11"/>
       <c r="O240" s="11"/>
       <c r="P240" s="11"/>
-      <c r="Q240" s="62"/>
-      <c r="R240" s="57"/>
+      <c r="Q240" s="61"/>
+      <c r="R240" s="64"/>
     </row>
     <row r="241" spans="1:18" ht="15.75">
       <c r="A241" s="17"/>
-      <c r="B241" s="62"/>
-      <c r="C241" s="65"/>
+      <c r="B241" s="61"/>
+      <c r="C241" s="68"/>
       <c r="D241" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10101,13 +10140,13 @@
       <c r="N241" s="11"/>
       <c r="O241" s="11"/>
       <c r="P241" s="11"/>
-      <c r="Q241" s="62"/>
-      <c r="R241" s="57"/>
+      <c r="Q241" s="61"/>
+      <c r="R241" s="64"/>
     </row>
     <row r="242" spans="1:18" ht="15.75">
       <c r="A242" s="17"/>
-      <c r="B242" s="62"/>
-      <c r="C242" s="65"/>
+      <c r="B242" s="61"/>
+      <c r="C242" s="68"/>
       <c r="D242" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10136,13 +10175,13 @@
       <c r="N242" s="11"/>
       <c r="O242" s="11"/>
       <c r="P242" s="11"/>
-      <c r="Q242" s="62"/>
-      <c r="R242" s="57"/>
+      <c r="Q242" s="61"/>
+      <c r="R242" s="64"/>
     </row>
     <row r="243" spans="1:18" ht="15.75">
       <c r="A243" s="17"/>
-      <c r="B243" s="63"/>
-      <c r="C243" s="65"/>
+      <c r="B243" s="62"/>
+      <c r="C243" s="68"/>
       <c r="D243" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10171,13 +10210,13 @@
       <c r="N243" s="11"/>
       <c r="O243" s="11"/>
       <c r="P243" s="11"/>
-      <c r="Q243" s="63"/>
-      <c r="R243" s="57"/>
+      <c r="Q243" s="62"/>
+      <c r="R243" s="64"/>
     </row>
     <row r="244" spans="1:18" ht="15.75">
       <c r="A244" s="17"/>
-      <c r="B244" s="61"/>
-      <c r="C244" s="65"/>
+      <c r="B244" s="60"/>
+      <c r="C244" s="68"/>
       <c r="D244" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10206,13 +10245,13 @@
       <c r="N244" s="11"/>
       <c r="O244" s="11"/>
       <c r="P244" s="11"/>
-      <c r="Q244" s="61"/>
-      <c r="R244" s="57"/>
+      <c r="Q244" s="60"/>
+      <c r="R244" s="64"/>
     </row>
     <row r="245" spans="1:18" ht="15.75">
       <c r="A245" s="17"/>
-      <c r="B245" s="62"/>
-      <c r="C245" s="65"/>
+      <c r="B245" s="61"/>
+      <c r="C245" s="68"/>
       <c r="D245" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10241,13 +10280,13 @@
       <c r="N245" s="11"/>
       <c r="O245" s="11"/>
       <c r="P245" s="11"/>
-      <c r="Q245" s="62"/>
-      <c r="R245" s="57"/>
+      <c r="Q245" s="61"/>
+      <c r="R245" s="64"/>
     </row>
     <row r="246" spans="1:18" ht="15.75">
       <c r="A246" s="17"/>
-      <c r="B246" s="62"/>
-      <c r="C246" s="65"/>
+      <c r="B246" s="61"/>
+      <c r="C246" s="68"/>
       <c r="D246" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10276,13 +10315,13 @@
       <c r="N246" s="11"/>
       <c r="O246" s="11"/>
       <c r="P246" s="11"/>
-      <c r="Q246" s="62"/>
-      <c r="R246" s="57"/>
+      <c r="Q246" s="61"/>
+      <c r="R246" s="64"/>
     </row>
     <row r="247" spans="1:18" ht="15.75">
       <c r="A247" s="17"/>
-      <c r="B247" s="62"/>
-      <c r="C247" s="65"/>
+      <c r="B247" s="61"/>
+      <c r="C247" s="68"/>
       <c r="D247" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10311,13 +10350,13 @@
       <c r="N247" s="11"/>
       <c r="O247" s="11"/>
       <c r="P247" s="11"/>
-      <c r="Q247" s="62"/>
-      <c r="R247" s="57"/>
+      <c r="Q247" s="61"/>
+      <c r="R247" s="64"/>
     </row>
     <row r="248" spans="1:18" ht="15.75">
       <c r="A248" s="17"/>
-      <c r="B248" s="62"/>
-      <c r="C248" s="65"/>
+      <c r="B248" s="61"/>
+      <c r="C248" s="68"/>
       <c r="D248" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10346,13 +10385,13 @@
       <c r="N248" s="11"/>
       <c r="O248" s="11"/>
       <c r="P248" s="11"/>
-      <c r="Q248" s="62"/>
-      <c r="R248" s="57"/>
+      <c r="Q248" s="61"/>
+      <c r="R248" s="64"/>
     </row>
     <row r="249" spans="1:18" ht="15.75">
       <c r="A249" s="17"/>
-      <c r="B249" s="62"/>
-      <c r="C249" s="65"/>
+      <c r="B249" s="61"/>
+      <c r="C249" s="68"/>
       <c r="D249" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10381,13 +10420,13 @@
       <c r="N249" s="11"/>
       <c r="O249" s="11"/>
       <c r="P249" s="11"/>
-      <c r="Q249" s="62"/>
-      <c r="R249" s="57"/>
+      <c r="Q249" s="61"/>
+      <c r="R249" s="64"/>
     </row>
     <row r="250" spans="1:18" ht="15.75">
       <c r="A250" s="17"/>
-      <c r="B250" s="62"/>
-      <c r="C250" s="65"/>
+      <c r="B250" s="61"/>
+      <c r="C250" s="68"/>
       <c r="D250" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10416,13 +10455,13 @@
       <c r="N250" s="11"/>
       <c r="O250" s="11"/>
       <c r="P250" s="11"/>
-      <c r="Q250" s="62"/>
-      <c r="R250" s="57"/>
+      <c r="Q250" s="61"/>
+      <c r="R250" s="64"/>
     </row>
     <row r="251" spans="1:18" ht="15.75">
       <c r="A251" s="17"/>
-      <c r="B251" s="62"/>
-      <c r="C251" s="65"/>
+      <c r="B251" s="61"/>
+      <c r="C251" s="68"/>
       <c r="D251" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10451,13 +10490,13 @@
       <c r="N251" s="11"/>
       <c r="O251" s="11"/>
       <c r="P251" s="11"/>
-      <c r="Q251" s="62"/>
-      <c r="R251" s="57"/>
+      <c r="Q251" s="61"/>
+      <c r="R251" s="64"/>
     </row>
     <row r="252" spans="1:18" ht="15.75">
       <c r="A252" s="17"/>
-      <c r="B252" s="62"/>
-      <c r="C252" s="65"/>
+      <c r="B252" s="61"/>
+      <c r="C252" s="68"/>
       <c r="D252" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10486,13 +10525,13 @@
       <c r="N252" s="11"/>
       <c r="O252" s="11"/>
       <c r="P252" s="11"/>
-      <c r="Q252" s="62"/>
-      <c r="R252" s="57"/>
+      <c r="Q252" s="61"/>
+      <c r="R252" s="64"/>
     </row>
     <row r="253" spans="1:18" ht="15.75">
       <c r="A253" s="17"/>
-      <c r="B253" s="62"/>
-      <c r="C253" s="65"/>
+      <c r="B253" s="61"/>
+      <c r="C253" s="68"/>
       <c r="D253" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10521,13 +10560,13 @@
       <c r="N253" s="11"/>
       <c r="O253" s="11"/>
       <c r="P253" s="11"/>
-      <c r="Q253" s="62"/>
-      <c r="R253" s="57"/>
+      <c r="Q253" s="61"/>
+      <c r="R253" s="64"/>
     </row>
     <row r="254" spans="1:18" ht="15.75">
       <c r="A254" s="17"/>
-      <c r="B254" s="62"/>
-      <c r="C254" s="65"/>
+      <c r="B254" s="61"/>
+      <c r="C254" s="68"/>
       <c r="D254" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10556,13 +10595,13 @@
       <c r="N254" s="11"/>
       <c r="O254" s="11"/>
       <c r="P254" s="11"/>
-      <c r="Q254" s="62"/>
-      <c r="R254" s="57"/>
+      <c r="Q254" s="61"/>
+      <c r="R254" s="64"/>
     </row>
     <row r="255" spans="1:18" ht="15.75">
       <c r="A255" s="17"/>
-      <c r="B255" s="62"/>
-      <c r="C255" s="65"/>
+      <c r="B255" s="61"/>
+      <c r="C255" s="68"/>
       <c r="D255" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10591,13 +10630,13 @@
       <c r="N255" s="11"/>
       <c r="O255" s="11"/>
       <c r="P255" s="11"/>
-      <c r="Q255" s="62"/>
-      <c r="R255" s="57"/>
+      <c r="Q255" s="61"/>
+      <c r="R255" s="64"/>
     </row>
     <row r="256" spans="1:18" ht="15.75">
       <c r="A256" s="17"/>
-      <c r="B256" s="62"/>
-      <c r="C256" s="65"/>
+      <c r="B256" s="61"/>
+      <c r="C256" s="68"/>
       <c r="D256" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10626,13 +10665,13 @@
       <c r="N256" s="11"/>
       <c r="O256" s="11"/>
       <c r="P256" s="11"/>
-      <c r="Q256" s="62"/>
-      <c r="R256" s="57"/>
+      <c r="Q256" s="61"/>
+      <c r="R256" s="64"/>
     </row>
     <row r="257" spans="1:18" ht="15.75">
       <c r="A257" s="17"/>
-      <c r="B257" s="62"/>
-      <c r="C257" s="65"/>
+      <c r="B257" s="61"/>
+      <c r="C257" s="68"/>
       <c r="D257" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10661,13 +10700,13 @@
       <c r="N257" s="11"/>
       <c r="O257" s="11"/>
       <c r="P257" s="11"/>
-      <c r="Q257" s="62"/>
-      <c r="R257" s="57"/>
+      <c r="Q257" s="61"/>
+      <c r="R257" s="64"/>
     </row>
     <row r="258" spans="1:18" ht="15.75">
       <c r="A258" s="17"/>
-      <c r="B258" s="63"/>
-      <c r="C258" s="65"/>
+      <c r="B258" s="62"/>
+      <c r="C258" s="68"/>
       <c r="D258" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10696,13 +10735,13 @@
       <c r="N258" s="44"/>
       <c r="O258" s="44"/>
       <c r="P258" s="44"/>
-      <c r="Q258" s="63"/>
-      <c r="R258" s="57"/>
+      <c r="Q258" s="62"/>
+      <c r="R258" s="64"/>
     </row>
     <row r="259" spans="1:18" ht="12.75" customHeight="1">
       <c r="A259" s="17"/>
-      <c r="B259" s="61"/>
-      <c r="C259" s="65"/>
+      <c r="B259" s="60"/>
+      <c r="C259" s="68"/>
       <c r="D259" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10731,13 +10770,13 @@
       <c r="N259" s="44"/>
       <c r="O259" s="44"/>
       <c r="P259" s="44"/>
-      <c r="Q259" s="61"/>
-      <c r="R259" s="57"/>
+      <c r="Q259" s="60"/>
+      <c r="R259" s="64"/>
     </row>
     <row r="260" spans="1:18" ht="15.75">
       <c r="A260" s="17"/>
-      <c r="B260" s="62"/>
-      <c r="C260" s="65"/>
+      <c r="B260" s="61"/>
+      <c r="C260" s="68"/>
       <c r="D260" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10766,13 +10805,13 @@
       <c r="N260" s="44"/>
       <c r="O260" s="44"/>
       <c r="P260" s="44"/>
-      <c r="Q260" s="62"/>
-      <c r="R260" s="57"/>
+      <c r="Q260" s="61"/>
+      <c r="R260" s="64"/>
     </row>
     <row r="261" spans="1:18" ht="15.75">
       <c r="A261" s="17"/>
-      <c r="B261" s="62"/>
-      <c r="C261" s="65"/>
+      <c r="B261" s="61"/>
+      <c r="C261" s="68"/>
       <c r="D261" s="5" t="str">
         <f t="shared" ref="D261:D273" si="16">IF(LEN(E261)&gt;5,IF(LEN(K261&amp;L261&amp;M261)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -10801,13 +10840,13 @@
       <c r="N261" s="44"/>
       <c r="O261" s="44"/>
       <c r="P261" s="44"/>
-      <c r="Q261" s="62"/>
-      <c r="R261" s="57"/>
+      <c r="Q261" s="61"/>
+      <c r="R261" s="64"/>
     </row>
     <row r="262" spans="1:18" ht="15.75">
       <c r="A262" s="17"/>
-      <c r="B262" s="62"/>
-      <c r="C262" s="65"/>
+      <c r="B262" s="61"/>
+      <c r="C262" s="68"/>
       <c r="D262" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -10836,13 +10875,13 @@
       <c r="N262" s="44"/>
       <c r="O262" s="44"/>
       <c r="P262" s="44"/>
-      <c r="Q262" s="62"/>
-      <c r="R262" s="57"/>
+      <c r="Q262" s="61"/>
+      <c r="R262" s="64"/>
     </row>
     <row r="263" spans="1:18" ht="15.75">
       <c r="A263" s="17"/>
-      <c r="B263" s="62"/>
-      <c r="C263" s="65"/>
+      <c r="B263" s="61"/>
+      <c r="C263" s="68"/>
       <c r="D263" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -10871,13 +10910,13 @@
       <c r="N263" s="44"/>
       <c r="O263" s="44"/>
       <c r="P263" s="44"/>
-      <c r="Q263" s="62"/>
-      <c r="R263" s="57"/>
+      <c r="Q263" s="61"/>
+      <c r="R263" s="64"/>
     </row>
     <row r="264" spans="1:18" ht="15.75">
       <c r="A264" s="17"/>
-      <c r="B264" s="62"/>
-      <c r="C264" s="65"/>
+      <c r="B264" s="61"/>
+      <c r="C264" s="68"/>
       <c r="D264" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -10906,13 +10945,13 @@
       <c r="N264" s="44"/>
       <c r="O264" s="44"/>
       <c r="P264" s="44"/>
-      <c r="Q264" s="62"/>
-      <c r="R264" s="57"/>
+      <c r="Q264" s="61"/>
+      <c r="R264" s="64"/>
     </row>
     <row r="265" spans="1:18" ht="15.75">
       <c r="A265" s="17"/>
-      <c r="B265" s="62"/>
-      <c r="C265" s="65"/>
+      <c r="B265" s="61"/>
+      <c r="C265" s="68"/>
       <c r="D265" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -10941,13 +10980,13 @@
       <c r="N265" s="44"/>
       <c r="O265" s="44"/>
       <c r="P265" s="44"/>
-      <c r="Q265" s="62"/>
-      <c r="R265" s="57"/>
+      <c r="Q265" s="61"/>
+      <c r="R265" s="64"/>
     </row>
     <row r="266" spans="1:18" ht="15.75">
       <c r="A266" s="17"/>
-      <c r="B266" s="62"/>
-      <c r="C266" s="65"/>
+      <c r="B266" s="61"/>
+      <c r="C266" s="68"/>
       <c r="D266" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -10975,13 +11014,13 @@
       </c>
       <c r="N266" s="44"/>
       <c r="P266" s="44"/>
-      <c r="Q266" s="62"/>
-      <c r="R266" s="57"/>
+      <c r="Q266" s="61"/>
+      <c r="R266" s="64"/>
     </row>
     <row r="267" spans="1:18" ht="15.75">
       <c r="A267" s="17"/>
-      <c r="B267" s="62"/>
-      <c r="C267" s="65"/>
+      <c r="B267" s="61"/>
+      <c r="C267" s="68"/>
       <c r="D267" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -11010,13 +11049,13 @@
       <c r="N267" s="44"/>
       <c r="O267" s="44"/>
       <c r="P267" s="44"/>
-      <c r="Q267" s="62"/>
-      <c r="R267" s="57"/>
+      <c r="Q267" s="61"/>
+      <c r="R267" s="64"/>
     </row>
     <row r="268" spans="1:18" ht="15.75">
       <c r="A268" s="17"/>
-      <c r="B268" s="62"/>
-      <c r="C268" s="65"/>
+      <c r="B268" s="61"/>
+      <c r="C268" s="68"/>
       <c r="D268" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -11045,13 +11084,13 @@
       <c r="N268" s="44"/>
       <c r="O268" s="44"/>
       <c r="P268" s="44"/>
-      <c r="Q268" s="62"/>
-      <c r="R268" s="57"/>
+      <c r="Q268" s="61"/>
+      <c r="R268" s="64"/>
     </row>
     <row r="269" spans="1:18" ht="15.75">
       <c r="A269" s="17"/>
-      <c r="B269" s="62"/>
-      <c r="C269" s="65"/>
+      <c r="B269" s="61"/>
+      <c r="C269" s="68"/>
       <c r="D269" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -11080,13 +11119,13 @@
       <c r="N269" s="44"/>
       <c r="O269" s="44"/>
       <c r="P269" s="44"/>
-      <c r="Q269" s="62"/>
-      <c r="R269" s="57"/>
+      <c r="Q269" s="61"/>
+      <c r="R269" s="64"/>
     </row>
     <row r="270" spans="1:18" ht="15.75">
       <c r="A270" s="17"/>
-      <c r="B270" s="62"/>
-      <c r="C270" s="65"/>
+      <c r="B270" s="61"/>
+      <c r="C270" s="68"/>
       <c r="D270" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -11115,13 +11154,13 @@
       <c r="N270" s="44"/>
       <c r="O270" s="44"/>
       <c r="P270" s="44"/>
-      <c r="Q270" s="62"/>
-      <c r="R270" s="57"/>
+      <c r="Q270" s="61"/>
+      <c r="R270" s="64"/>
     </row>
     <row r="271" spans="1:18" ht="15.75">
       <c r="A271" s="17"/>
-      <c r="B271" s="62"/>
-      <c r="C271" s="65"/>
+      <c r="B271" s="61"/>
+      <c r="C271" s="68"/>
       <c r="D271" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -11150,13 +11189,13 @@
       <c r="N271" s="44"/>
       <c r="O271" s="44"/>
       <c r="P271" s="44"/>
-      <c r="Q271" s="62"/>
-      <c r="R271" s="57"/>
+      <c r="Q271" s="61"/>
+      <c r="R271" s="64"/>
     </row>
     <row r="272" spans="1:18" ht="15.75">
       <c r="A272" s="17"/>
-      <c r="B272" s="62"/>
-      <c r="C272" s="65"/>
+      <c r="B272" s="61"/>
+      <c r="C272" s="68"/>
       <c r="D272" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -11185,13 +11224,13 @@
       <c r="N272" s="44"/>
       <c r="O272" s="44"/>
       <c r="P272" s="44"/>
-      <c r="Q272" s="62"/>
-      <c r="R272" s="57"/>
+      <c r="Q272" s="61"/>
+      <c r="R272" s="64"/>
     </row>
     <row r="273" spans="1:18" ht="15.75">
       <c r="A273" s="22"/>
-      <c r="B273" s="63"/>
-      <c r="C273" s="65"/>
+      <c r="B273" s="62"/>
+      <c r="C273" s="68"/>
       <c r="D273" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -11220,8 +11259,8 @@
       <c r="N273" s="44"/>
       <c r="O273" s="44"/>
       <c r="P273" s="44"/>
-      <c r="Q273" s="63"/>
-      <c r="R273" s="57"/>
+      <c r="Q273" s="62"/>
+      <c r="R273" s="64"/>
     </row>
     <row r="274" spans="1:18" ht="15.75">
       <c r="G274" s="50"/>
@@ -11239,7 +11278,7 @@
     </row>
     <row r="275" spans="1:18" ht="15.75" customHeight="1">
       <c r="A275" s="51" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B275" s="51"/>
       <c r="C275" s="51"/>
@@ -11275,6 +11314,50 @@
   </sheetData>
   <autoFilter ref="A1:P273"/>
   <mergeCells count="60">
+    <mergeCell ref="A4:A33"/>
+    <mergeCell ref="A34:A93"/>
+    <mergeCell ref="A94:A153"/>
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="B34:B48"/>
+    <mergeCell ref="B49:B63"/>
+    <mergeCell ref="B64:B78"/>
+    <mergeCell ref="B79:B93"/>
+    <mergeCell ref="B94:B108"/>
+    <mergeCell ref="B109:B123"/>
+    <mergeCell ref="B124:B138"/>
+    <mergeCell ref="B139:B153"/>
+    <mergeCell ref="B154:B168"/>
+    <mergeCell ref="B169:B183"/>
+    <mergeCell ref="B184:B198"/>
+    <mergeCell ref="B199:B213"/>
+    <mergeCell ref="B214:B228"/>
+    <mergeCell ref="B229:B243"/>
+    <mergeCell ref="B244:B258"/>
+    <mergeCell ref="B259:B273"/>
+    <mergeCell ref="C4:C18"/>
+    <mergeCell ref="C19:C33"/>
+    <mergeCell ref="C34:C48"/>
+    <mergeCell ref="C49:C63"/>
+    <mergeCell ref="C64:C78"/>
+    <mergeCell ref="C79:C93"/>
+    <mergeCell ref="C94:C108"/>
+    <mergeCell ref="C109:C123"/>
+    <mergeCell ref="C124:C138"/>
+    <mergeCell ref="C139:C153"/>
+    <mergeCell ref="C154:C168"/>
+    <mergeCell ref="C169:C183"/>
+    <mergeCell ref="C184:C198"/>
+    <mergeCell ref="C199:C213"/>
+    <mergeCell ref="C214:C228"/>
+    <mergeCell ref="C229:C243"/>
+    <mergeCell ref="C244:C258"/>
+    <mergeCell ref="C259:C273"/>
+    <mergeCell ref="Q4:Q18"/>
+    <mergeCell ref="Q19:Q33"/>
+    <mergeCell ref="Q34:Q48"/>
+    <mergeCell ref="Q49:Q63"/>
+    <mergeCell ref="Q64:Q78"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="Q229:Q243"/>
     <mergeCell ref="Q244:Q258"/>
@@ -11291,324 +11374,280 @@
     <mergeCell ref="Q109:Q123"/>
     <mergeCell ref="Q124:Q138"/>
     <mergeCell ref="Q139:Q153"/>
-    <mergeCell ref="Q4:Q18"/>
-    <mergeCell ref="Q19:Q33"/>
-    <mergeCell ref="Q34:Q48"/>
-    <mergeCell ref="Q49:Q63"/>
-    <mergeCell ref="Q64:Q78"/>
-    <mergeCell ref="C199:C213"/>
-    <mergeCell ref="C214:C228"/>
-    <mergeCell ref="C229:C243"/>
-    <mergeCell ref="C244:C258"/>
-    <mergeCell ref="C259:C273"/>
-    <mergeCell ref="B229:B243"/>
-    <mergeCell ref="B244:B258"/>
-    <mergeCell ref="B259:B273"/>
-    <mergeCell ref="C4:C18"/>
-    <mergeCell ref="C19:C33"/>
-    <mergeCell ref="C34:C48"/>
-    <mergeCell ref="C49:C63"/>
-    <mergeCell ref="C64:C78"/>
-    <mergeCell ref="C79:C93"/>
-    <mergeCell ref="C94:C108"/>
-    <mergeCell ref="C109:C123"/>
-    <mergeCell ref="C124:C138"/>
-    <mergeCell ref="C139:C153"/>
-    <mergeCell ref="C154:C168"/>
-    <mergeCell ref="C169:C183"/>
-    <mergeCell ref="C184:C198"/>
-    <mergeCell ref="B154:B168"/>
-    <mergeCell ref="B169:B183"/>
-    <mergeCell ref="B184:B198"/>
-    <mergeCell ref="B199:B213"/>
-    <mergeCell ref="B214:B228"/>
-    <mergeCell ref="A4:A33"/>
-    <mergeCell ref="A34:A93"/>
-    <mergeCell ref="A94:A153"/>
-    <mergeCell ref="B4:B18"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="B34:B48"/>
-    <mergeCell ref="B49:B63"/>
-    <mergeCell ref="B64:B78"/>
-    <mergeCell ref="B79:B93"/>
-    <mergeCell ref="B94:B108"/>
-    <mergeCell ref="B109:B123"/>
-    <mergeCell ref="B124:B138"/>
-    <mergeCell ref="B139:B153"/>
   </mergeCells>
   <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="81" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="61" stopIfTrue="1">
       <formula>I20="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="62" stopIfTrue="1">
       <formula>I20="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="63" stopIfTrue="1">
       <formula>I20="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="37" stopIfTrue="1">
       <formula>I20="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="38" stopIfTrue="1">
       <formula>I20="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="39" stopIfTrue="1">
       <formula>I20="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="34" stopIfTrue="1">
       <formula>I20="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="35" stopIfTrue="1">
       <formula>I20="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="36" stopIfTrue="1">
       <formula>I20="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="72" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="10" stopIfTrue="1">
       <formula>I21="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="11" stopIfTrue="1">
       <formula>I21="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="12" stopIfTrue="1">
       <formula>I21="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="7" stopIfTrue="1">
       <formula>I21="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="8" stopIfTrue="1">
       <formula>I21="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="9" stopIfTrue="1">
       <formula>I21="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="4" stopIfTrue="1">
       <formula>I21="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="5" stopIfTrue="1">
       <formula>I21="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="6" stopIfTrue="1">
       <formula>I21="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="1" stopIfTrue="1">
       <formula>I21="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="2" stopIfTrue="1">
       <formula>I21="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="3" stopIfTrue="1">
       <formula>I21="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="expression" dxfId="60" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="88" stopIfTrue="1">
       <formula>I20="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="89" stopIfTrue="1">
       <formula>I20="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="90" stopIfTrue="1">
       <formula>I20="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="58" stopIfTrue="1">
       <formula>I79="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="59" stopIfTrue="1">
       <formula>I79="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="60" stopIfTrue="1">
       <formula>I79="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="55" stopIfTrue="1">
       <formula>I79="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="56" stopIfTrue="1">
       <formula>I79="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="57" stopIfTrue="1">
       <formula>I79="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="expression" dxfId="51" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="52" stopIfTrue="1">
       <formula>I95="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="53" stopIfTrue="1">
       <formula>I95="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="54" stopIfTrue="1">
       <formula>I95="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="40" stopIfTrue="1">
       <formula>I95="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="41" stopIfTrue="1">
       <formula>I95="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="42" stopIfTrue="1">
       <formula>I95="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="expression" dxfId="45" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="49" stopIfTrue="1">
       <formula>I109="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="50" stopIfTrue="1">
       <formula>I109="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="51" stopIfTrue="1">
       <formula>I109="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="43" stopIfTrue="1">
       <formula>I109="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="44" stopIfTrue="1">
       <formula>I109="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="45" stopIfTrue="1">
       <formula>I109="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H124">
-    <cfRule type="expression" dxfId="39" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="46" stopIfTrue="1">
       <formula>I124="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="47" stopIfTrue="1">
       <formula>I124="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="48" stopIfTrue="1">
       <formula>I124="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H139">
-    <cfRule type="expression" dxfId="36" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="28" stopIfTrue="1">
       <formula>I80="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="29" stopIfTrue="1">
       <formula>I80="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="30" stopIfTrue="1">
       <formula>I80="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="25" stopIfTrue="1">
       <formula>I139="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="26" stopIfTrue="1">
       <formula>I139="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="27" stopIfTrue="1">
       <formula>I139="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="22" stopIfTrue="1">
       <formula>I139="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="23" stopIfTrue="1">
       <formula>I139="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="24" stopIfTrue="1">
       <formula>I139="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="19" stopIfTrue="1">
       <formula>I80="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="20" stopIfTrue="1">
       <formula>I80="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="21" stopIfTrue="1">
       <formula>I80="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="16" stopIfTrue="1">
       <formula>I139="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="17" stopIfTrue="1">
       <formula>I139="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="18" stopIfTrue="1">
       <formula>I139="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="13" stopIfTrue="1">
       <formula>I139="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="14" stopIfTrue="1">
       <formula>I139="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="15" stopIfTrue="1">
       <formula>I139="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H140">
-    <cfRule type="expression" dxfId="18" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="31" stopIfTrue="1">
       <formula>I140="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="32" stopIfTrue="1">
       <formula>I140="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="33" stopIfTrue="1">
       <formula>I140="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D273">
-    <cfRule type="containsText" dxfId="15" priority="66" operator="containsText" text="Check">
+    <cfRule type="containsText" dxfId="17" priority="66" operator="containsText" text="Check">
       <formula>NOT(ISERROR(SEARCH("Check",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G273">
-    <cfRule type="expression" dxfId="14" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="78" stopIfTrue="1">
       <formula>G4="Aff"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="79" stopIfTrue="1">
       <formula>G4="Doc"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J276">
-    <cfRule type="expression" dxfId="12" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="80" stopIfTrue="1">
       <formula>J4="N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:R273">
-    <cfRule type="containsText" dxfId="11" priority="67" operator="containsText" text="NA">
+    <cfRule type="containsText" dxfId="13" priority="67" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",R4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="68" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="12" priority="68" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",R4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="81" stopIfTrue="1">
       <formula>LEFT(R4,LEN("S"))="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R274:R276">
-    <cfRule type="expression" dxfId="8" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="69" stopIfTrue="1">
       <formula>R274="U"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="70" stopIfTrue="1">
       <formula>R274="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H19 H22:H78 H80:H276">
-    <cfRule type="expression" dxfId="6" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="75" stopIfTrue="1">
       <formula>I4="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="76" stopIfTrue="1">
       <formula>I4="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="77" stopIfTrue="1">
       <formula>I4="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N267:Q276 P266:Q266 N4:Q265 N266">
-    <cfRule type="expression" dxfId="3" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="74" stopIfTrue="1">
       <formula>N4="FI"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="71" stopIfTrue="1">
       <formula>N4="NI"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="72" stopIfTrue="1">
       <formula>N4="PI"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="73" stopIfTrue="1">
       <formula>N4="LI"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11630,24 +11669,26 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" display="GGE302_Plan"/>
-    <hyperlink ref="E80" r:id="rId2"/>
-    <hyperlink ref="E19" r:id="rId3"/>
-    <hyperlink ref="E34" r:id="rId4"/>
-    <hyperlink ref="E35" r:id="rId5"/>
-    <hyperlink ref="E36" r:id="rId6"/>
-    <hyperlink ref="E49" r:id="rId7"/>
-    <hyperlink ref="E66" r:id="rId8"/>
-    <hyperlink ref="E50" r:id="rId9"/>
-    <hyperlink ref="E65" r:id="rId10" display="GGE2302_Design Data"/>
-    <hyperlink ref="E79" r:id="rId11"/>
-    <hyperlink ref="E94" r:id="rId12"/>
-    <hyperlink ref="E95" r:id="rId13"/>
-    <hyperlink ref="E110" r:id="rId14"/>
-    <hyperlink ref="E109" r:id="rId15"/>
-    <hyperlink ref="E124" r:id="rId16"/>
-    <hyperlink ref="E139" r:id="rId17"/>
-    <hyperlink ref="E140" r:id="rId18"/>
+    <hyperlink ref="E19" r:id="rId1"/>
+    <hyperlink ref="E34" r:id="rId2"/>
+    <hyperlink ref="E35" r:id="rId3"/>
+    <hyperlink ref="E36" r:id="rId4"/>
+    <hyperlink ref="E66" r:id="rId5"/>
+    <hyperlink ref="E65" r:id="rId6" display="GGE2302_Design Data"/>
+    <hyperlink ref="E79" r:id="rId7"/>
+    <hyperlink ref="E94" r:id="rId8"/>
+    <hyperlink ref="E95" r:id="rId9"/>
+    <hyperlink ref="E110" r:id="rId10"/>
+    <hyperlink ref="E109" r:id="rId11"/>
+    <hyperlink ref="E124" r:id="rId12"/>
+    <hyperlink ref="E139" r:id="rId13"/>
+    <hyperlink ref="E140" r:id="rId14"/>
+    <hyperlink ref="E4" r:id="rId15"/>
+    <hyperlink ref="E20" r:id="rId16"/>
+    <hyperlink ref="E49" r:id="rId17"/>
+    <hyperlink ref="E50" r:id="rId18"/>
+    <hyperlink ref="E80" r:id="rId19"/>
+    <hyperlink ref="E81" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/PIID/MC.xlsx
+++ b/PIID/MC.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
   <si>
     <t>MC</t>
   </si>
@@ -103,13 +103,7 @@
     <t>Project Plan according to effort estimation</t>
   </si>
   <si>
-    <t>https://gil.einframe.com/data-capture/development/capprojecttalentmap.aspx?projectid=96</t>
-  </si>
-  <si>
     <t>Resource ,Knowledge and Skills</t>
-  </si>
-  <si>
-    <t>FINANCIALS</t>
   </si>
   <si>
     <t>Budget Deatails</t>
@@ -118,13 +112,7 @@
     <t xml:space="preserve">Track the involvement of identified stakeholders and commitments. </t>
   </si>
   <si>
-    <t>Time Sheet</t>
-  </si>
-  <si>
     <t xml:space="preserve">Monitor the transition to operations and support. </t>
-  </si>
-  <si>
-    <t>http://192.168.100.9:8080/svn/DC_DC_Converter/SP10_GGE302/Testing/</t>
   </si>
   <si>
     <t xml:space="preserve">Take corrective actions when actual results differ significantly from planned results and manage to closure. </t>
@@ -142,9 +130,6 @@
     <t xml:space="preserve">Manage the project using the project plan and the project process. </t>
   </si>
   <si>
-    <t>project plan</t>
-  </si>
-  <si>
     <t>continuous monitoring of project through status meetings</t>
   </si>
   <si>
@@ -152,9 +137,6 @@
   </si>
   <si>
     <t>Status review meetings have details about each activity and roadblocks</t>
-  </si>
-  <si>
-    <t>GGE302_RSKMTX</t>
   </si>
   <si>
     <t xml:space="preserve">risk matrix for detail </t>
@@ -222,6 +204,27 @@
   </si>
   <si>
     <t>other sequencial task  started without any delay .</t>
+  </si>
+  <si>
+    <t>Showing the status of task completed in form of Approved.</t>
+  </si>
+  <si>
+    <t>Project task report showing variances in schedule and efforts / costs against planned (estimated).</t>
+  </si>
+  <si>
+    <t>Monitor the each task status via timesheet of each relevant stakholder and variances.</t>
+  </si>
+  <si>
+    <t>GGE302_Time Sheet</t>
+  </si>
+  <si>
+    <t>GGE302_Testing Data</t>
+  </si>
+  <si>
+    <t>Feedback given to Einframe host to resolve the bug, as Einframe is also work environment.</t>
+  </si>
+  <si>
+    <t>Einframe_Feedback</t>
   </si>
 </sst>
 </file>
@@ -647,27 +650,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -683,16 +665,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -702,7 +705,63 @@
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 2 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="84">
+  <dxfs count="92">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1584,25 +1643,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
       <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" ht="57">
       <c r="A3" s="3" t="s">
@@ -1636,12 +1695,12 @@
         <v>11</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -1649,13 +1708,13 @@
       <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18" ht="51">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="65">
+      <c r="B4" s="58">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="64" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="5" t="str">
@@ -1663,10 +1722,10 @@
         <v>OK</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>15</v>
@@ -1692,20 +1751,26 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="63"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75">
-      <c r="A5" s="63"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="68"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="56"/>
+    </row>
+    <row r="5" spans="1:18" ht="25.5">
+      <c r="A5" s="56"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="5" t="str">
         <f t="shared" ref="D5:D68" si="2">IF(LEN(E5)&gt;5,IF(LEN(K5&amp;L5&amp;M5)&gt;=1,"OK","Check"),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+        <v>OK</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="H5" s="8"/>
       <c r="I5" s="14" t="str">
         <f t="shared" si="0"/>
@@ -1714,26 +1779,26 @@
       <c r="J5" s="14"/>
       <c r="K5" s="8" t="str">
         <f t="shared" ref="K5:M68" si="3">IF(COUNTIFS($E5,"*"&amp;K$3&amp;"*")&gt;=1,"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L5" s="8" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M5" s="8" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="63"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="56"/>
     </row>
     <row r="6" spans="1:18" ht="15.75">
-      <c r="A6" s="63"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="68"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1761,13 +1826,13 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="63"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="56"/>
     </row>
     <row r="7" spans="1:18" ht="15.75">
-      <c r="A7" s="63"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="68"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1796,13 +1861,13 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="63"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="56"/>
     </row>
     <row r="8" spans="1:18" ht="15.75">
-      <c r="A8" s="63"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="68"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1831,13 +1896,13 @@
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="63"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="56"/>
     </row>
     <row r="9" spans="1:18" ht="15.75">
-      <c r="A9" s="63"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="68"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1866,13 +1931,13 @@
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="63"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="56"/>
     </row>
     <row r="10" spans="1:18" ht="15.75">
-      <c r="A10" s="63"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="68"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1901,13 +1966,13 @@
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="63"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="56"/>
     </row>
     <row r="11" spans="1:18" ht="15.75">
-      <c r="A11" s="63"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="68"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1936,13 +2001,13 @@
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="63"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="56"/>
     </row>
     <row r="12" spans="1:18" ht="15.75">
-      <c r="A12" s="63"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="68"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1971,13 +2036,13 @@
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="63"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="56"/>
     </row>
     <row r="13" spans="1:18" ht="15.75">
-      <c r="A13" s="63"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="68"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2006,13 +2071,13 @@
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="63"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="56"/>
     </row>
     <row r="14" spans="1:18" ht="15.75">
-      <c r="A14" s="63"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="68"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2041,13 +2106,13 @@
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="63"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="56"/>
     </row>
     <row r="15" spans="1:18" ht="15.75">
-      <c r="A15" s="63"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="68"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2076,13 +2141,13 @@
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="63"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="56"/>
     </row>
     <row r="16" spans="1:18" ht="15.75">
-      <c r="A16" s="63"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="68"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2111,13 +2176,13 @@
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="63"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="56"/>
     </row>
     <row r="17" spans="1:18" ht="15.75">
-      <c r="A17" s="63"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="68"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2146,13 +2211,13 @@
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="63"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="56"/>
     </row>
     <row r="18" spans="1:18" ht="15.75">
-      <c r="A18" s="63"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="68"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2181,15 +2246,15 @@
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="63"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="56"/>
     </row>
     <row r="19" spans="1:18" ht="63.75">
-      <c r="A19" s="63"/>
-      <c r="B19" s="65">
+      <c r="A19" s="56"/>
+      <c r="B19" s="58">
         <v>1.2</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="66" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="5" t="str">
@@ -2226,22 +2291,22 @@
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="63"/>
-    </row>
-    <row r="20" spans="1:18" ht="127.5">
-      <c r="A20" s="63"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="70"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="56"/>
+    </row>
+    <row r="20" spans="1:18" ht="114.75">
+      <c r="A20" s="56"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>15</v>
@@ -2267,13 +2332,13 @@
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="63"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="56"/>
     </row>
     <row r="21" spans="1:18" ht="15.75">
-      <c r="A21" s="63"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="70"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="66"/>
       <c r="D21" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2302,13 +2367,13 @@
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="63"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="56"/>
     </row>
     <row r="22" spans="1:18" ht="15.75">
-      <c r="A22" s="63"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="70"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="66"/>
       <c r="D22" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2337,13 +2402,13 @@
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="63"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="56"/>
     </row>
     <row r="23" spans="1:18" ht="15.75">
-      <c r="A23" s="63"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="70"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="66"/>
       <c r="D23" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2372,13 +2437,13 @@
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="63"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="56"/>
     </row>
     <row r="24" spans="1:18" ht="15.75">
-      <c r="A24" s="63"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="70"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="66"/>
       <c r="D24" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2407,13 +2472,13 @@
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="63"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="56"/>
     </row>
     <row r="25" spans="1:18" ht="15.75">
-      <c r="A25" s="63"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="70"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2441,13 +2506,13 @@
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="63"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="56"/>
     </row>
     <row r="26" spans="1:18" ht="26.25" customHeight="1">
-      <c r="A26" s="63"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="70"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="66"/>
       <c r="D26" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2476,13 +2541,13 @@
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="63"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="56"/>
     </row>
     <row r="27" spans="1:18" ht="15.75">
-      <c r="A27" s="63"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="70"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="66"/>
       <c r="D27" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2511,13 +2576,13 @@
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="63"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="56"/>
     </row>
     <row r="28" spans="1:18" ht="15.75">
-      <c r="A28" s="63"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="70"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2546,13 +2611,13 @@
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="63"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="56"/>
     </row>
     <row r="29" spans="1:18" ht="15.75">
-      <c r="A29" s="63"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="70"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2581,13 +2646,13 @@
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
-      <c r="Q29" s="66"/>
-      <c r="R29" s="63"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="56"/>
     </row>
     <row r="30" spans="1:18" ht="15.75">
-      <c r="A30" s="63"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="70"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="66"/>
       <c r="D30" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2616,13 +2681,13 @@
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="63"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="56"/>
     </row>
     <row r="31" spans="1:18" ht="15.75">
-      <c r="A31" s="63"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="70"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="66"/>
       <c r="D31" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2651,13 +2716,13 @@
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
-      <c r="Q31" s="66"/>
-      <c r="R31" s="63"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="56"/>
     </row>
     <row r="32" spans="1:18" ht="15.75">
-      <c r="A32" s="63"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="70"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2686,13 +2751,13 @@
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
-      <c r="Q32" s="66"/>
-      <c r="R32" s="63"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="56"/>
     </row>
     <row r="33" spans="1:18" ht="15.75">
-      <c r="A33" s="63"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="70"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="66"/>
       <c r="D33" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2721,24 +2786,24 @@
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
-      <c r="Q33" s="67"/>
-      <c r="R33" s="63"/>
+      <c r="Q33" s="60"/>
+      <c r="R33" s="56"/>
     </row>
     <row r="34" spans="1:18" ht="38.25" customHeight="1">
-      <c r="A34" s="63" t="s">
+      <c r="A34" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="65">
+      <c r="B34" s="58">
         <v>2.1</v>
       </c>
-      <c r="C34" s="68" t="s">
+      <c r="C34" s="66" t="s">
         <v>21</v>
       </c>
       <c r="D34" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F34" s="7" t="s">
@@ -2768,22 +2833,22 @@
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
-      <c r="Q34" s="65"/>
-      <c r="R34" s="63"/>
-    </row>
-    <row r="35" spans="1:18" ht="63.75">
-      <c r="A35" s="63"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="68"/>
+      <c r="Q34" s="58"/>
+      <c r="R34" s="56"/>
+    </row>
+    <row r="35" spans="1:18" ht="51">
+      <c r="A35" s="56"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="66"/>
       <c r="D35" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>15</v>
@@ -2796,7 +2861,7 @@
       <c r="J35" s="14"/>
       <c r="K35" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L35" s="8" t="str">
         <f t="shared" si="3"/>
@@ -2809,22 +2874,22 @@
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
-      <c r="Q35" s="66"/>
-      <c r="R35" s="63"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="56"/>
     </row>
     <row r="36" spans="1:18" ht="15.75">
-      <c r="A36" s="63"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="68"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="66"/>
       <c r="D36" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>25</v>
+      <c r="E36" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>15</v>
@@ -2837,7 +2902,7 @@
       <c r="J36" s="14"/>
       <c r="K36" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L36" s="8" t="str">
         <f t="shared" si="3"/>
@@ -2850,20 +2915,26 @@
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
-      <c r="Q36" s="66"/>
-      <c r="R36" s="63"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="56"/>
     </row>
     <row r="37" spans="1:18" ht="15.75">
-      <c r="A37" s="63"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="68"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="66"/>
       <c r="D37" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="11"/>
+        <v>OK</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H37" s="5"/>
       <c r="I37" s="14" t="str">
         <f t="shared" si="4"/>
@@ -2872,26 +2943,26 @@
       <c r="J37" s="14"/>
       <c r="K37" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L37" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M37" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
-      <c r="Q37" s="66"/>
-      <c r="R37" s="63"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="56"/>
     </row>
     <row r="38" spans="1:18" ht="15.75">
-      <c r="A38" s="63"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="68"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="66"/>
       <c r="D38" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2920,13 +2991,13 @@
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
-      <c r="Q38" s="66"/>
-      <c r="R38" s="63"/>
+      <c r="Q38" s="59"/>
+      <c r="R38" s="56"/>
     </row>
     <row r="39" spans="1:18" ht="15.75">
-      <c r="A39" s="63"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="68"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="66"/>
       <c r="D39" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2955,13 +3026,13 @@
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
-      <c r="Q39" s="66"/>
-      <c r="R39" s="63"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="56"/>
     </row>
     <row r="40" spans="1:18" ht="15.75">
-      <c r="A40" s="63"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="68"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="66"/>
       <c r="D40" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2990,13 +3061,13 @@
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
-      <c r="Q40" s="66"/>
-      <c r="R40" s="63"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="56"/>
     </row>
     <row r="41" spans="1:18" ht="15.75">
-      <c r="A41" s="63"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="68"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="66"/>
       <c r="D41" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3025,13 +3096,13 @@
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
-      <c r="Q41" s="66"/>
-      <c r="R41" s="63"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="56"/>
     </row>
     <row r="42" spans="1:18" ht="15.75">
-      <c r="A42" s="63"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="68"/>
+      <c r="A42" s="56"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="66"/>
       <c r="D42" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3060,13 +3131,13 @@
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
-      <c r="Q42" s="66"/>
-      <c r="R42" s="63"/>
+      <c r="Q42" s="59"/>
+      <c r="R42" s="56"/>
     </row>
     <row r="43" spans="1:18" ht="15.75">
-      <c r="A43" s="63"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="68"/>
+      <c r="A43" s="56"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="66"/>
       <c r="D43" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3095,13 +3166,13 @@
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
-      <c r="Q43" s="66"/>
-      <c r="R43" s="63"/>
+      <c r="Q43" s="59"/>
+      <c r="R43" s="56"/>
     </row>
     <row r="44" spans="1:18" ht="15.75">
-      <c r="A44" s="63"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="68"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="66"/>
       <c r="D44" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3130,13 +3201,13 @@
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
-      <c r="Q44" s="66"/>
-      <c r="R44" s="63"/>
+      <c r="Q44" s="59"/>
+      <c r="R44" s="56"/>
     </row>
     <row r="45" spans="1:18" ht="15.75">
-      <c r="A45" s="63"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="68"/>
+      <c r="A45" s="56"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="66"/>
       <c r="D45" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3165,13 +3236,13 @@
       <c r="N45" s="11"/>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
-      <c r="Q45" s="66"/>
-      <c r="R45" s="63"/>
+      <c r="Q45" s="59"/>
+      <c r="R45" s="56"/>
     </row>
     <row r="46" spans="1:18" ht="15.75">
-      <c r="A46" s="63"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="68"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="66"/>
       <c r="D46" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3200,13 +3271,13 @@
       <c r="N46" s="11"/>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
-      <c r="Q46" s="66"/>
-      <c r="R46" s="63"/>
+      <c r="Q46" s="59"/>
+      <c r="R46" s="56"/>
     </row>
     <row r="47" spans="1:18" ht="15.75">
-      <c r="A47" s="63"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="68"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="66"/>
       <c r="D47" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3235,13 +3306,13 @@
       <c r="N47" s="11"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
-      <c r="Q47" s="66"/>
-      <c r="R47" s="63"/>
+      <c r="Q47" s="59"/>
+      <c r="R47" s="56"/>
     </row>
     <row r="48" spans="1:18" ht="15.75">
-      <c r="A48" s="63"/>
-      <c r="B48" s="67"/>
-      <c r="C48" s="68"/>
+      <c r="A48" s="56"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="66"/>
       <c r="D48" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3270,26 +3341,26 @@
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
-      <c r="Q48" s="67"/>
-      <c r="R48" s="63"/>
+      <c r="Q48" s="60"/>
+      <c r="R48" s="56"/>
     </row>
     <row r="49" spans="1:18" ht="63.75">
-      <c r="A49" s="63"/>
-      <c r="B49" s="65">
+      <c r="A49" s="56"/>
+      <c r="B49" s="58">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C49" s="68" t="s">
-        <v>27</v>
+      <c r="C49" s="66" t="s">
+        <v>25</v>
       </c>
       <c r="D49" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>15</v>
@@ -3315,22 +3386,22 @@
       <c r="N49" s="11"/>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
-      <c r="Q49" s="65"/>
-      <c r="R49" s="63"/>
+      <c r="Q49" s="58"/>
+      <c r="R49" s="56"/>
     </row>
     <row r="50" spans="1:18" ht="38.25">
-      <c r="A50" s="63"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="68"/>
+      <c r="A50" s="56"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="66"/>
       <c r="D50" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G50" s="11" t="s">
         <v>15</v>
@@ -3343,7 +3414,7 @@
       <c r="J50" s="14"/>
       <c r="K50" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L50" s="8" t="str">
         <f t="shared" si="3"/>
@@ -3356,20 +3427,26 @@
       <c r="N50" s="11"/>
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
-      <c r="Q50" s="66"/>
-      <c r="R50" s="63"/>
-    </row>
-    <row r="51" spans="1:18" ht="15.75">
-      <c r="A51" s="63"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="68"/>
+      <c r="Q50" s="59"/>
+      <c r="R50" s="56"/>
+    </row>
+    <row r="51" spans="1:18" ht="38.25">
+      <c r="A51" s="56"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="66"/>
       <c r="D51" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="11"/>
+        <v>OK</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H51" s="8"/>
       <c r="I51" s="14" t="str">
         <f t="shared" si="4"/>
@@ -3378,26 +3455,26 @@
       <c r="J51" s="14"/>
       <c r="K51" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L51" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M51" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N51" s="11"/>
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
-      <c r="Q51" s="66"/>
-      <c r="R51" s="63"/>
+      <c r="Q51" s="59"/>
+      <c r="R51" s="56"/>
     </row>
     <row r="52" spans="1:18" ht="15.75">
-      <c r="A52" s="63"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="68"/>
+      <c r="A52" s="56"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="66"/>
       <c r="D52" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3426,13 +3503,13 @@
       <c r="N52" s="11"/>
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
-      <c r="Q52" s="66"/>
-      <c r="R52" s="63"/>
+      <c r="Q52" s="59"/>
+      <c r="R52" s="56"/>
     </row>
     <row r="53" spans="1:18" ht="15.75">
-      <c r="A53" s="63"/>
-      <c r="B53" s="66"/>
-      <c r="C53" s="68"/>
+      <c r="A53" s="56"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="66"/>
       <c r="D53" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3461,13 +3538,13 @@
       <c r="N53" s="11"/>
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
-      <c r="Q53" s="66"/>
-      <c r="R53" s="63"/>
+      <c r="Q53" s="59"/>
+      <c r="R53" s="56"/>
     </row>
     <row r="54" spans="1:18" ht="15.75">
-      <c r="A54" s="63"/>
-      <c r="B54" s="66"/>
-      <c r="C54" s="68"/>
+      <c r="A54" s="56"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="66"/>
       <c r="D54" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3496,13 +3573,13 @@
       <c r="N54" s="11"/>
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
-      <c r="Q54" s="66"/>
-      <c r="R54" s="63"/>
+      <c r="Q54" s="59"/>
+      <c r="R54" s="56"/>
     </row>
     <row r="55" spans="1:18" ht="15.75">
-      <c r="A55" s="63"/>
-      <c r="B55" s="66"/>
-      <c r="C55" s="68"/>
+      <c r="A55" s="56"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="66"/>
       <c r="D55" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3531,13 +3608,13 @@
       <c r="N55" s="11"/>
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
-      <c r="Q55" s="66"/>
-      <c r="R55" s="63"/>
+      <c r="Q55" s="59"/>
+      <c r="R55" s="56"/>
     </row>
     <row r="56" spans="1:18" ht="15.75">
-      <c r="A56" s="63"/>
-      <c r="B56" s="66"/>
-      <c r="C56" s="68"/>
+      <c r="A56" s="56"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="66"/>
       <c r="D56" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3566,13 +3643,13 @@
       <c r="N56" s="11"/>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
-      <c r="Q56" s="66"/>
-      <c r="R56" s="63"/>
+      <c r="Q56" s="59"/>
+      <c r="R56" s="56"/>
     </row>
     <row r="57" spans="1:18" ht="15.75">
-      <c r="A57" s="63"/>
-      <c r="B57" s="66"/>
-      <c r="C57" s="68"/>
+      <c r="A57" s="56"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="66"/>
       <c r="D57" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3601,13 +3678,13 @@
       <c r="N57" s="11"/>
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
-      <c r="Q57" s="66"/>
-      <c r="R57" s="63"/>
+      <c r="Q57" s="59"/>
+      <c r="R57" s="56"/>
     </row>
     <row r="58" spans="1:18" ht="15.75">
-      <c r="A58" s="63"/>
-      <c r="B58" s="66"/>
-      <c r="C58" s="68"/>
+      <c r="A58" s="56"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="66"/>
       <c r="D58" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3636,13 +3713,13 @@
       <c r="N58" s="11"/>
       <c r="O58" s="11"/>
       <c r="P58" s="11"/>
-      <c r="Q58" s="66"/>
-      <c r="R58" s="63"/>
+      <c r="Q58" s="59"/>
+      <c r="R58" s="56"/>
     </row>
     <row r="59" spans="1:18" ht="15.75">
-      <c r="A59" s="63"/>
-      <c r="B59" s="66"/>
-      <c r="C59" s="68"/>
+      <c r="A59" s="56"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="66"/>
       <c r="D59" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3671,13 +3748,13 @@
       <c r="N59" s="11"/>
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
-      <c r="Q59" s="66"/>
-      <c r="R59" s="63"/>
+      <c r="Q59" s="59"/>
+      <c r="R59" s="56"/>
     </row>
     <row r="60" spans="1:18" ht="15.75">
-      <c r="A60" s="63"/>
-      <c r="B60" s="66"/>
-      <c r="C60" s="68"/>
+      <c r="A60" s="56"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="66"/>
       <c r="D60" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3706,13 +3783,13 @@
       <c r="N60" s="11"/>
       <c r="O60" s="11"/>
       <c r="P60" s="11"/>
-      <c r="Q60" s="66"/>
-      <c r="R60" s="63"/>
+      <c r="Q60" s="59"/>
+      <c r="R60" s="56"/>
     </row>
     <row r="61" spans="1:18" ht="15.75">
-      <c r="A61" s="63"/>
-      <c r="B61" s="66"/>
-      <c r="C61" s="68"/>
+      <c r="A61" s="56"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="66"/>
       <c r="D61" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3741,13 +3818,13 @@
       <c r="N61" s="11"/>
       <c r="O61" s="11"/>
       <c r="P61" s="11"/>
-      <c r="Q61" s="66"/>
-      <c r="R61" s="63"/>
+      <c r="Q61" s="59"/>
+      <c r="R61" s="56"/>
     </row>
     <row r="62" spans="1:18" ht="15.75">
-      <c r="A62" s="63"/>
-      <c r="B62" s="66"/>
-      <c r="C62" s="68"/>
+      <c r="A62" s="56"/>
+      <c r="B62" s="59"/>
+      <c r="C62" s="66"/>
       <c r="D62" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3776,13 +3853,13 @@
       <c r="N62" s="11"/>
       <c r="O62" s="11"/>
       <c r="P62" s="11"/>
-      <c r="Q62" s="66"/>
-      <c r="R62" s="63"/>
+      <c r="Q62" s="59"/>
+      <c r="R62" s="56"/>
     </row>
     <row r="63" spans="1:18" ht="15.75">
-      <c r="A63" s="63"/>
-      <c r="B63" s="67"/>
-      <c r="C63" s="68"/>
+      <c r="A63" s="56"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="66"/>
       <c r="D63" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3811,24 +3888,30 @@
       <c r="N63" s="11"/>
       <c r="O63" s="11"/>
       <c r="P63" s="11"/>
-      <c r="Q63" s="67"/>
-      <c r="R63" s="63"/>
+      <c r="Q63" s="60"/>
+      <c r="R63" s="56"/>
     </row>
     <row r="64" spans="1:18" ht="66.75" customHeight="1">
-      <c r="A64" s="63"/>
-      <c r="B64" s="65">
+      <c r="A64" s="56"/>
+      <c r="B64" s="58">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C64" s="71" t="s">
-        <v>29</v>
+      <c r="C64" s="67" t="s">
+        <v>26</v>
       </c>
       <c r="D64" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="11"/>
+        <v>OK</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H64" s="5"/>
       <c r="I64" s="14" t="str">
         <f t="shared" si="4"/>
@@ -3837,35 +3920,35 @@
       <c r="J64" s="14"/>
       <c r="K64" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L64" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M64" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N64" s="11"/>
       <c r="O64" s="11"/>
       <c r="P64" s="11"/>
-      <c r="Q64" s="65"/>
-      <c r="R64" s="63"/>
+      <c r="Q64" s="58"/>
+      <c r="R64" s="56"/>
     </row>
     <row r="65" spans="1:18" ht="15.75">
-      <c r="A65" s="63"/>
-      <c r="B65" s="66"/>
-      <c r="C65" s="71"/>
+      <c r="A65" s="56"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="67"/>
       <c r="D65" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="E65" s="12" t="s">
-        <v>49</v>
+      <c r="E65" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G65" s="11" t="s">
         <v>15</v>
@@ -3891,26 +3974,20 @@
       <c r="N65" s="11"/>
       <c r="O65" s="11"/>
       <c r="P65" s="11"/>
-      <c r="Q65" s="66"/>
-      <c r="R65" s="63"/>
-    </row>
-    <row r="66" spans="1:18" ht="51">
-      <c r="A66" s="63"/>
-      <c r="B66" s="66"/>
-      <c r="C66" s="71"/>
+      <c r="Q65" s="59"/>
+      <c r="R65" s="56"/>
+    </row>
+    <row r="66" spans="1:18" ht="15.75">
+      <c r="A66" s="56"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="67"/>
       <c r="D66" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>15</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="11"/>
       <c r="H66" s="5"/>
       <c r="I66" s="14" t="str">
         <f t="shared" si="4"/>
@@ -3919,35 +3996,33 @@
       <c r="J66" s="14"/>
       <c r="K66" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="L66" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M66" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="N66" s="11"/>
       <c r="O66" s="11"/>
       <c r="P66" s="11"/>
-      <c r="Q66" s="66"/>
-      <c r="R66" s="63"/>
+      <c r="Q66" s="59"/>
+      <c r="R66" s="56"/>
     </row>
     <row r="67" spans="1:18" ht="15.75">
-      <c r="A67" s="63"/>
-      <c r="B67" s="66"/>
-      <c r="C67" s="71"/>
+      <c r="A67" s="56"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="67"/>
       <c r="D67" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="7"/>
-      <c r="G67" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="G67" s="11"/>
       <c r="H67" s="8"/>
       <c r="I67" s="14" t="str">
         <f t="shared" si="4"/>
@@ -3969,13 +4044,13 @@
       <c r="N67" s="11"/>
       <c r="O67" s="11"/>
       <c r="P67" s="11"/>
-      <c r="Q67" s="66"/>
-      <c r="R67" s="63"/>
+      <c r="Q67" s="59"/>
+      <c r="R67" s="56"/>
     </row>
     <row r="68" spans="1:18" ht="15.75">
-      <c r="A68" s="63"/>
-      <c r="B68" s="66"/>
-      <c r="C68" s="71"/>
+      <c r="A68" s="56"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="67"/>
       <c r="D68" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -4004,13 +4079,13 @@
       <c r="N68" s="11"/>
       <c r="O68" s="11"/>
       <c r="P68" s="11"/>
-      <c r="Q68" s="66"/>
-      <c r="R68" s="63"/>
+      <c r="Q68" s="59"/>
+      <c r="R68" s="56"/>
     </row>
     <row r="69" spans="1:18" ht="15.75">
-      <c r="A69" s="63"/>
-      <c r="B69" s="66"/>
-      <c r="C69" s="71"/>
+      <c r="A69" s="56"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="67"/>
       <c r="D69" s="5" t="str">
         <f t="shared" ref="D69:D132" si="5">IF(LEN(E69)&gt;5,IF(LEN(K69&amp;L69&amp;M69)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -4039,13 +4114,13 @@
       <c r="N69" s="11"/>
       <c r="O69" s="11"/>
       <c r="P69" s="11"/>
-      <c r="Q69" s="66"/>
-      <c r="R69" s="63"/>
+      <c r="Q69" s="59"/>
+      <c r="R69" s="56"/>
     </row>
     <row r="70" spans="1:18" ht="15.75">
-      <c r="A70" s="63"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="71"/>
+      <c r="A70" s="56"/>
+      <c r="B70" s="59"/>
+      <c r="C70" s="67"/>
       <c r="D70" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4074,13 +4149,13 @@
       <c r="N70" s="11"/>
       <c r="O70" s="11"/>
       <c r="P70" s="11"/>
-      <c r="Q70" s="66"/>
-      <c r="R70" s="63"/>
+      <c r="Q70" s="59"/>
+      <c r="R70" s="56"/>
     </row>
     <row r="71" spans="1:18" ht="15.75">
-      <c r="A71" s="63"/>
-      <c r="B71" s="66"/>
-      <c r="C71" s="71"/>
+      <c r="A71" s="56"/>
+      <c r="B71" s="59"/>
+      <c r="C71" s="67"/>
       <c r="D71" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4109,13 +4184,13 @@
       <c r="N71" s="11"/>
       <c r="O71" s="11"/>
       <c r="P71" s="11"/>
-      <c r="Q71" s="66"/>
-      <c r="R71" s="63"/>
+      <c r="Q71" s="59"/>
+      <c r="R71" s="56"/>
     </row>
     <row r="72" spans="1:18" ht="15.75">
-      <c r="A72" s="63"/>
-      <c r="B72" s="66"/>
-      <c r="C72" s="71"/>
+      <c r="A72" s="56"/>
+      <c r="B72" s="59"/>
+      <c r="C72" s="67"/>
       <c r="D72" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4144,13 +4219,13 @@
       <c r="N72" s="11"/>
       <c r="O72" s="11"/>
       <c r="P72" s="11"/>
-      <c r="Q72" s="66"/>
-      <c r="R72" s="63"/>
+      <c r="Q72" s="59"/>
+      <c r="R72" s="56"/>
     </row>
     <row r="73" spans="1:18" ht="15.75">
-      <c r="A73" s="63"/>
-      <c r="B73" s="66"/>
-      <c r="C73" s="71"/>
+      <c r="A73" s="56"/>
+      <c r="B73" s="59"/>
+      <c r="C73" s="67"/>
       <c r="D73" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4179,13 +4254,13 @@
       <c r="N73" s="11"/>
       <c r="O73" s="11"/>
       <c r="P73" s="11"/>
-      <c r="Q73" s="66"/>
-      <c r="R73" s="63"/>
+      <c r="Q73" s="59"/>
+      <c r="R73" s="56"/>
     </row>
     <row r="74" spans="1:18" ht="15.75">
-      <c r="A74" s="63"/>
-      <c r="B74" s="66"/>
-      <c r="C74" s="71"/>
+      <c r="A74" s="56"/>
+      <c r="B74" s="59"/>
+      <c r="C74" s="67"/>
       <c r="D74" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4214,13 +4289,13 @@
       <c r="N74" s="11"/>
       <c r="O74" s="11"/>
       <c r="P74" s="11"/>
-      <c r="Q74" s="66"/>
-      <c r="R74" s="63"/>
+      <c r="Q74" s="59"/>
+      <c r="R74" s="56"/>
     </row>
     <row r="75" spans="1:18" ht="15.75">
-      <c r="A75" s="63"/>
-      <c r="B75" s="66"/>
-      <c r="C75" s="71"/>
+      <c r="A75" s="56"/>
+      <c r="B75" s="59"/>
+      <c r="C75" s="67"/>
       <c r="D75" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4249,13 +4324,13 @@
       <c r="N75" s="11"/>
       <c r="O75" s="11"/>
       <c r="P75" s="11"/>
-      <c r="Q75" s="66"/>
-      <c r="R75" s="63"/>
+      <c r="Q75" s="59"/>
+      <c r="R75" s="56"/>
     </row>
     <row r="76" spans="1:18" ht="15.75">
-      <c r="A76" s="63"/>
-      <c r="B76" s="66"/>
-      <c r="C76" s="71"/>
+      <c r="A76" s="56"/>
+      <c r="B76" s="59"/>
+      <c r="C76" s="67"/>
       <c r="D76" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4284,13 +4359,13 @@
       <c r="N76" s="11"/>
       <c r="O76" s="11"/>
       <c r="P76" s="11"/>
-      <c r="Q76" s="66"/>
-      <c r="R76" s="63"/>
+      <c r="Q76" s="59"/>
+      <c r="R76" s="56"/>
     </row>
     <row r="77" spans="1:18" ht="15.75">
-      <c r="A77" s="63"/>
-      <c r="B77" s="66"/>
-      <c r="C77" s="71"/>
+      <c r="A77" s="56"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="67"/>
       <c r="D77" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4319,13 +4394,13 @@
       <c r="N77" s="11"/>
       <c r="O77" s="11"/>
       <c r="P77" s="11"/>
-      <c r="Q77" s="66"/>
-      <c r="R77" s="63"/>
+      <c r="Q77" s="59"/>
+      <c r="R77" s="56"/>
     </row>
     <row r="78" spans="1:18" ht="15.75">
-      <c r="A78" s="63"/>
-      <c r="B78" s="67"/>
-      <c r="C78" s="71"/>
+      <c r="A78" s="56"/>
+      <c r="B78" s="60"/>
+      <c r="C78" s="67"/>
       <c r="D78" s="15" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4354,16 +4429,16 @@
       <c r="N78" s="11"/>
       <c r="O78" s="11"/>
       <c r="P78" s="11"/>
-      <c r="Q78" s="67"/>
-      <c r="R78" s="63"/>
+      <c r="Q78" s="60"/>
+      <c r="R78" s="56"/>
     </row>
     <row r="79" spans="1:18" ht="38.25">
-      <c r="A79" s="63"/>
-      <c r="B79" s="65">
+      <c r="A79" s="56"/>
+      <c r="B79" s="58">
         <v>2.4</v>
       </c>
-      <c r="C79" s="70" t="s">
-        <v>31</v>
+      <c r="C79" s="66" t="s">
+        <v>27</v>
       </c>
       <c r="D79" s="5" t="str">
         <f t="shared" si="5"/>
@@ -4373,7 +4448,7 @@
         <v>18</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G79" s="11" t="s">
         <v>15</v>
@@ -4399,22 +4474,22 @@
       <c r="N79" s="11"/>
       <c r="O79" s="11"/>
       <c r="P79" s="11"/>
-      <c r="Q79" s="65"/>
-      <c r="R79" s="63"/>
+      <c r="Q79" s="58"/>
+      <c r="R79" s="56"/>
     </row>
     <row r="80" spans="1:18" ht="63.75">
-      <c r="A80" s="63"/>
-      <c r="B80" s="66"/>
-      <c r="C80" s="70"/>
+      <c r="A80" s="56"/>
+      <c r="B80" s="59"/>
+      <c r="C80" s="66"/>
       <c r="D80" s="5" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G80" s="11" t="s">
         <v>15</v>
@@ -4440,22 +4515,22 @@
       <c r="N80" s="11"/>
       <c r="O80" s="11"/>
       <c r="P80" s="11"/>
-      <c r="Q80" s="66"/>
-      <c r="R80" s="63"/>
+      <c r="Q80" s="59"/>
+      <c r="R80" s="56"/>
     </row>
     <row r="81" spans="1:18" ht="25.5">
-      <c r="A81" s="63"/>
-      <c r="B81" s="66"/>
-      <c r="C81" s="70"/>
+      <c r="A81" s="56"/>
+      <c r="B81" s="59"/>
+      <c r="C81" s="66"/>
       <c r="D81" s="5" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E81" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G81" s="11" t="s">
         <v>15</v>
@@ -4481,13 +4556,13 @@
       <c r="N81" s="11"/>
       <c r="O81" s="11"/>
       <c r="P81" s="11"/>
-      <c r="Q81" s="66"/>
-      <c r="R81" s="63"/>
+      <c r="Q81" s="59"/>
+      <c r="R81" s="56"/>
     </row>
     <row r="82" spans="1:18" ht="15.75">
-      <c r="A82" s="63"/>
-      <c r="B82" s="66"/>
-      <c r="C82" s="70"/>
+      <c r="A82" s="56"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="66"/>
       <c r="D82" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4516,13 +4591,13 @@
       <c r="N82" s="11"/>
       <c r="O82" s="11"/>
       <c r="P82" s="11"/>
-      <c r="Q82" s="66"/>
-      <c r="R82" s="63"/>
+      <c r="Q82" s="59"/>
+      <c r="R82" s="56"/>
     </row>
     <row r="83" spans="1:18" ht="15.75">
-      <c r="A83" s="63"/>
-      <c r="B83" s="66"/>
-      <c r="C83" s="70"/>
+      <c r="A83" s="56"/>
+      <c r="B83" s="59"/>
+      <c r="C83" s="66"/>
       <c r="D83" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4551,13 +4626,13 @@
       <c r="N83" s="11"/>
       <c r="O83" s="11"/>
       <c r="P83" s="11"/>
-      <c r="Q83" s="66"/>
-      <c r="R83" s="63"/>
+      <c r="Q83" s="59"/>
+      <c r="R83" s="56"/>
     </row>
     <row r="84" spans="1:18" ht="15.75">
-      <c r="A84" s="63"/>
-      <c r="B84" s="66"/>
-      <c r="C84" s="70"/>
+      <c r="A84" s="56"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="66"/>
       <c r="D84" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4586,13 +4661,13 @@
       <c r="N84" s="11"/>
       <c r="O84" s="11"/>
       <c r="P84" s="11"/>
-      <c r="Q84" s="66"/>
-      <c r="R84" s="63"/>
+      <c r="Q84" s="59"/>
+      <c r="R84" s="56"/>
     </row>
     <row r="85" spans="1:18" ht="15.75">
-      <c r="A85" s="63"/>
-      <c r="B85" s="66"/>
-      <c r="C85" s="70"/>
+      <c r="A85" s="56"/>
+      <c r="B85" s="59"/>
+      <c r="C85" s="66"/>
       <c r="D85" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4621,13 +4696,13 @@
       <c r="N85" s="11"/>
       <c r="O85" s="11"/>
       <c r="P85" s="11"/>
-      <c r="Q85" s="66"/>
-      <c r="R85" s="63"/>
+      <c r="Q85" s="59"/>
+      <c r="R85" s="56"/>
     </row>
     <row r="86" spans="1:18" ht="15.75">
-      <c r="A86" s="63"/>
-      <c r="B86" s="66"/>
-      <c r="C86" s="70"/>
+      <c r="A86" s="56"/>
+      <c r="B86" s="59"/>
+      <c r="C86" s="66"/>
       <c r="D86" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4656,13 +4731,13 @@
       <c r="N86" s="11"/>
       <c r="O86" s="11"/>
       <c r="P86" s="11"/>
-      <c r="Q86" s="66"/>
-      <c r="R86" s="63"/>
+      <c r="Q86" s="59"/>
+      <c r="R86" s="56"/>
     </row>
     <row r="87" spans="1:18" ht="15.75">
-      <c r="A87" s="63"/>
-      <c r="B87" s="66"/>
-      <c r="C87" s="70"/>
+      <c r="A87" s="56"/>
+      <c r="B87" s="59"/>
+      <c r="C87" s="66"/>
       <c r="D87" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4691,13 +4766,13 @@
       <c r="N87" s="11"/>
       <c r="O87" s="11"/>
       <c r="P87" s="11"/>
-      <c r="Q87" s="66"/>
-      <c r="R87" s="63"/>
+      <c r="Q87" s="59"/>
+      <c r="R87" s="56"/>
     </row>
     <row r="88" spans="1:18" ht="15.75">
-      <c r="A88" s="63"/>
-      <c r="B88" s="66"/>
-      <c r="C88" s="70"/>
+      <c r="A88" s="56"/>
+      <c r="B88" s="59"/>
+      <c r="C88" s="66"/>
       <c r="D88" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4726,13 +4801,13 @@
       <c r="N88" s="11"/>
       <c r="O88" s="11"/>
       <c r="P88" s="11"/>
-      <c r="Q88" s="66"/>
-      <c r="R88" s="63"/>
+      <c r="Q88" s="59"/>
+      <c r="R88" s="56"/>
     </row>
     <row r="89" spans="1:18" ht="15.75">
-      <c r="A89" s="63"/>
-      <c r="B89" s="66"/>
-      <c r="C89" s="70"/>
+      <c r="A89" s="56"/>
+      <c r="B89" s="59"/>
+      <c r="C89" s="66"/>
       <c r="D89" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4761,13 +4836,13 @@
       <c r="N89" s="11"/>
       <c r="O89" s="11"/>
       <c r="P89" s="11"/>
-      <c r="Q89" s="66"/>
-      <c r="R89" s="63"/>
+      <c r="Q89" s="59"/>
+      <c r="R89" s="56"/>
     </row>
     <row r="90" spans="1:18" ht="15.75">
-      <c r="A90" s="63"/>
-      <c r="B90" s="66"/>
-      <c r="C90" s="70"/>
+      <c r="A90" s="56"/>
+      <c r="B90" s="59"/>
+      <c r="C90" s="66"/>
       <c r="D90" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4796,13 +4871,13 @@
       <c r="N90" s="11"/>
       <c r="O90" s="11"/>
       <c r="P90" s="11"/>
-      <c r="Q90" s="66"/>
-      <c r="R90" s="63"/>
+      <c r="Q90" s="59"/>
+      <c r="R90" s="56"/>
     </row>
     <row r="91" spans="1:18" ht="15.75">
-      <c r="A91" s="63"/>
-      <c r="B91" s="66"/>
-      <c r="C91" s="70"/>
+      <c r="A91" s="56"/>
+      <c r="B91" s="59"/>
+      <c r="C91" s="66"/>
       <c r="D91" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4831,13 +4906,13 @@
       <c r="N91" s="11"/>
       <c r="O91" s="11"/>
       <c r="P91" s="11"/>
-      <c r="Q91" s="66"/>
-      <c r="R91" s="63"/>
+      <c r="Q91" s="59"/>
+      <c r="R91" s="56"/>
     </row>
     <row r="92" spans="1:18" ht="15.75">
-      <c r="A92" s="63"/>
-      <c r="B92" s="66"/>
-      <c r="C92" s="70"/>
+      <c r="A92" s="56"/>
+      <c r="B92" s="59"/>
+      <c r="C92" s="66"/>
       <c r="D92" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4866,13 +4941,13 @@
       <c r="N92" s="11"/>
       <c r="O92" s="11"/>
       <c r="P92" s="11"/>
-      <c r="Q92" s="66"/>
-      <c r="R92" s="63"/>
+      <c r="Q92" s="59"/>
+      <c r="R92" s="56"/>
     </row>
     <row r="93" spans="1:18" ht="15.75">
-      <c r="A93" s="63"/>
-      <c r="B93" s="67"/>
-      <c r="C93" s="70"/>
+      <c r="A93" s="56"/>
+      <c r="B93" s="60"/>
+      <c r="C93" s="66"/>
       <c r="D93" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4901,28 +4976,28 @@
       <c r="N93" s="11"/>
       <c r="O93" s="11"/>
       <c r="P93" s="11"/>
-      <c r="Q93" s="67"/>
-      <c r="R93" s="63"/>
-    </row>
-    <row r="94" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A94" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="B94" s="60">
+      <c r="Q93" s="60"/>
+      <c r="R93" s="56"/>
+    </row>
+    <row r="94" spans="1:18" ht="38.25">
+      <c r="A94" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94" s="61">
         <v>3.1</v>
       </c>
-      <c r="C94" s="70" t="s">
-        <v>35</v>
+      <c r="C94" s="66" t="s">
+        <v>31</v>
       </c>
       <c r="D94" s="5" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>15</v>
@@ -4948,22 +5023,22 @@
       <c r="N94" s="11"/>
       <c r="O94" s="11"/>
       <c r="P94" s="11"/>
-      <c r="Q94" s="60"/>
-      <c r="R94" s="64"/>
+      <c r="Q94" s="61"/>
+      <c r="R94" s="57"/>
     </row>
     <row r="95" spans="1:18" ht="25.5">
-      <c r="A95" s="64"/>
-      <c r="B95" s="61"/>
-      <c r="C95" s="70"/>
+      <c r="A95" s="57"/>
+      <c r="B95" s="62"/>
+      <c r="C95" s="66"/>
       <c r="D95" s="5" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>15</v>
@@ -4989,13 +5064,13 @@
       <c r="N95" s="11"/>
       <c r="O95" s="11"/>
       <c r="P95" s="11"/>
-      <c r="Q95" s="61"/>
-      <c r="R95" s="64"/>
+      <c r="Q95" s="62"/>
+      <c r="R95" s="57"/>
     </row>
     <row r="96" spans="1:18" ht="28.5" customHeight="1">
-      <c r="A96" s="64"/>
-      <c r="B96" s="61"/>
-      <c r="C96" s="70"/>
+      <c r="A96" s="57"/>
+      <c r="B96" s="62"/>
+      <c r="C96" s="66"/>
       <c r="D96" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5024,13 +5099,13 @@
       <c r="N96" s="11"/>
       <c r="O96" s="11"/>
       <c r="P96" s="11"/>
-      <c r="Q96" s="61"/>
-      <c r="R96" s="64"/>
+      <c r="Q96" s="62"/>
+      <c r="R96" s="57"/>
     </row>
     <row r="97" spans="1:18" ht="15.75">
-      <c r="A97" s="64"/>
-      <c r="B97" s="61"/>
-      <c r="C97" s="70"/>
+      <c r="A97" s="57"/>
+      <c r="B97" s="62"/>
+      <c r="C97" s="66"/>
       <c r="D97" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5059,13 +5134,13 @@
       <c r="N97" s="11"/>
       <c r="O97" s="11"/>
       <c r="P97" s="11"/>
-      <c r="Q97" s="61"/>
-      <c r="R97" s="64"/>
+      <c r="Q97" s="62"/>
+      <c r="R97" s="57"/>
     </row>
     <row r="98" spans="1:18" ht="15.75">
-      <c r="A98" s="64"/>
-      <c r="B98" s="61"/>
-      <c r="C98" s="70"/>
+      <c r="A98" s="57"/>
+      <c r="B98" s="62"/>
+      <c r="C98" s="66"/>
       <c r="D98" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5094,13 +5169,13 @@
       <c r="N98" s="11"/>
       <c r="O98" s="11"/>
       <c r="P98" s="11"/>
-      <c r="Q98" s="61"/>
-      <c r="R98" s="64"/>
+      <c r="Q98" s="62"/>
+      <c r="R98" s="57"/>
     </row>
     <row r="99" spans="1:18" ht="15.75">
-      <c r="A99" s="64"/>
-      <c r="B99" s="61"/>
-      <c r="C99" s="70"/>
+      <c r="A99" s="57"/>
+      <c r="B99" s="62"/>
+      <c r="C99" s="66"/>
       <c r="D99" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5129,13 +5204,13 @@
       <c r="N99" s="11"/>
       <c r="O99" s="11"/>
       <c r="P99" s="11"/>
-      <c r="Q99" s="61"/>
-      <c r="R99" s="64"/>
+      <c r="Q99" s="62"/>
+      <c r="R99" s="57"/>
     </row>
     <row r="100" spans="1:18" ht="15.75">
-      <c r="A100" s="64"/>
-      <c r="B100" s="61"/>
-      <c r="C100" s="70"/>
+      <c r="A100" s="57"/>
+      <c r="B100" s="62"/>
+      <c r="C100" s="66"/>
       <c r="D100" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5164,13 +5239,13 @@
       <c r="N100" s="11"/>
       <c r="O100" s="11"/>
       <c r="P100" s="11"/>
-      <c r="Q100" s="61"/>
-      <c r="R100" s="64"/>
+      <c r="Q100" s="62"/>
+      <c r="R100" s="57"/>
     </row>
     <row r="101" spans="1:18" ht="15.75">
-      <c r="A101" s="64"/>
-      <c r="B101" s="61"/>
-      <c r="C101" s="70"/>
+      <c r="A101" s="57"/>
+      <c r="B101" s="62"/>
+      <c r="C101" s="66"/>
       <c r="D101" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5199,13 +5274,13 @@
       <c r="N101" s="11"/>
       <c r="O101" s="11"/>
       <c r="P101" s="11"/>
-      <c r="Q101" s="61"/>
-      <c r="R101" s="64"/>
+      <c r="Q101" s="62"/>
+      <c r="R101" s="57"/>
     </row>
     <row r="102" spans="1:18" ht="15.75">
-      <c r="A102" s="64"/>
-      <c r="B102" s="61"/>
-      <c r="C102" s="70"/>
+      <c r="A102" s="57"/>
+      <c r="B102" s="62"/>
+      <c r="C102" s="66"/>
       <c r="D102" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5234,13 +5309,13 @@
       <c r="N102" s="11"/>
       <c r="O102" s="11"/>
       <c r="P102" s="11"/>
-      <c r="Q102" s="61"/>
-      <c r="R102" s="64"/>
+      <c r="Q102" s="62"/>
+      <c r="R102" s="57"/>
     </row>
     <row r="103" spans="1:18" ht="15.75">
-      <c r="A103" s="64"/>
-      <c r="B103" s="61"/>
-      <c r="C103" s="70"/>
+      <c r="A103" s="57"/>
+      <c r="B103" s="62"/>
+      <c r="C103" s="66"/>
       <c r="D103" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5269,13 +5344,13 @@
       <c r="N103" s="11"/>
       <c r="O103" s="11"/>
       <c r="P103" s="11"/>
-      <c r="Q103" s="61"/>
-      <c r="R103" s="64"/>
+      <c r="Q103" s="62"/>
+      <c r="R103" s="57"/>
     </row>
     <row r="104" spans="1:18" ht="15.75">
-      <c r="A104" s="64"/>
-      <c r="B104" s="61"/>
-      <c r="C104" s="70"/>
+      <c r="A104" s="57"/>
+      <c r="B104" s="62"/>
+      <c r="C104" s="66"/>
       <c r="D104" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5304,13 +5379,13 @@
       <c r="N104" s="11"/>
       <c r="O104" s="11"/>
       <c r="P104" s="11"/>
-      <c r="Q104" s="61"/>
-      <c r="R104" s="64"/>
+      <c r="Q104" s="62"/>
+      <c r="R104" s="57"/>
     </row>
     <row r="105" spans="1:18" ht="15.75">
-      <c r="A105" s="64"/>
-      <c r="B105" s="61"/>
-      <c r="C105" s="70"/>
+      <c r="A105" s="57"/>
+      <c r="B105" s="62"/>
+      <c r="C105" s="66"/>
       <c r="D105" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5339,13 +5414,13 @@
       <c r="N105" s="11"/>
       <c r="O105" s="11"/>
       <c r="P105" s="11"/>
-      <c r="Q105" s="61"/>
-      <c r="R105" s="64"/>
+      <c r="Q105" s="62"/>
+      <c r="R105" s="57"/>
     </row>
     <row r="106" spans="1:18" ht="15.75">
-      <c r="A106" s="64"/>
-      <c r="B106" s="61"/>
-      <c r="C106" s="70"/>
+      <c r="A106" s="57"/>
+      <c r="B106" s="62"/>
+      <c r="C106" s="66"/>
       <c r="D106" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5374,13 +5449,13 @@
       <c r="N106" s="11"/>
       <c r="O106" s="11"/>
       <c r="P106" s="11"/>
-      <c r="Q106" s="61"/>
-      <c r="R106" s="64"/>
+      <c r="Q106" s="62"/>
+      <c r="R106" s="57"/>
     </row>
     <row r="107" spans="1:18" ht="15.75">
-      <c r="A107" s="64"/>
-      <c r="B107" s="61"/>
-      <c r="C107" s="70"/>
+      <c r="A107" s="57"/>
+      <c r="B107" s="62"/>
+      <c r="C107" s="66"/>
       <c r="D107" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5409,13 +5484,13 @@
       <c r="N107" s="11"/>
       <c r="O107" s="11"/>
       <c r="P107" s="11"/>
-      <c r="Q107" s="61"/>
-      <c r="R107" s="64"/>
+      <c r="Q107" s="62"/>
+      <c r="R107" s="57"/>
     </row>
     <row r="108" spans="1:18" ht="15.75">
-      <c r="A108" s="64"/>
-      <c r="B108" s="62"/>
-      <c r="C108" s="70"/>
+      <c r="A108" s="57"/>
+      <c r="B108" s="63"/>
+      <c r="C108" s="66"/>
       <c r="D108" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5444,26 +5519,26 @@
       <c r="N108" s="11"/>
       <c r="O108" s="11"/>
       <c r="P108" s="11"/>
-      <c r="Q108" s="62"/>
-      <c r="R108" s="64"/>
+      <c r="Q108" s="63"/>
+      <c r="R108" s="57"/>
     </row>
     <row r="109" spans="1:18" ht="38.25">
-      <c r="A109" s="64"/>
-      <c r="B109" s="60">
+      <c r="A109" s="57"/>
+      <c r="B109" s="61">
         <v>3.2</v>
       </c>
-      <c r="C109" s="70" t="s">
-        <v>38</v>
+      <c r="C109" s="66" t="s">
+        <v>33</v>
       </c>
       <c r="D109" s="5" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>15</v>
@@ -5489,22 +5564,22 @@
       <c r="N109" s="11"/>
       <c r="O109" s="11"/>
       <c r="P109" s="11"/>
-      <c r="Q109" s="60"/>
-      <c r="R109" s="64"/>
+      <c r="Q109" s="61"/>
+      <c r="R109" s="57"/>
     </row>
     <row r="110" spans="1:18" ht="15.75">
-      <c r="A110" s="64"/>
-      <c r="B110" s="61"/>
-      <c r="C110" s="70"/>
+      <c r="A110" s="57"/>
+      <c r="B110" s="62"/>
+      <c r="C110" s="66"/>
       <c r="D110" s="5" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>15</v>
@@ -5530,13 +5605,13 @@
       <c r="N110" s="11"/>
       <c r="O110" s="11"/>
       <c r="P110" s="11"/>
-      <c r="Q110" s="61"/>
-      <c r="R110" s="64"/>
+      <c r="Q110" s="62"/>
+      <c r="R110" s="57"/>
     </row>
     <row r="111" spans="1:18" ht="15.75">
-      <c r="A111" s="64"/>
-      <c r="B111" s="61"/>
-      <c r="C111" s="70"/>
+      <c r="A111" s="57"/>
+      <c r="B111" s="62"/>
+      <c r="C111" s="66"/>
       <c r="D111" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5565,13 +5640,13 @@
       <c r="N111" s="11"/>
       <c r="O111" s="11"/>
       <c r="P111" s="11"/>
-      <c r="Q111" s="61"/>
-      <c r="R111" s="64"/>
+      <c r="Q111" s="62"/>
+      <c r="R111" s="57"/>
     </row>
     <row r="112" spans="1:18" ht="15.75">
-      <c r="A112" s="64"/>
-      <c r="B112" s="61"/>
-      <c r="C112" s="70"/>
+      <c r="A112" s="57"/>
+      <c r="B112" s="62"/>
+      <c r="C112" s="66"/>
       <c r="D112" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5600,13 +5675,13 @@
       <c r="N112" s="11"/>
       <c r="O112" s="11"/>
       <c r="P112" s="11"/>
-      <c r="Q112" s="61"/>
-      <c r="R112" s="64"/>
+      <c r="Q112" s="62"/>
+      <c r="R112" s="57"/>
     </row>
     <row r="113" spans="1:18" ht="15.75">
-      <c r="A113" s="64"/>
-      <c r="B113" s="61"/>
-      <c r="C113" s="70"/>
+      <c r="A113" s="57"/>
+      <c r="B113" s="62"/>
+      <c r="C113" s="66"/>
       <c r="D113" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5635,13 +5710,13 @@
       <c r="N113" s="11"/>
       <c r="O113" s="11"/>
       <c r="P113" s="11"/>
-      <c r="Q113" s="61"/>
-      <c r="R113" s="64"/>
+      <c r="Q113" s="62"/>
+      <c r="R113" s="57"/>
     </row>
     <row r="114" spans="1:18" ht="15.75">
-      <c r="A114" s="64"/>
-      <c r="B114" s="61"/>
-      <c r="C114" s="70"/>
+      <c r="A114" s="57"/>
+      <c r="B114" s="62"/>
+      <c r="C114" s="66"/>
       <c r="D114" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5670,13 +5745,13 @@
       <c r="N114" s="11"/>
       <c r="O114" s="11"/>
       <c r="P114" s="11"/>
-      <c r="Q114" s="61"/>
-      <c r="R114" s="64"/>
+      <c r="Q114" s="62"/>
+      <c r="R114" s="57"/>
     </row>
     <row r="115" spans="1:18" ht="15.75">
-      <c r="A115" s="64"/>
-      <c r="B115" s="61"/>
-      <c r="C115" s="70"/>
+      <c r="A115" s="57"/>
+      <c r="B115" s="62"/>
+      <c r="C115" s="66"/>
       <c r="D115" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5705,13 +5780,13 @@
       <c r="N115" s="11"/>
       <c r="O115" s="11"/>
       <c r="P115" s="11"/>
-      <c r="Q115" s="61"/>
-      <c r="R115" s="64"/>
+      <c r="Q115" s="62"/>
+      <c r="R115" s="57"/>
     </row>
     <row r="116" spans="1:18" ht="15.75">
-      <c r="A116" s="64"/>
-      <c r="B116" s="61"/>
-      <c r="C116" s="70"/>
+      <c r="A116" s="57"/>
+      <c r="B116" s="62"/>
+      <c r="C116" s="66"/>
       <c r="D116" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5740,13 +5815,13 @@
       <c r="N116" s="11"/>
       <c r="O116" s="11"/>
       <c r="P116" s="11"/>
-      <c r="Q116" s="61"/>
-      <c r="R116" s="64"/>
+      <c r="Q116" s="62"/>
+      <c r="R116" s="57"/>
     </row>
     <row r="117" spans="1:18" ht="15.75">
-      <c r="A117" s="64"/>
-      <c r="B117" s="61"/>
-      <c r="C117" s="70"/>
+      <c r="A117" s="57"/>
+      <c r="B117" s="62"/>
+      <c r="C117" s="66"/>
       <c r="D117" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5775,13 +5850,13 @@
       <c r="N117" s="11"/>
       <c r="O117" s="11"/>
       <c r="P117" s="11"/>
-      <c r="Q117" s="61"/>
-      <c r="R117" s="64"/>
+      <c r="Q117" s="62"/>
+      <c r="R117" s="57"/>
     </row>
     <row r="118" spans="1:18" ht="15.75">
-      <c r="A118" s="64"/>
-      <c r="B118" s="61"/>
-      <c r="C118" s="70"/>
+      <c r="A118" s="57"/>
+      <c r="B118" s="62"/>
+      <c r="C118" s="66"/>
       <c r="D118" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5810,13 +5885,13 @@
       <c r="N118" s="11"/>
       <c r="O118" s="11"/>
       <c r="P118" s="11"/>
-      <c r="Q118" s="61"/>
-      <c r="R118" s="64"/>
+      <c r="Q118" s="62"/>
+      <c r="R118" s="57"/>
     </row>
     <row r="119" spans="1:18" ht="15.75">
-      <c r="A119" s="64"/>
-      <c r="B119" s="61"/>
-      <c r="C119" s="70"/>
+      <c r="A119" s="57"/>
+      <c r="B119" s="62"/>
+      <c r="C119" s="66"/>
       <c r="D119" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5845,13 +5920,13 @@
       <c r="N119" s="11"/>
       <c r="O119" s="11"/>
       <c r="P119" s="11"/>
-      <c r="Q119" s="61"/>
-      <c r="R119" s="64"/>
+      <c r="Q119" s="62"/>
+      <c r="R119" s="57"/>
     </row>
     <row r="120" spans="1:18" ht="15.75">
-      <c r="A120" s="64"/>
-      <c r="B120" s="61"/>
-      <c r="C120" s="70"/>
+      <c r="A120" s="57"/>
+      <c r="B120" s="62"/>
+      <c r="C120" s="66"/>
       <c r="D120" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5880,13 +5955,13 @@
       <c r="N120" s="11"/>
       <c r="O120" s="11"/>
       <c r="P120" s="11"/>
-      <c r="Q120" s="61"/>
-      <c r="R120" s="64"/>
+      <c r="Q120" s="62"/>
+      <c r="R120" s="57"/>
     </row>
     <row r="121" spans="1:18" ht="15.75">
-      <c r="A121" s="64"/>
-      <c r="B121" s="61"/>
-      <c r="C121" s="70"/>
+      <c r="A121" s="57"/>
+      <c r="B121" s="62"/>
+      <c r="C121" s="66"/>
       <c r="D121" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5915,13 +5990,13 @@
       <c r="N121" s="11"/>
       <c r="O121" s="11"/>
       <c r="P121" s="11"/>
-      <c r="Q121" s="61"/>
-      <c r="R121" s="64"/>
+      <c r="Q121" s="62"/>
+      <c r="R121" s="57"/>
     </row>
     <row r="122" spans="1:18" ht="15.75">
-      <c r="A122" s="64"/>
-      <c r="B122" s="61"/>
-      <c r="C122" s="70"/>
+      <c r="A122" s="57"/>
+      <c r="B122" s="62"/>
+      <c r="C122" s="66"/>
       <c r="D122" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5950,13 +6025,13 @@
       <c r="N122" s="11"/>
       <c r="O122" s="11"/>
       <c r="P122" s="11"/>
-      <c r="Q122" s="61"/>
-      <c r="R122" s="64"/>
+      <c r="Q122" s="62"/>
+      <c r="R122" s="57"/>
     </row>
     <row r="123" spans="1:18" ht="15.75">
-      <c r="A123" s="64"/>
-      <c r="B123" s="62"/>
-      <c r="C123" s="70"/>
+      <c r="A123" s="57"/>
+      <c r="B123" s="63"/>
+      <c r="C123" s="66"/>
       <c r="D123" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5985,26 +6060,26 @@
       <c r="N123" s="11"/>
       <c r="O123" s="11"/>
       <c r="P123" s="11"/>
-      <c r="Q123" s="62"/>
-      <c r="R123" s="64"/>
+      <c r="Q123" s="63"/>
+      <c r="R123" s="57"/>
     </row>
     <row r="124" spans="1:18" ht="63.75">
-      <c r="A124" s="64"/>
-      <c r="B124" s="60">
+      <c r="A124" s="57"/>
+      <c r="B124" s="61">
         <v>3.3</v>
       </c>
-      <c r="C124" s="70" t="s">
-        <v>42</v>
+      <c r="C124" s="66" t="s">
+        <v>36</v>
       </c>
       <c r="D124" s="5" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G124" s="11" t="s">
         <v>15</v>
@@ -6030,20 +6105,26 @@
       <c r="N124" s="11"/>
       <c r="O124" s="11"/>
       <c r="P124" s="11"/>
-      <c r="Q124" s="60"/>
-      <c r="R124" s="64"/>
-    </row>
-    <row r="125" spans="1:18" ht="15.75">
-      <c r="A125" s="64"/>
-      <c r="B125" s="61"/>
-      <c r="C125" s="70"/>
+      <c r="Q124" s="61"/>
+      <c r="R124" s="57"/>
+    </row>
+    <row r="125" spans="1:18" ht="38.25">
+      <c r="A125" s="57"/>
+      <c r="B125" s="62"/>
+      <c r="C125" s="66"/>
       <c r="D125" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="E125" s="9"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="11"/>
+        <v>OK</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G125" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H125" s="8"/>
       <c r="I125" s="14" t="str">
         <f t="shared" si="6"/>
@@ -6056,22 +6137,22 @@
       </c>
       <c r="L125" s="8" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M125" s="8" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N125" s="11"/>
       <c r="O125" s="11"/>
       <c r="P125" s="11"/>
-      <c r="Q125" s="61"/>
-      <c r="R125" s="64"/>
+      <c r="Q125" s="62"/>
+      <c r="R125" s="57"/>
     </row>
     <row r="126" spans="1:18" ht="15.75">
-      <c r="A126" s="64"/>
-      <c r="B126" s="61"/>
-      <c r="C126" s="70"/>
+      <c r="A126" s="57"/>
+      <c r="B126" s="62"/>
+      <c r="C126" s="66"/>
       <c r="D126" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6100,13 +6181,13 @@
       <c r="N126" s="11"/>
       <c r="O126" s="11"/>
       <c r="P126" s="11"/>
-      <c r="Q126" s="61"/>
-      <c r="R126" s="64"/>
+      <c r="Q126" s="62"/>
+      <c r="R126" s="57"/>
     </row>
     <row r="127" spans="1:18" ht="15.75">
-      <c r="A127" s="64"/>
-      <c r="B127" s="61"/>
-      <c r="C127" s="70"/>
+      <c r="A127" s="57"/>
+      <c r="B127" s="62"/>
+      <c r="C127" s="66"/>
       <c r="D127" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6135,13 +6216,13 @@
       <c r="N127" s="11"/>
       <c r="O127" s="11"/>
       <c r="P127" s="11"/>
-      <c r="Q127" s="61"/>
-      <c r="R127" s="64"/>
+      <c r="Q127" s="62"/>
+      <c r="R127" s="57"/>
     </row>
     <row r="128" spans="1:18" ht="15.75">
-      <c r="A128" s="64"/>
-      <c r="B128" s="61"/>
-      <c r="C128" s="70"/>
+      <c r="A128" s="57"/>
+      <c r="B128" s="62"/>
+      <c r="C128" s="66"/>
       <c r="D128" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6170,13 +6251,13 @@
       <c r="N128" s="11"/>
       <c r="O128" s="11"/>
       <c r="P128" s="11"/>
-      <c r="Q128" s="61"/>
-      <c r="R128" s="64"/>
+      <c r="Q128" s="62"/>
+      <c r="R128" s="57"/>
     </row>
     <row r="129" spans="1:18" ht="15.75">
-      <c r="A129" s="64"/>
-      <c r="B129" s="61"/>
-      <c r="C129" s="70"/>
+      <c r="A129" s="57"/>
+      <c r="B129" s="62"/>
+      <c r="C129" s="66"/>
       <c r="D129" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6205,13 +6286,13 @@
       <c r="N129" s="11"/>
       <c r="O129" s="11"/>
       <c r="P129" s="11"/>
-      <c r="Q129" s="61"/>
-      <c r="R129" s="64"/>
+      <c r="Q129" s="62"/>
+      <c r="R129" s="57"/>
     </row>
     <row r="130" spans="1:18" ht="15.75">
-      <c r="A130" s="64"/>
-      <c r="B130" s="61"/>
-      <c r="C130" s="70"/>
+      <c r="A130" s="57"/>
+      <c r="B130" s="62"/>
+      <c r="C130" s="66"/>
       <c r="D130" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6240,13 +6321,13 @@
       <c r="N130" s="11"/>
       <c r="O130" s="11"/>
       <c r="P130" s="11"/>
-      <c r="Q130" s="61"/>
-      <c r="R130" s="64"/>
+      <c r="Q130" s="62"/>
+      <c r="R130" s="57"/>
     </row>
     <row r="131" spans="1:18" ht="15.75">
-      <c r="A131" s="64"/>
-      <c r="B131" s="61"/>
-      <c r="C131" s="70"/>
+      <c r="A131" s="57"/>
+      <c r="B131" s="62"/>
+      <c r="C131" s="66"/>
       <c r="D131" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6275,13 +6356,13 @@
       <c r="N131" s="11"/>
       <c r="O131" s="11"/>
       <c r="P131" s="11"/>
-      <c r="Q131" s="61"/>
-      <c r="R131" s="64"/>
+      <c r="Q131" s="62"/>
+      <c r="R131" s="57"/>
     </row>
     <row r="132" spans="1:18" ht="15.75">
-      <c r="A132" s="64"/>
-      <c r="B132" s="61"/>
-      <c r="C132" s="70"/>
+      <c r="A132" s="57"/>
+      <c r="B132" s="62"/>
+      <c r="C132" s="66"/>
       <c r="D132" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6310,13 +6391,13 @@
       <c r="N132" s="11"/>
       <c r="O132" s="11"/>
       <c r="P132" s="11"/>
-      <c r="Q132" s="61"/>
-      <c r="R132" s="64"/>
+      <c r="Q132" s="62"/>
+      <c r="R132" s="57"/>
     </row>
     <row r="133" spans="1:18" ht="15.75">
-      <c r="A133" s="64"/>
-      <c r="B133" s="61"/>
-      <c r="C133" s="70"/>
+      <c r="A133" s="57"/>
+      <c r="B133" s="62"/>
+      <c r="C133" s="66"/>
       <c r="D133" s="5" t="str">
         <f t="shared" ref="D133:D196" si="8">IF(LEN(E133)&gt;5,IF(LEN(K133&amp;L133&amp;M133)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -6345,13 +6426,13 @@
       <c r="N133" s="11"/>
       <c r="O133" s="11"/>
       <c r="P133" s="11"/>
-      <c r="Q133" s="61"/>
-      <c r="R133" s="64"/>
+      <c r="Q133" s="62"/>
+      <c r="R133" s="57"/>
     </row>
     <row r="134" spans="1:18" ht="15.75">
-      <c r="A134" s="64"/>
-      <c r="B134" s="61"/>
-      <c r="C134" s="70"/>
+      <c r="A134" s="57"/>
+      <c r="B134" s="62"/>
+      <c r="C134" s="66"/>
       <c r="D134" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6380,13 +6461,13 @@
       <c r="N134" s="11"/>
       <c r="O134" s="11"/>
       <c r="P134" s="11"/>
-      <c r="Q134" s="61"/>
-      <c r="R134" s="64"/>
+      <c r="Q134" s="62"/>
+      <c r="R134" s="57"/>
     </row>
     <row r="135" spans="1:18" ht="15.75">
-      <c r="A135" s="64"/>
-      <c r="B135" s="61"/>
-      <c r="C135" s="70"/>
+      <c r="A135" s="57"/>
+      <c r="B135" s="62"/>
+      <c r="C135" s="66"/>
       <c r="D135" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6415,13 +6496,13 @@
       <c r="N135" s="11"/>
       <c r="O135" s="11"/>
       <c r="P135" s="11"/>
-      <c r="Q135" s="61"/>
-      <c r="R135" s="64"/>
+      <c r="Q135" s="62"/>
+      <c r="R135" s="57"/>
     </row>
     <row r="136" spans="1:18" ht="15.75">
-      <c r="A136" s="64"/>
-      <c r="B136" s="61"/>
-      <c r="C136" s="70"/>
+      <c r="A136" s="57"/>
+      <c r="B136" s="62"/>
+      <c r="C136" s="66"/>
       <c r="D136" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6450,13 +6531,13 @@
       <c r="N136" s="11"/>
       <c r="O136" s="11"/>
       <c r="P136" s="11"/>
-      <c r="Q136" s="61"/>
-      <c r="R136" s="64"/>
+      <c r="Q136" s="62"/>
+      <c r="R136" s="57"/>
     </row>
     <row r="137" spans="1:18" ht="15.75">
-      <c r="A137" s="64"/>
-      <c r="B137" s="61"/>
-      <c r="C137" s="70"/>
+      <c r="A137" s="57"/>
+      <c r="B137" s="62"/>
+      <c r="C137" s="66"/>
       <c r="D137" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6485,13 +6566,13 @@
       <c r="N137" s="11"/>
       <c r="O137" s="11"/>
       <c r="P137" s="11"/>
-      <c r="Q137" s="61"/>
-      <c r="R137" s="64"/>
+      <c r="Q137" s="62"/>
+      <c r="R137" s="57"/>
     </row>
     <row r="138" spans="1:18" ht="15.75">
-      <c r="A138" s="64"/>
-      <c r="B138" s="62"/>
-      <c r="C138" s="70"/>
+      <c r="A138" s="57"/>
+      <c r="B138" s="63"/>
+      <c r="C138" s="66"/>
       <c r="D138" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6520,16 +6601,16 @@
       <c r="N138" s="11"/>
       <c r="O138" s="11"/>
       <c r="P138" s="11"/>
-      <c r="Q138" s="62"/>
-      <c r="R138" s="64"/>
+      <c r="Q138" s="63"/>
+      <c r="R138" s="57"/>
     </row>
     <row r="139" spans="1:18" ht="51">
-      <c r="A139" s="64"/>
-      <c r="B139" s="60">
+      <c r="A139" s="57"/>
+      <c r="B139" s="61">
         <v>3.4</v>
       </c>
-      <c r="C139" s="70" t="s">
-        <v>44</v>
+      <c r="C139" s="66" t="s">
+        <v>38</v>
       </c>
       <c r="D139" s="5" t="str">
         <f t="shared" si="8"/>
@@ -6539,7 +6620,7 @@
         <v>18</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G139" s="11" t="s">
         <v>15</v>
@@ -6565,22 +6646,22 @@
       <c r="N139" s="11"/>
       <c r="O139" s="11"/>
       <c r="P139" s="11"/>
-      <c r="Q139" s="60"/>
-      <c r="R139" s="64"/>
+      <c r="Q139" s="61"/>
+      <c r="R139" s="57"/>
     </row>
     <row r="140" spans="1:18" ht="25.5">
-      <c r="A140" s="64"/>
-      <c r="B140" s="61"/>
-      <c r="C140" s="70"/>
+      <c r="A140" s="57"/>
+      <c r="B140" s="62"/>
+      <c r="C140" s="66"/>
       <c r="D140" s="5" t="str">
         <f t="shared" si="8"/>
         <v>OK</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G140" s="11" t="s">
         <v>15</v>
@@ -6606,13 +6687,13 @@
       <c r="N140" s="11"/>
       <c r="O140" s="11"/>
       <c r="P140" s="11"/>
-      <c r="Q140" s="61"/>
-      <c r="R140" s="64"/>
+      <c r="Q140" s="62"/>
+      <c r="R140" s="57"/>
     </row>
     <row r="141" spans="1:18" ht="15.75">
-      <c r="A141" s="64"/>
-      <c r="B141" s="61"/>
-      <c r="C141" s="70"/>
+      <c r="A141" s="57"/>
+      <c r="B141" s="62"/>
+      <c r="C141" s="66"/>
       <c r="D141" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6641,13 +6722,13 @@
       <c r="N141" s="11"/>
       <c r="O141" s="11"/>
       <c r="P141" s="11"/>
-      <c r="Q141" s="61"/>
-      <c r="R141" s="64"/>
+      <c r="Q141" s="62"/>
+      <c r="R141" s="57"/>
     </row>
     <row r="142" spans="1:18" ht="15.75">
-      <c r="A142" s="64"/>
-      <c r="B142" s="61"/>
-      <c r="C142" s="70"/>
+      <c r="A142" s="57"/>
+      <c r="B142" s="62"/>
+      <c r="C142" s="66"/>
       <c r="D142" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6676,13 +6757,13 @@
       <c r="N142" s="11"/>
       <c r="O142" s="11"/>
       <c r="P142" s="11"/>
-      <c r="Q142" s="61"/>
-      <c r="R142" s="64"/>
+      <c r="Q142" s="62"/>
+      <c r="R142" s="57"/>
     </row>
     <row r="143" spans="1:18" ht="15.75">
-      <c r="A143" s="64"/>
-      <c r="B143" s="61"/>
-      <c r="C143" s="70"/>
+      <c r="A143" s="57"/>
+      <c r="B143" s="62"/>
+      <c r="C143" s="66"/>
       <c r="D143" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6711,13 +6792,13 @@
       <c r="N143" s="11"/>
       <c r="O143" s="11"/>
       <c r="P143" s="11"/>
-      <c r="Q143" s="61"/>
-      <c r="R143" s="64"/>
+      <c r="Q143" s="62"/>
+      <c r="R143" s="57"/>
     </row>
     <row r="144" spans="1:18" ht="15.75">
-      <c r="A144" s="64"/>
-      <c r="B144" s="61"/>
-      <c r="C144" s="70"/>
+      <c r="A144" s="57"/>
+      <c r="B144" s="62"/>
+      <c r="C144" s="66"/>
       <c r="D144" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6746,13 +6827,13 @@
       <c r="N144" s="11"/>
       <c r="O144" s="11"/>
       <c r="P144" s="11"/>
-      <c r="Q144" s="61"/>
-      <c r="R144" s="64"/>
+      <c r="Q144" s="62"/>
+      <c r="R144" s="57"/>
     </row>
     <row r="145" spans="1:18" ht="15.75">
-      <c r="A145" s="64"/>
-      <c r="B145" s="61"/>
-      <c r="C145" s="70"/>
+      <c r="A145" s="57"/>
+      <c r="B145" s="62"/>
+      <c r="C145" s="66"/>
       <c r="D145" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6781,13 +6862,13 @@
       <c r="N145" s="11"/>
       <c r="O145" s="11"/>
       <c r="P145" s="11"/>
-      <c r="Q145" s="61"/>
-      <c r="R145" s="64"/>
+      <c r="Q145" s="62"/>
+      <c r="R145" s="57"/>
     </row>
     <row r="146" spans="1:18" ht="15.75">
-      <c r="A146" s="64"/>
-      <c r="B146" s="61"/>
-      <c r="C146" s="70"/>
+      <c r="A146" s="57"/>
+      <c r="B146" s="62"/>
+      <c r="C146" s="66"/>
       <c r="D146" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6816,13 +6897,13 @@
       <c r="N146" s="11"/>
       <c r="O146" s="11"/>
       <c r="P146" s="11"/>
-      <c r="Q146" s="61"/>
-      <c r="R146" s="64"/>
+      <c r="Q146" s="62"/>
+      <c r="R146" s="57"/>
     </row>
     <row r="147" spans="1:18" ht="15.75">
-      <c r="A147" s="64"/>
-      <c r="B147" s="61"/>
-      <c r="C147" s="70"/>
+      <c r="A147" s="57"/>
+      <c r="B147" s="62"/>
+      <c r="C147" s="66"/>
       <c r="D147" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6851,13 +6932,13 @@
       <c r="N147" s="11"/>
       <c r="O147" s="11"/>
       <c r="P147" s="11"/>
-      <c r="Q147" s="61"/>
-      <c r="R147" s="64"/>
+      <c r="Q147" s="62"/>
+      <c r="R147" s="57"/>
     </row>
     <row r="148" spans="1:18" ht="15.75">
-      <c r="A148" s="64"/>
-      <c r="B148" s="61"/>
-      <c r="C148" s="70"/>
+      <c r="A148" s="57"/>
+      <c r="B148" s="62"/>
+      <c r="C148" s="66"/>
       <c r="D148" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6886,13 +6967,13 @@
       <c r="N148" s="11"/>
       <c r="O148" s="11"/>
       <c r="P148" s="11"/>
-      <c r="Q148" s="61"/>
-      <c r="R148" s="64"/>
+      <c r="Q148" s="62"/>
+      <c r="R148" s="57"/>
     </row>
     <row r="149" spans="1:18" ht="15.75">
-      <c r="A149" s="64"/>
-      <c r="B149" s="61"/>
-      <c r="C149" s="70"/>
+      <c r="A149" s="57"/>
+      <c r="B149" s="62"/>
+      <c r="C149" s="66"/>
       <c r="D149" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6921,13 +7002,13 @@
       <c r="N149" s="11"/>
       <c r="O149" s="11"/>
       <c r="P149" s="11"/>
-      <c r="Q149" s="61"/>
-      <c r="R149" s="64"/>
+      <c r="Q149" s="62"/>
+      <c r="R149" s="57"/>
     </row>
     <row r="150" spans="1:18" ht="15.75">
-      <c r="A150" s="64"/>
-      <c r="B150" s="61"/>
-      <c r="C150" s="70"/>
+      <c r="A150" s="57"/>
+      <c r="B150" s="62"/>
+      <c r="C150" s="66"/>
       <c r="D150" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6956,13 +7037,13 @@
       <c r="N150" s="11"/>
       <c r="O150" s="11"/>
       <c r="P150" s="11"/>
-      <c r="Q150" s="61"/>
-      <c r="R150" s="64"/>
+      <c r="Q150" s="62"/>
+      <c r="R150" s="57"/>
     </row>
     <row r="151" spans="1:18" ht="15.75">
-      <c r="A151" s="64"/>
-      <c r="B151" s="61"/>
-      <c r="C151" s="70"/>
+      <c r="A151" s="57"/>
+      <c r="B151" s="62"/>
+      <c r="C151" s="66"/>
       <c r="D151" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6991,13 +7072,13 @@
       <c r="N151" s="11"/>
       <c r="O151" s="11"/>
       <c r="P151" s="11"/>
-      <c r="Q151" s="61"/>
-      <c r="R151" s="64"/>
+      <c r="Q151" s="62"/>
+      <c r="R151" s="57"/>
     </row>
     <row r="152" spans="1:18" ht="15.75">
-      <c r="A152" s="64"/>
-      <c r="B152" s="61"/>
-      <c r="C152" s="70"/>
+      <c r="A152" s="57"/>
+      <c r="B152" s="62"/>
+      <c r="C152" s="66"/>
       <c r="D152" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7026,13 +7107,13 @@
       <c r="N152" s="11"/>
       <c r="O152" s="11"/>
       <c r="P152" s="11"/>
-      <c r="Q152" s="61"/>
-      <c r="R152" s="64"/>
+      <c r="Q152" s="62"/>
+      <c r="R152" s="57"/>
     </row>
     <row r="153" spans="1:18" ht="15.75">
-      <c r="A153" s="64"/>
-      <c r="B153" s="62"/>
-      <c r="C153" s="70"/>
+      <c r="A153" s="57"/>
+      <c r="B153" s="63"/>
+      <c r="C153" s="66"/>
       <c r="D153" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7061,13 +7142,13 @@
       <c r="N153" s="11"/>
       <c r="O153" s="11"/>
       <c r="P153" s="11"/>
-      <c r="Q153" s="62"/>
-      <c r="R153" s="64"/>
+      <c r="Q153" s="63"/>
+      <c r="R153" s="57"/>
     </row>
     <row r="154" spans="1:18" ht="102" customHeight="1">
       <c r="A154" s="17"/>
-      <c r="B154" s="60"/>
-      <c r="C154" s="68"/>
+      <c r="B154" s="61"/>
+      <c r="C154" s="65"/>
       <c r="D154" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7096,13 +7177,13 @@
       <c r="N154" s="11"/>
       <c r="O154" s="11"/>
       <c r="P154" s="11"/>
-      <c r="Q154" s="60"/>
-      <c r="R154" s="64"/>
+      <c r="Q154" s="61"/>
+      <c r="R154" s="57"/>
     </row>
     <row r="155" spans="1:18" ht="15.75">
       <c r="A155" s="17"/>
-      <c r="B155" s="61"/>
-      <c r="C155" s="68"/>
+      <c r="B155" s="62"/>
+      <c r="C155" s="65"/>
       <c r="D155" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7131,13 +7212,13 @@
       <c r="N155" s="11"/>
       <c r="O155" s="11"/>
       <c r="P155" s="11"/>
-      <c r="Q155" s="61"/>
-      <c r="R155" s="64"/>
+      <c r="Q155" s="62"/>
+      <c r="R155" s="57"/>
     </row>
     <row r="156" spans="1:18" ht="15.75">
       <c r="A156" s="17"/>
-      <c r="B156" s="61"/>
-      <c r="C156" s="68"/>
+      <c r="B156" s="62"/>
+      <c r="C156" s="65"/>
       <c r="D156" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7166,13 +7247,13 @@
       <c r="N156" s="11"/>
       <c r="O156" s="11"/>
       <c r="P156" s="11"/>
-      <c r="Q156" s="61"/>
-      <c r="R156" s="64"/>
+      <c r="Q156" s="62"/>
+      <c r="R156" s="57"/>
     </row>
     <row r="157" spans="1:18" ht="15.75">
       <c r="A157" s="17"/>
-      <c r="B157" s="61"/>
-      <c r="C157" s="68"/>
+      <c r="B157" s="62"/>
+      <c r="C157" s="65"/>
       <c r="D157" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7201,13 +7282,13 @@
       <c r="N157" s="11"/>
       <c r="O157" s="11"/>
       <c r="P157" s="11"/>
-      <c r="Q157" s="61"/>
-      <c r="R157" s="64"/>
+      <c r="Q157" s="62"/>
+      <c r="R157" s="57"/>
     </row>
     <row r="158" spans="1:18" ht="15.75">
       <c r="A158" s="17"/>
-      <c r="B158" s="61"/>
-      <c r="C158" s="68"/>
+      <c r="B158" s="62"/>
+      <c r="C158" s="65"/>
       <c r="D158" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7236,13 +7317,13 @@
       <c r="N158" s="11"/>
       <c r="O158" s="11"/>
       <c r="P158" s="11"/>
-      <c r="Q158" s="61"/>
-      <c r="R158" s="64"/>
+      <c r="Q158" s="62"/>
+      <c r="R158" s="57"/>
     </row>
     <row r="159" spans="1:18" ht="15.75">
       <c r="A159" s="17"/>
-      <c r="B159" s="61"/>
-      <c r="C159" s="68"/>
+      <c r="B159" s="62"/>
+      <c r="C159" s="65"/>
       <c r="D159" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7271,13 +7352,13 @@
       <c r="N159" s="11"/>
       <c r="O159" s="11"/>
       <c r="P159" s="11"/>
-      <c r="Q159" s="61"/>
-      <c r="R159" s="64"/>
+      <c r="Q159" s="62"/>
+      <c r="R159" s="57"/>
     </row>
     <row r="160" spans="1:18" ht="15.75">
       <c r="A160" s="17"/>
-      <c r="B160" s="61"/>
-      <c r="C160" s="68"/>
+      <c r="B160" s="62"/>
+      <c r="C160" s="65"/>
       <c r="D160" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7306,13 +7387,13 @@
       <c r="N160" s="11"/>
       <c r="O160" s="11"/>
       <c r="P160" s="11"/>
-      <c r="Q160" s="61"/>
-      <c r="R160" s="64"/>
+      <c r="Q160" s="62"/>
+      <c r="R160" s="57"/>
     </row>
     <row r="161" spans="1:18" ht="15.75">
       <c r="A161" s="17"/>
-      <c r="B161" s="61"/>
-      <c r="C161" s="68"/>
+      <c r="B161" s="62"/>
+      <c r="C161" s="65"/>
       <c r="D161" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7341,13 +7422,13 @@
       <c r="N161" s="11"/>
       <c r="O161" s="11"/>
       <c r="P161" s="11"/>
-      <c r="Q161" s="61"/>
-      <c r="R161" s="64"/>
+      <c r="Q161" s="62"/>
+      <c r="R161" s="57"/>
     </row>
     <row r="162" spans="1:18" ht="15.75">
       <c r="A162" s="17"/>
-      <c r="B162" s="61"/>
-      <c r="C162" s="68"/>
+      <c r="B162" s="62"/>
+      <c r="C162" s="65"/>
       <c r="D162" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7376,13 +7457,13 @@
       <c r="N162" s="11"/>
       <c r="O162" s="11"/>
       <c r="P162" s="11"/>
-      <c r="Q162" s="61"/>
-      <c r="R162" s="64"/>
+      <c r="Q162" s="62"/>
+      <c r="R162" s="57"/>
     </row>
     <row r="163" spans="1:18" ht="15.75">
       <c r="A163" s="17"/>
-      <c r="B163" s="61"/>
-      <c r="C163" s="68"/>
+      <c r="B163" s="62"/>
+      <c r="C163" s="65"/>
       <c r="D163" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7411,13 +7492,13 @@
       <c r="N163" s="11"/>
       <c r="O163" s="11"/>
       <c r="P163" s="11"/>
-      <c r="Q163" s="61"/>
-      <c r="R163" s="64"/>
+      <c r="Q163" s="62"/>
+      <c r="R163" s="57"/>
     </row>
     <row r="164" spans="1:18" ht="15.75">
       <c r="A164" s="17"/>
-      <c r="B164" s="61"/>
-      <c r="C164" s="68"/>
+      <c r="B164" s="62"/>
+      <c r="C164" s="65"/>
       <c r="D164" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7446,13 +7527,13 @@
       <c r="N164" s="11"/>
       <c r="O164" s="11"/>
       <c r="P164" s="11"/>
-      <c r="Q164" s="61"/>
-      <c r="R164" s="64"/>
+      <c r="Q164" s="62"/>
+      <c r="R164" s="57"/>
     </row>
     <row r="165" spans="1:18" ht="15.75">
       <c r="A165" s="17"/>
-      <c r="B165" s="61"/>
-      <c r="C165" s="68"/>
+      <c r="B165" s="62"/>
+      <c r="C165" s="65"/>
       <c r="D165" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7481,13 +7562,13 @@
       <c r="N165" s="11"/>
       <c r="O165" s="11"/>
       <c r="P165" s="11"/>
-      <c r="Q165" s="61"/>
-      <c r="R165" s="64"/>
+      <c r="Q165" s="62"/>
+      <c r="R165" s="57"/>
     </row>
     <row r="166" spans="1:18" ht="15.75">
       <c r="A166" s="17"/>
-      <c r="B166" s="61"/>
-      <c r="C166" s="68"/>
+      <c r="B166" s="62"/>
+      <c r="C166" s="65"/>
       <c r="D166" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7516,13 +7597,13 @@
       <c r="N166" s="11"/>
       <c r="O166" s="11"/>
       <c r="P166" s="11"/>
-      <c r="Q166" s="61"/>
-      <c r="R166" s="64"/>
+      <c r="Q166" s="62"/>
+      <c r="R166" s="57"/>
     </row>
     <row r="167" spans="1:18" ht="15.75">
       <c r="A167" s="17"/>
-      <c r="B167" s="61"/>
-      <c r="C167" s="68"/>
+      <c r="B167" s="62"/>
+      <c r="C167" s="65"/>
       <c r="D167" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7551,13 +7632,13 @@
       <c r="N167" s="11"/>
       <c r="O167" s="11"/>
       <c r="P167" s="11"/>
-      <c r="Q167" s="61"/>
-      <c r="R167" s="64"/>
+      <c r="Q167" s="62"/>
+      <c r="R167" s="57"/>
     </row>
     <row r="168" spans="1:18" ht="15.75">
       <c r="A168" s="17"/>
-      <c r="B168" s="62"/>
-      <c r="C168" s="68"/>
+      <c r="B168" s="63"/>
+      <c r="C168" s="65"/>
       <c r="D168" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7586,13 +7667,13 @@
       <c r="N168" s="11"/>
       <c r="O168" s="11"/>
       <c r="P168" s="11"/>
-      <c r="Q168" s="62"/>
-      <c r="R168" s="64"/>
+      <c r="Q168" s="63"/>
+      <c r="R168" s="57"/>
     </row>
     <row r="169" spans="1:18" ht="15.75">
       <c r="A169" s="17"/>
-      <c r="B169" s="60"/>
-      <c r="C169" s="68"/>
+      <c r="B169" s="61"/>
+      <c r="C169" s="65"/>
       <c r="D169" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7621,13 +7702,13 @@
       <c r="N169" s="11"/>
       <c r="O169" s="11"/>
       <c r="P169" s="11"/>
-      <c r="Q169" s="60"/>
-      <c r="R169" s="64"/>
+      <c r="Q169" s="61"/>
+      <c r="R169" s="57"/>
     </row>
     <row r="170" spans="1:18" ht="15.75">
       <c r="A170" s="17"/>
-      <c r="B170" s="61"/>
-      <c r="C170" s="68"/>
+      <c r="B170" s="62"/>
+      <c r="C170" s="65"/>
       <c r="D170" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7656,13 +7737,13 @@
       <c r="N170" s="11"/>
       <c r="O170" s="11"/>
       <c r="P170" s="11"/>
-      <c r="Q170" s="61"/>
-      <c r="R170" s="64"/>
+      <c r="Q170" s="62"/>
+      <c r="R170" s="57"/>
     </row>
     <row r="171" spans="1:18" ht="15.75">
       <c r="A171" s="17"/>
-      <c r="B171" s="61"/>
-      <c r="C171" s="68"/>
+      <c r="B171" s="62"/>
+      <c r="C171" s="65"/>
       <c r="D171" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7691,13 +7772,13 @@
       <c r="N171" s="11"/>
       <c r="O171" s="11"/>
       <c r="P171" s="11"/>
-      <c r="Q171" s="61"/>
-      <c r="R171" s="64"/>
+      <c r="Q171" s="62"/>
+      <c r="R171" s="57"/>
     </row>
     <row r="172" spans="1:18" ht="15.75">
       <c r="A172" s="17"/>
-      <c r="B172" s="61"/>
-      <c r="C172" s="68"/>
+      <c r="B172" s="62"/>
+      <c r="C172" s="65"/>
       <c r="D172" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7726,13 +7807,13 @@
       <c r="N172" s="11"/>
       <c r="O172" s="11"/>
       <c r="P172" s="11"/>
-      <c r="Q172" s="61"/>
-      <c r="R172" s="64"/>
+      <c r="Q172" s="62"/>
+      <c r="R172" s="57"/>
     </row>
     <row r="173" spans="1:18" ht="15.75">
       <c r="A173" s="17"/>
-      <c r="B173" s="61"/>
-      <c r="C173" s="68"/>
+      <c r="B173" s="62"/>
+      <c r="C173" s="65"/>
       <c r="D173" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7761,13 +7842,13 @@
       <c r="N173" s="11"/>
       <c r="O173" s="11"/>
       <c r="P173" s="11"/>
-      <c r="Q173" s="61"/>
-      <c r="R173" s="64"/>
+      <c r="Q173" s="62"/>
+      <c r="R173" s="57"/>
     </row>
     <row r="174" spans="1:18" ht="28.5" customHeight="1">
       <c r="A174" s="17"/>
-      <c r="B174" s="61"/>
-      <c r="C174" s="68"/>
+      <c r="B174" s="62"/>
+      <c r="C174" s="65"/>
       <c r="D174" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7796,13 +7877,13 @@
       <c r="N174" s="11"/>
       <c r="O174" s="11"/>
       <c r="P174" s="11"/>
-      <c r="Q174" s="61"/>
-      <c r="R174" s="64"/>
+      <c r="Q174" s="62"/>
+      <c r="R174" s="57"/>
     </row>
     <row r="175" spans="1:18" ht="33.75" customHeight="1">
       <c r="A175" s="17"/>
-      <c r="B175" s="61"/>
-      <c r="C175" s="68"/>
+      <c r="B175" s="62"/>
+      <c r="C175" s="65"/>
       <c r="D175" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7831,13 +7912,13 @@
       <c r="N175" s="11"/>
       <c r="O175" s="11"/>
       <c r="P175" s="11"/>
-      <c r="Q175" s="61"/>
-      <c r="R175" s="64"/>
+      <c r="Q175" s="62"/>
+      <c r="R175" s="57"/>
     </row>
     <row r="176" spans="1:18" ht="15.75">
       <c r="A176" s="17"/>
-      <c r="B176" s="61"/>
-      <c r="C176" s="68"/>
+      <c r="B176" s="62"/>
+      <c r="C176" s="65"/>
       <c r="D176" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7866,13 +7947,13 @@
       <c r="N176" s="11"/>
       <c r="O176" s="11"/>
       <c r="P176" s="11"/>
-      <c r="Q176" s="61"/>
-      <c r="R176" s="64"/>
+      <c r="Q176" s="62"/>
+      <c r="R176" s="57"/>
     </row>
     <row r="177" spans="1:18" ht="15.75">
       <c r="A177" s="17"/>
-      <c r="B177" s="61"/>
-      <c r="C177" s="68"/>
+      <c r="B177" s="62"/>
+      <c r="C177" s="65"/>
       <c r="D177" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7901,13 +7982,13 @@
       <c r="N177" s="11"/>
       <c r="O177" s="11"/>
       <c r="P177" s="11"/>
-      <c r="Q177" s="61"/>
-      <c r="R177" s="64"/>
+      <c r="Q177" s="62"/>
+      <c r="R177" s="57"/>
     </row>
     <row r="178" spans="1:18" ht="15.75">
       <c r="A178" s="17"/>
-      <c r="B178" s="61"/>
-      <c r="C178" s="68"/>
+      <c r="B178" s="62"/>
+      <c r="C178" s="65"/>
       <c r="D178" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7936,13 +8017,13 @@
       <c r="N178" s="11"/>
       <c r="O178" s="11"/>
       <c r="P178" s="11"/>
-      <c r="Q178" s="61"/>
-      <c r="R178" s="64"/>
+      <c r="Q178" s="62"/>
+      <c r="R178" s="57"/>
     </row>
     <row r="179" spans="1:18" ht="15.75">
       <c r="A179" s="17"/>
-      <c r="B179" s="61"/>
-      <c r="C179" s="68"/>
+      <c r="B179" s="62"/>
+      <c r="C179" s="65"/>
       <c r="D179" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7971,13 +8052,13 @@
       <c r="N179" s="11"/>
       <c r="O179" s="11"/>
       <c r="P179" s="11"/>
-      <c r="Q179" s="61"/>
-      <c r="R179" s="64"/>
+      <c r="Q179" s="62"/>
+      <c r="R179" s="57"/>
     </row>
     <row r="180" spans="1:18" ht="15.75">
       <c r="A180" s="17"/>
-      <c r="B180" s="61"/>
-      <c r="C180" s="68"/>
+      <c r="B180" s="62"/>
+      <c r="C180" s="65"/>
       <c r="D180" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8006,13 +8087,13 @@
       <c r="N180" s="11"/>
       <c r="O180" s="11"/>
       <c r="P180" s="11"/>
-      <c r="Q180" s="61"/>
-      <c r="R180" s="64"/>
+      <c r="Q180" s="62"/>
+      <c r="R180" s="57"/>
     </row>
     <row r="181" spans="1:18" ht="15.75">
       <c r="A181" s="17"/>
-      <c r="B181" s="61"/>
-      <c r="C181" s="68"/>
+      <c r="B181" s="62"/>
+      <c r="C181" s="65"/>
       <c r="D181" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8041,13 +8122,13 @@
       <c r="N181" s="11"/>
       <c r="O181" s="11"/>
       <c r="P181" s="11"/>
-      <c r="Q181" s="61"/>
-      <c r="R181" s="64"/>
+      <c r="Q181" s="62"/>
+      <c r="R181" s="57"/>
     </row>
     <row r="182" spans="1:18" ht="15.75">
       <c r="A182" s="17"/>
-      <c r="B182" s="61"/>
-      <c r="C182" s="68"/>
+      <c r="B182" s="62"/>
+      <c r="C182" s="65"/>
       <c r="D182" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8076,13 +8157,13 @@
       <c r="N182" s="11"/>
       <c r="O182" s="11"/>
       <c r="P182" s="11"/>
-      <c r="Q182" s="61"/>
-      <c r="R182" s="64"/>
+      <c r="Q182" s="62"/>
+      <c r="R182" s="57"/>
     </row>
     <row r="183" spans="1:18" ht="15.75">
       <c r="A183" s="17"/>
-      <c r="B183" s="62"/>
-      <c r="C183" s="68"/>
+      <c r="B183" s="63"/>
+      <c r="C183" s="65"/>
       <c r="D183" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8111,13 +8192,13 @@
       <c r="N183" s="11"/>
       <c r="O183" s="11"/>
       <c r="P183" s="11"/>
-      <c r="Q183" s="62"/>
-      <c r="R183" s="64"/>
+      <c r="Q183" s="63"/>
+      <c r="R183" s="57"/>
     </row>
     <row r="184" spans="1:18" ht="38.25" customHeight="1">
       <c r="A184" s="17"/>
-      <c r="B184" s="60"/>
-      <c r="C184" s="68"/>
+      <c r="B184" s="61"/>
+      <c r="C184" s="65"/>
       <c r="D184" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8146,13 +8227,13 @@
       <c r="N184" s="11"/>
       <c r="O184" s="11"/>
       <c r="P184" s="11"/>
-      <c r="Q184" s="60"/>
-      <c r="R184" s="64"/>
+      <c r="Q184" s="61"/>
+      <c r="R184" s="57"/>
     </row>
     <row r="185" spans="1:18" ht="15.75">
       <c r="A185" s="17"/>
-      <c r="B185" s="61"/>
-      <c r="C185" s="68"/>
+      <c r="B185" s="62"/>
+      <c r="C185" s="65"/>
       <c r="D185" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8181,13 +8262,13 @@
       <c r="N185" s="11"/>
       <c r="O185" s="11"/>
       <c r="P185" s="11"/>
-      <c r="Q185" s="61"/>
-      <c r="R185" s="64"/>
+      <c r="Q185" s="62"/>
+      <c r="R185" s="57"/>
     </row>
     <row r="186" spans="1:18" ht="15.75">
       <c r="A186" s="17"/>
-      <c r="B186" s="61"/>
-      <c r="C186" s="68"/>
+      <c r="B186" s="62"/>
+      <c r="C186" s="65"/>
       <c r="D186" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8216,13 +8297,13 @@
       <c r="N186" s="11"/>
       <c r="O186" s="11"/>
       <c r="P186" s="11"/>
-      <c r="Q186" s="61"/>
-      <c r="R186" s="64"/>
+      <c r="Q186" s="62"/>
+      <c r="R186" s="57"/>
     </row>
     <row r="187" spans="1:18" ht="15.75">
       <c r="A187" s="17"/>
-      <c r="B187" s="61"/>
-      <c r="C187" s="68"/>
+      <c r="B187" s="62"/>
+      <c r="C187" s="65"/>
       <c r="D187" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8251,13 +8332,13 @@
       <c r="N187" s="11"/>
       <c r="O187" s="11"/>
       <c r="P187" s="11"/>
-      <c r="Q187" s="61"/>
-      <c r="R187" s="64"/>
+      <c r="Q187" s="62"/>
+      <c r="R187" s="57"/>
     </row>
     <row r="188" spans="1:18" ht="15.75">
       <c r="A188" s="17"/>
-      <c r="B188" s="61"/>
-      <c r="C188" s="68"/>
+      <c r="B188" s="62"/>
+      <c r="C188" s="65"/>
       <c r="D188" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8286,13 +8367,13 @@
       <c r="N188" s="11"/>
       <c r="O188" s="11"/>
       <c r="P188" s="11"/>
-      <c r="Q188" s="61"/>
-      <c r="R188" s="64"/>
+      <c r="Q188" s="62"/>
+      <c r="R188" s="57"/>
     </row>
     <row r="189" spans="1:18" ht="15.75">
       <c r="A189" s="17"/>
-      <c r="B189" s="61"/>
-      <c r="C189" s="68"/>
+      <c r="B189" s="62"/>
+      <c r="C189" s="65"/>
       <c r="D189" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8321,13 +8402,13 @@
       <c r="N189" s="11"/>
       <c r="O189" s="11"/>
       <c r="P189" s="11"/>
-      <c r="Q189" s="61"/>
-      <c r="R189" s="64"/>
+      <c r="Q189" s="62"/>
+      <c r="R189" s="57"/>
     </row>
     <row r="190" spans="1:18" ht="15.75">
       <c r="A190" s="17"/>
-      <c r="B190" s="61"/>
-      <c r="C190" s="68"/>
+      <c r="B190" s="62"/>
+      <c r="C190" s="65"/>
       <c r="D190" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8356,13 +8437,13 @@
       <c r="N190" s="11"/>
       <c r="O190" s="11"/>
       <c r="P190" s="11"/>
-      <c r="Q190" s="61"/>
-      <c r="R190" s="64"/>
+      <c r="Q190" s="62"/>
+      <c r="R190" s="57"/>
     </row>
     <row r="191" spans="1:18" ht="27.75" customHeight="1">
       <c r="A191" s="17"/>
-      <c r="B191" s="61"/>
-      <c r="C191" s="68"/>
+      <c r="B191" s="62"/>
+      <c r="C191" s="65"/>
       <c r="D191" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8391,13 +8472,13 @@
       <c r="N191" s="11"/>
       <c r="O191" s="11"/>
       <c r="P191" s="11"/>
-      <c r="Q191" s="61"/>
-      <c r="R191" s="64"/>
+      <c r="Q191" s="62"/>
+      <c r="R191" s="57"/>
     </row>
     <row r="192" spans="1:18" ht="15.75">
       <c r="A192" s="17"/>
-      <c r="B192" s="61"/>
-      <c r="C192" s="68"/>
+      <c r="B192" s="62"/>
+      <c r="C192" s="65"/>
       <c r="D192" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8426,13 +8507,13 @@
       <c r="N192" s="11"/>
       <c r="O192" s="11"/>
       <c r="P192" s="11"/>
-      <c r="Q192" s="61"/>
-      <c r="R192" s="64"/>
+      <c r="Q192" s="62"/>
+      <c r="R192" s="57"/>
     </row>
     <row r="193" spans="1:18" ht="15.75">
       <c r="A193" s="17"/>
-      <c r="B193" s="61"/>
-      <c r="C193" s="68"/>
+      <c r="B193" s="62"/>
+      <c r="C193" s="65"/>
       <c r="D193" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8442,7 +8523,7 @@
       <c r="G193" s="11"/>
       <c r="H193" s="8"/>
       <c r="I193" s="14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J193" s="14"/>
       <c r="K193" s="8" t="str">
@@ -8460,13 +8541,13 @@
       <c r="N193" s="11"/>
       <c r="O193" s="11"/>
       <c r="P193" s="11"/>
-      <c r="Q193" s="61"/>
-      <c r="R193" s="64"/>
+      <c r="Q193" s="62"/>
+      <c r="R193" s="57"/>
     </row>
     <row r="194" spans="1:18" ht="15.75">
       <c r="A194" s="17"/>
-      <c r="B194" s="61"/>
-      <c r="C194" s="68"/>
+      <c r="B194" s="62"/>
+      <c r="C194" s="65"/>
       <c r="D194" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8495,13 +8576,13 @@
       <c r="N194" s="11"/>
       <c r="O194" s="11"/>
       <c r="P194" s="11"/>
-      <c r="Q194" s="61"/>
-      <c r="R194" s="64"/>
+      <c r="Q194" s="62"/>
+      <c r="R194" s="57"/>
     </row>
     <row r="195" spans="1:18" ht="15.75">
       <c r="A195" s="17"/>
-      <c r="B195" s="61"/>
-      <c r="C195" s="68"/>
+      <c r="B195" s="62"/>
+      <c r="C195" s="65"/>
       <c r="D195" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8530,13 +8611,13 @@
       <c r="N195" s="11"/>
       <c r="O195" s="11"/>
       <c r="P195" s="11"/>
-      <c r="Q195" s="61"/>
-      <c r="R195" s="64"/>
+      <c r="Q195" s="62"/>
+      <c r="R195" s="57"/>
     </row>
     <row r="196" spans="1:18" ht="15.75">
       <c r="A196" s="17"/>
-      <c r="B196" s="61"/>
-      <c r="C196" s="68"/>
+      <c r="B196" s="62"/>
+      <c r="C196" s="65"/>
       <c r="D196" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8565,13 +8646,13 @@
       <c r="N196" s="11"/>
       <c r="O196" s="11"/>
       <c r="P196" s="11"/>
-      <c r="Q196" s="61"/>
-      <c r="R196" s="64"/>
+      <c r="Q196" s="62"/>
+      <c r="R196" s="57"/>
     </row>
     <row r="197" spans="1:18" ht="15.75">
       <c r="A197" s="17"/>
-      <c r="B197" s="61"/>
-      <c r="C197" s="68"/>
+      <c r="B197" s="62"/>
+      <c r="C197" s="65"/>
       <c r="D197" s="5" t="str">
         <f t="shared" ref="D197:D260" si="12">IF(LEN(E197)&gt;5,IF(LEN(K197&amp;L197&amp;M197)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -8600,13 +8681,13 @@
       <c r="N197" s="11"/>
       <c r="O197" s="11"/>
       <c r="P197" s="11"/>
-      <c r="Q197" s="61"/>
-      <c r="R197" s="64"/>
+      <c r="Q197" s="62"/>
+      <c r="R197" s="57"/>
     </row>
     <row r="198" spans="1:18" ht="15.75">
       <c r="A198" s="17"/>
-      <c r="B198" s="62"/>
-      <c r="C198" s="68"/>
+      <c r="B198" s="63"/>
+      <c r="C198" s="65"/>
       <c r="D198" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8635,13 +8716,13 @@
       <c r="N198" s="11"/>
       <c r="O198" s="11"/>
       <c r="P198" s="11"/>
-      <c r="Q198" s="62"/>
-      <c r="R198" s="64"/>
+      <c r="Q198" s="63"/>
+      <c r="R198" s="57"/>
     </row>
     <row r="199" spans="1:18" ht="25.5" customHeight="1">
       <c r="A199" s="17"/>
-      <c r="B199" s="60"/>
-      <c r="C199" s="68"/>
+      <c r="B199" s="61"/>
+      <c r="C199" s="65"/>
       <c r="D199" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8670,13 +8751,13 @@
       <c r="N199" s="11"/>
       <c r="O199" s="11"/>
       <c r="P199" s="11"/>
-      <c r="Q199" s="60"/>
-      <c r="R199" s="64"/>
+      <c r="Q199" s="61"/>
+      <c r="R199" s="57"/>
     </row>
     <row r="200" spans="1:18" ht="15.75">
       <c r="A200" s="17"/>
-      <c r="B200" s="61"/>
-      <c r="C200" s="68"/>
+      <c r="B200" s="62"/>
+      <c r="C200" s="65"/>
       <c r="D200" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8705,13 +8786,13 @@
       <c r="N200" s="11"/>
       <c r="O200" s="11"/>
       <c r="P200" s="11"/>
-      <c r="Q200" s="61"/>
-      <c r="R200" s="64"/>
+      <c r="Q200" s="62"/>
+      <c r="R200" s="57"/>
     </row>
     <row r="201" spans="1:18" ht="15.75">
       <c r="A201" s="17"/>
-      <c r="B201" s="61"/>
-      <c r="C201" s="68"/>
+      <c r="B201" s="62"/>
+      <c r="C201" s="65"/>
       <c r="D201" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8740,13 +8821,13 @@
       <c r="N201" s="11"/>
       <c r="O201" s="11"/>
       <c r="P201" s="11"/>
-      <c r="Q201" s="61"/>
-      <c r="R201" s="64"/>
+      <c r="Q201" s="62"/>
+      <c r="R201" s="57"/>
     </row>
     <row r="202" spans="1:18" ht="15.75">
       <c r="A202" s="17"/>
-      <c r="B202" s="61"/>
-      <c r="C202" s="68"/>
+      <c r="B202" s="62"/>
+      <c r="C202" s="65"/>
       <c r="D202" s="31" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8775,13 +8856,13 @@
       <c r="N202" s="11"/>
       <c r="O202" s="11"/>
       <c r="P202" s="11"/>
-      <c r="Q202" s="61"/>
-      <c r="R202" s="64"/>
+      <c r="Q202" s="62"/>
+      <c r="R202" s="57"/>
     </row>
     <row r="203" spans="1:18" ht="15.75">
       <c r="A203" s="17"/>
-      <c r="B203" s="61"/>
-      <c r="C203" s="68"/>
+      <c r="B203" s="62"/>
+      <c r="C203" s="65"/>
       <c r="D203" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8810,13 +8891,13 @@
       <c r="N203" s="11"/>
       <c r="O203" s="11"/>
       <c r="P203" s="11"/>
-      <c r="Q203" s="61"/>
-      <c r="R203" s="64"/>
+      <c r="Q203" s="62"/>
+      <c r="R203" s="57"/>
     </row>
     <row r="204" spans="1:18" ht="15.75">
       <c r="A204" s="17"/>
-      <c r="B204" s="61"/>
-      <c r="C204" s="68"/>
+      <c r="B204" s="62"/>
+      <c r="C204" s="65"/>
       <c r="D204" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8845,13 +8926,13 @@
       <c r="N204" s="11"/>
       <c r="O204" s="11"/>
       <c r="P204" s="11"/>
-      <c r="Q204" s="61"/>
-      <c r="R204" s="64"/>
+      <c r="Q204" s="62"/>
+      <c r="R204" s="57"/>
     </row>
     <row r="205" spans="1:18" ht="15.75">
       <c r="A205" s="17"/>
-      <c r="B205" s="61"/>
-      <c r="C205" s="68"/>
+      <c r="B205" s="62"/>
+      <c r="C205" s="65"/>
       <c r="D205" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8880,13 +8961,13 @@
       <c r="N205" s="11"/>
       <c r="O205" s="11"/>
       <c r="P205" s="11"/>
-      <c r="Q205" s="61"/>
-      <c r="R205" s="64"/>
+      <c r="Q205" s="62"/>
+      <c r="R205" s="57"/>
     </row>
     <row r="206" spans="1:18" ht="15.75">
       <c r="A206" s="17"/>
-      <c r="B206" s="61"/>
-      <c r="C206" s="68"/>
+      <c r="B206" s="62"/>
+      <c r="C206" s="65"/>
       <c r="D206" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8915,13 +8996,13 @@
       <c r="N206" s="11"/>
       <c r="O206" s="11"/>
       <c r="P206" s="11"/>
-      <c r="Q206" s="61"/>
-      <c r="R206" s="64"/>
+      <c r="Q206" s="62"/>
+      <c r="R206" s="57"/>
     </row>
     <row r="207" spans="1:18" ht="15.75">
       <c r="A207" s="17"/>
-      <c r="B207" s="61"/>
-      <c r="C207" s="68"/>
+      <c r="B207" s="62"/>
+      <c r="C207" s="65"/>
       <c r="D207" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8950,13 +9031,13 @@
       <c r="N207" s="11"/>
       <c r="O207" s="11"/>
       <c r="P207" s="11"/>
-      <c r="Q207" s="61"/>
-      <c r="R207" s="64"/>
+      <c r="Q207" s="62"/>
+      <c r="R207" s="57"/>
     </row>
     <row r="208" spans="1:18" ht="15.75">
       <c r="A208" s="17"/>
-      <c r="B208" s="61"/>
-      <c r="C208" s="68"/>
+      <c r="B208" s="62"/>
+      <c r="C208" s="65"/>
       <c r="D208" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8985,13 +9066,13 @@
       <c r="N208" s="11"/>
       <c r="O208" s="11"/>
       <c r="P208" s="11"/>
-      <c r="Q208" s="61"/>
-      <c r="R208" s="64"/>
+      <c r="Q208" s="62"/>
+      <c r="R208" s="57"/>
     </row>
     <row r="209" spans="1:18" ht="15.75">
       <c r="A209" s="17"/>
-      <c r="B209" s="61"/>
-      <c r="C209" s="68"/>
+      <c r="B209" s="62"/>
+      <c r="C209" s="65"/>
       <c r="D209" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9020,13 +9101,13 @@
       <c r="N209" s="11"/>
       <c r="O209" s="11"/>
       <c r="P209" s="11"/>
-      <c r="Q209" s="61"/>
-      <c r="R209" s="64"/>
+      <c r="Q209" s="62"/>
+      <c r="R209" s="57"/>
     </row>
     <row r="210" spans="1:18" ht="15.75">
       <c r="A210" s="17"/>
-      <c r="B210" s="61"/>
-      <c r="C210" s="68"/>
+      <c r="B210" s="62"/>
+      <c r="C210" s="65"/>
       <c r="D210" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9055,13 +9136,13 @@
       <c r="N210" s="11"/>
       <c r="O210" s="11"/>
       <c r="P210" s="11"/>
-      <c r="Q210" s="61"/>
-      <c r="R210" s="64"/>
+      <c r="Q210" s="62"/>
+      <c r="R210" s="57"/>
     </row>
     <row r="211" spans="1:18" ht="15.75">
       <c r="A211" s="17"/>
-      <c r="B211" s="61"/>
-      <c r="C211" s="68"/>
+      <c r="B211" s="62"/>
+      <c r="C211" s="65"/>
       <c r="D211" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9090,13 +9171,13 @@
       <c r="N211" s="11"/>
       <c r="O211" s="11"/>
       <c r="P211" s="11"/>
-      <c r="Q211" s="61"/>
-      <c r="R211" s="64"/>
+      <c r="Q211" s="62"/>
+      <c r="R211" s="57"/>
     </row>
     <row r="212" spans="1:18" ht="15.75">
       <c r="A212" s="17"/>
-      <c r="B212" s="61"/>
-      <c r="C212" s="68"/>
+      <c r="B212" s="62"/>
+      <c r="C212" s="65"/>
       <c r="D212" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9125,13 +9206,13 @@
       <c r="N212" s="11"/>
       <c r="O212" s="11"/>
       <c r="P212" s="11"/>
-      <c r="Q212" s="61"/>
-      <c r="R212" s="64"/>
+      <c r="Q212" s="62"/>
+      <c r="R212" s="57"/>
     </row>
     <row r="213" spans="1:18" ht="15.75">
       <c r="A213" s="17"/>
-      <c r="B213" s="62"/>
-      <c r="C213" s="68"/>
+      <c r="B213" s="63"/>
+      <c r="C213" s="65"/>
       <c r="D213" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9160,13 +9241,13 @@
       <c r="N213" s="11"/>
       <c r="O213" s="11"/>
       <c r="P213" s="11"/>
-      <c r="Q213" s="62"/>
-      <c r="R213" s="64"/>
+      <c r="Q213" s="63"/>
+      <c r="R213" s="57"/>
     </row>
     <row r="214" spans="1:18" ht="12.75" customHeight="1">
       <c r="A214" s="17"/>
-      <c r="B214" s="60"/>
-      <c r="C214" s="68"/>
+      <c r="B214" s="61"/>
+      <c r="C214" s="65"/>
       <c r="D214" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9195,13 +9276,13 @@
       <c r="N214" s="11"/>
       <c r="O214" s="11"/>
       <c r="P214" s="11"/>
-      <c r="Q214" s="60"/>
-      <c r="R214" s="64"/>
+      <c r="Q214" s="61"/>
+      <c r="R214" s="57"/>
     </row>
     <row r="215" spans="1:18" ht="15.75">
       <c r="A215" s="17"/>
-      <c r="B215" s="61"/>
-      <c r="C215" s="68"/>
+      <c r="B215" s="62"/>
+      <c r="C215" s="65"/>
       <c r="D215" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9230,13 +9311,13 @@
       <c r="N215" s="11"/>
       <c r="O215" s="11"/>
       <c r="P215" s="11"/>
-      <c r="Q215" s="61"/>
-      <c r="R215" s="64"/>
+      <c r="Q215" s="62"/>
+      <c r="R215" s="57"/>
     </row>
     <row r="216" spans="1:18" ht="15.75">
       <c r="A216" s="17"/>
-      <c r="B216" s="61"/>
-      <c r="C216" s="68"/>
+      <c r="B216" s="62"/>
+      <c r="C216" s="65"/>
       <c r="D216" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9265,13 +9346,13 @@
       <c r="N216" s="11"/>
       <c r="O216" s="11"/>
       <c r="P216" s="11"/>
-      <c r="Q216" s="61"/>
-      <c r="R216" s="64"/>
+      <c r="Q216" s="62"/>
+      <c r="R216" s="57"/>
     </row>
     <row r="217" spans="1:18" ht="15.75">
       <c r="A217" s="17"/>
-      <c r="B217" s="61"/>
-      <c r="C217" s="68"/>
+      <c r="B217" s="62"/>
+      <c r="C217" s="65"/>
       <c r="D217" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9300,13 +9381,13 @@
       <c r="N217" s="11"/>
       <c r="O217" s="11"/>
       <c r="P217" s="11"/>
-      <c r="Q217" s="61"/>
-      <c r="R217" s="64"/>
+      <c r="Q217" s="62"/>
+      <c r="R217" s="57"/>
     </row>
     <row r="218" spans="1:18" ht="15.75">
       <c r="A218" s="17"/>
-      <c r="B218" s="61"/>
-      <c r="C218" s="68"/>
+      <c r="B218" s="62"/>
+      <c r="C218" s="65"/>
       <c r="D218" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9335,13 +9416,13 @@
       <c r="N218" s="11"/>
       <c r="O218" s="11"/>
       <c r="P218" s="11"/>
-      <c r="Q218" s="61"/>
-      <c r="R218" s="64"/>
+      <c r="Q218" s="62"/>
+      <c r="R218" s="57"/>
     </row>
     <row r="219" spans="1:18" ht="15.75">
       <c r="A219" s="17"/>
-      <c r="B219" s="61"/>
-      <c r="C219" s="68"/>
+      <c r="B219" s="62"/>
+      <c r="C219" s="65"/>
       <c r="D219" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9370,13 +9451,13 @@
       <c r="N219" s="11"/>
       <c r="O219" s="11"/>
       <c r="P219" s="11"/>
-      <c r="Q219" s="61"/>
-      <c r="R219" s="64"/>
+      <c r="Q219" s="62"/>
+      <c r="R219" s="57"/>
     </row>
     <row r="220" spans="1:18" ht="15.75">
       <c r="A220" s="17"/>
-      <c r="B220" s="61"/>
-      <c r="C220" s="68"/>
+      <c r="B220" s="62"/>
+      <c r="C220" s="65"/>
       <c r="D220" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9405,13 +9486,13 @@
       <c r="N220" s="11"/>
       <c r="O220" s="11"/>
       <c r="P220" s="11"/>
-      <c r="Q220" s="61"/>
-      <c r="R220" s="64"/>
+      <c r="Q220" s="62"/>
+      <c r="R220" s="57"/>
     </row>
     <row r="221" spans="1:18" ht="15.75">
       <c r="A221" s="17"/>
-      <c r="B221" s="61"/>
-      <c r="C221" s="68"/>
+      <c r="B221" s="62"/>
+      <c r="C221" s="65"/>
       <c r="D221" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9440,13 +9521,13 @@
       <c r="N221" s="11"/>
       <c r="O221" s="11"/>
       <c r="P221" s="11"/>
-      <c r="Q221" s="61"/>
-      <c r="R221" s="64"/>
+      <c r="Q221" s="62"/>
+      <c r="R221" s="57"/>
     </row>
     <row r="222" spans="1:18" ht="15.75">
       <c r="A222" s="17"/>
-      <c r="B222" s="61"/>
-      <c r="C222" s="68"/>
+      <c r="B222" s="62"/>
+      <c r="C222" s="65"/>
       <c r="D222" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9475,13 +9556,13 @@
       <c r="N222" s="11"/>
       <c r="O222" s="11"/>
       <c r="P222" s="11"/>
-      <c r="Q222" s="61"/>
-      <c r="R222" s="64"/>
+      <c r="Q222" s="62"/>
+      <c r="R222" s="57"/>
     </row>
     <row r="223" spans="1:18" ht="15.75">
       <c r="A223" s="17"/>
-      <c r="B223" s="61"/>
-      <c r="C223" s="68"/>
+      <c r="B223" s="62"/>
+      <c r="C223" s="65"/>
       <c r="D223" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9510,13 +9591,13 @@
       <c r="N223" s="11"/>
       <c r="O223" s="11"/>
       <c r="P223" s="11"/>
-      <c r="Q223" s="61"/>
-      <c r="R223" s="64"/>
+      <c r="Q223" s="62"/>
+      <c r="R223" s="57"/>
     </row>
     <row r="224" spans="1:18" ht="15.75">
       <c r="A224" s="17"/>
-      <c r="B224" s="61"/>
-      <c r="C224" s="68"/>
+      <c r="B224" s="62"/>
+      <c r="C224" s="65"/>
       <c r="D224" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9545,13 +9626,13 @@
       <c r="N224" s="11"/>
       <c r="O224" s="11"/>
       <c r="P224" s="11"/>
-      <c r="Q224" s="61"/>
-      <c r="R224" s="64"/>
+      <c r="Q224" s="62"/>
+      <c r="R224" s="57"/>
     </row>
     <row r="225" spans="1:18" ht="15.75">
       <c r="A225" s="17"/>
-      <c r="B225" s="61"/>
-      <c r="C225" s="68"/>
+      <c r="B225" s="62"/>
+      <c r="C225" s="65"/>
       <c r="D225" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9580,13 +9661,13 @@
       <c r="N225" s="11"/>
       <c r="O225" s="11"/>
       <c r="P225" s="11"/>
-      <c r="Q225" s="61"/>
-      <c r="R225" s="64"/>
+      <c r="Q225" s="62"/>
+      <c r="R225" s="57"/>
     </row>
     <row r="226" spans="1:18" ht="15.75">
       <c r="A226" s="17"/>
-      <c r="B226" s="61"/>
-      <c r="C226" s="68"/>
+      <c r="B226" s="62"/>
+      <c r="C226" s="65"/>
       <c r="D226" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9615,13 +9696,13 @@
       <c r="N226" s="11"/>
       <c r="O226" s="11"/>
       <c r="P226" s="11"/>
-      <c r="Q226" s="61"/>
-      <c r="R226" s="64"/>
+      <c r="Q226" s="62"/>
+      <c r="R226" s="57"/>
     </row>
     <row r="227" spans="1:18" ht="15.75">
       <c r="A227" s="17"/>
-      <c r="B227" s="61"/>
-      <c r="C227" s="68"/>
+      <c r="B227" s="62"/>
+      <c r="C227" s="65"/>
       <c r="D227" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9650,13 +9731,13 @@
       <c r="N227" s="11"/>
       <c r="O227" s="11"/>
       <c r="P227" s="11"/>
-      <c r="Q227" s="61"/>
-      <c r="R227" s="64"/>
+      <c r="Q227" s="62"/>
+      <c r="R227" s="57"/>
     </row>
     <row r="228" spans="1:18" ht="15.75">
       <c r="A228" s="17"/>
-      <c r="B228" s="62"/>
-      <c r="C228" s="68"/>
+      <c r="B228" s="63"/>
+      <c r="C228" s="65"/>
       <c r="D228" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9685,13 +9766,13 @@
       <c r="N228" s="11"/>
       <c r="O228" s="11"/>
       <c r="P228" s="11"/>
-      <c r="Q228" s="62"/>
-      <c r="R228" s="64"/>
+      <c r="Q228" s="63"/>
+      <c r="R228" s="57"/>
     </row>
     <row r="229" spans="1:18" ht="25.5" customHeight="1">
       <c r="A229" s="17"/>
-      <c r="B229" s="60"/>
-      <c r="C229" s="68"/>
+      <c r="B229" s="61"/>
+      <c r="C229" s="65"/>
       <c r="D229" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9720,13 +9801,13 @@
       <c r="N229" s="11"/>
       <c r="O229" s="11"/>
       <c r="P229" s="43"/>
-      <c r="Q229" s="60"/>
-      <c r="R229" s="64"/>
+      <c r="Q229" s="61"/>
+      <c r="R229" s="57"/>
     </row>
     <row r="230" spans="1:18" ht="15.75">
       <c r="A230" s="17"/>
-      <c r="B230" s="61"/>
-      <c r="C230" s="68"/>
+      <c r="B230" s="62"/>
+      <c r="C230" s="65"/>
       <c r="D230" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9755,13 +9836,13 @@
       <c r="N230" s="11"/>
       <c r="O230" s="11"/>
       <c r="P230" s="43"/>
-      <c r="Q230" s="61"/>
-      <c r="R230" s="64"/>
+      <c r="Q230" s="62"/>
+      <c r="R230" s="57"/>
     </row>
     <row r="231" spans="1:18" ht="15.75">
       <c r="A231" s="17"/>
-      <c r="B231" s="61"/>
-      <c r="C231" s="68"/>
+      <c r="B231" s="62"/>
+      <c r="C231" s="65"/>
       <c r="D231" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9790,13 +9871,13 @@
       <c r="N231" s="11"/>
       <c r="O231" s="11"/>
       <c r="P231" s="11"/>
-      <c r="Q231" s="61"/>
-      <c r="R231" s="64"/>
+      <c r="Q231" s="62"/>
+      <c r="R231" s="57"/>
     </row>
     <row r="232" spans="1:18" ht="15.75">
       <c r="A232" s="17"/>
-      <c r="B232" s="61"/>
-      <c r="C232" s="68"/>
+      <c r="B232" s="62"/>
+      <c r="C232" s="65"/>
       <c r="D232" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9825,13 +9906,13 @@
       <c r="N232" s="11"/>
       <c r="O232" s="11"/>
       <c r="P232" s="11"/>
-      <c r="Q232" s="61"/>
-      <c r="R232" s="64"/>
+      <c r="Q232" s="62"/>
+      <c r="R232" s="57"/>
     </row>
     <row r="233" spans="1:18" ht="15.75">
       <c r="A233" s="17"/>
-      <c r="B233" s="61"/>
-      <c r="C233" s="68"/>
+      <c r="B233" s="62"/>
+      <c r="C233" s="65"/>
       <c r="D233" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9860,13 +9941,13 @@
       <c r="N233" s="11"/>
       <c r="O233" s="11"/>
       <c r="P233" s="11"/>
-      <c r="Q233" s="61"/>
-      <c r="R233" s="64"/>
+      <c r="Q233" s="62"/>
+      <c r="R233" s="57"/>
     </row>
     <row r="234" spans="1:18" ht="15.75">
       <c r="A234" s="17"/>
-      <c r="B234" s="61"/>
-      <c r="C234" s="68"/>
+      <c r="B234" s="62"/>
+      <c r="C234" s="65"/>
       <c r="D234" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9895,13 +9976,13 @@
       <c r="N234" s="11"/>
       <c r="O234" s="11"/>
       <c r="P234" s="11"/>
-      <c r="Q234" s="61"/>
-      <c r="R234" s="64"/>
+      <c r="Q234" s="62"/>
+      <c r="R234" s="57"/>
     </row>
     <row r="235" spans="1:18" ht="15.75">
       <c r="A235" s="17"/>
-      <c r="B235" s="61"/>
-      <c r="C235" s="68"/>
+      <c r="B235" s="62"/>
+      <c r="C235" s="65"/>
       <c r="D235" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9930,13 +10011,13 @@
       <c r="N235" s="11"/>
       <c r="O235" s="11"/>
       <c r="P235" s="11"/>
-      <c r="Q235" s="61"/>
-      <c r="R235" s="64"/>
+      <c r="Q235" s="62"/>
+      <c r="R235" s="57"/>
     </row>
     <row r="236" spans="1:18" ht="15.75">
       <c r="A236" s="17"/>
-      <c r="B236" s="61"/>
-      <c r="C236" s="68"/>
+      <c r="B236" s="62"/>
+      <c r="C236" s="65"/>
       <c r="D236" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9965,13 +10046,13 @@
       <c r="N236" s="11"/>
       <c r="O236" s="11"/>
       <c r="P236" s="11"/>
-      <c r="Q236" s="61"/>
-      <c r="R236" s="64"/>
+      <c r="Q236" s="62"/>
+      <c r="R236" s="57"/>
     </row>
     <row r="237" spans="1:18" ht="15.75">
       <c r="A237" s="17"/>
-      <c r="B237" s="61"/>
-      <c r="C237" s="68"/>
+      <c r="B237" s="62"/>
+      <c r="C237" s="65"/>
       <c r="D237" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10000,13 +10081,13 @@
       <c r="N237" s="11"/>
       <c r="O237" s="11"/>
       <c r="P237" s="11"/>
-      <c r="Q237" s="61"/>
-      <c r="R237" s="64"/>
+      <c r="Q237" s="62"/>
+      <c r="R237" s="57"/>
     </row>
     <row r="238" spans="1:18" ht="15.75">
       <c r="A238" s="17"/>
-      <c r="B238" s="61"/>
-      <c r="C238" s="68"/>
+      <c r="B238" s="62"/>
+      <c r="C238" s="65"/>
       <c r="D238" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10035,13 +10116,13 @@
       <c r="N238" s="11"/>
       <c r="O238" s="11"/>
       <c r="P238" s="11"/>
-      <c r="Q238" s="61"/>
-      <c r="R238" s="64"/>
+      <c r="Q238" s="62"/>
+      <c r="R238" s="57"/>
     </row>
     <row r="239" spans="1:18" ht="15.75">
       <c r="A239" s="17"/>
-      <c r="B239" s="61"/>
-      <c r="C239" s="68"/>
+      <c r="B239" s="62"/>
+      <c r="C239" s="65"/>
       <c r="D239" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10070,13 +10151,13 @@
       <c r="N239" s="11"/>
       <c r="O239" s="11"/>
       <c r="P239" s="11"/>
-      <c r="Q239" s="61"/>
-      <c r="R239" s="64"/>
+      <c r="Q239" s="62"/>
+      <c r="R239" s="57"/>
     </row>
     <row r="240" spans="1:18" ht="15.75">
       <c r="A240" s="17"/>
-      <c r="B240" s="61"/>
-      <c r="C240" s="68"/>
+      <c r="B240" s="62"/>
+      <c r="C240" s="65"/>
       <c r="D240" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10105,13 +10186,13 @@
       <c r="N240" s="11"/>
       <c r="O240" s="11"/>
       <c r="P240" s="11"/>
-      <c r="Q240" s="61"/>
-      <c r="R240" s="64"/>
+      <c r="Q240" s="62"/>
+      <c r="R240" s="57"/>
     </row>
     <row r="241" spans="1:18" ht="15.75">
       <c r="A241" s="17"/>
-      <c r="B241" s="61"/>
-      <c r="C241" s="68"/>
+      <c r="B241" s="62"/>
+      <c r="C241" s="65"/>
       <c r="D241" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10140,13 +10221,13 @@
       <c r="N241" s="11"/>
       <c r="O241" s="11"/>
       <c r="P241" s="11"/>
-      <c r="Q241" s="61"/>
-      <c r="R241" s="64"/>
+      <c r="Q241" s="62"/>
+      <c r="R241" s="57"/>
     </row>
     <row r="242" spans="1:18" ht="15.75">
       <c r="A242" s="17"/>
-      <c r="B242" s="61"/>
-      <c r="C242" s="68"/>
+      <c r="B242" s="62"/>
+      <c r="C242" s="65"/>
       <c r="D242" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10175,13 +10256,13 @@
       <c r="N242" s="11"/>
       <c r="O242" s="11"/>
       <c r="P242" s="11"/>
-      <c r="Q242" s="61"/>
-      <c r="R242" s="64"/>
+      <c r="Q242" s="62"/>
+      <c r="R242" s="57"/>
     </row>
     <row r="243" spans="1:18" ht="15.75">
       <c r="A243" s="17"/>
-      <c r="B243" s="62"/>
-      <c r="C243" s="68"/>
+      <c r="B243" s="63"/>
+      <c r="C243" s="65"/>
       <c r="D243" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10210,13 +10291,13 @@
       <c r="N243" s="11"/>
       <c r="O243" s="11"/>
       <c r="P243" s="11"/>
-      <c r="Q243" s="62"/>
-      <c r="R243" s="64"/>
+      <c r="Q243" s="63"/>
+      <c r="R243" s="57"/>
     </row>
     <row r="244" spans="1:18" ht="15.75">
       <c r="A244" s="17"/>
-      <c r="B244" s="60"/>
-      <c r="C244" s="68"/>
+      <c r="B244" s="61"/>
+      <c r="C244" s="65"/>
       <c r="D244" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10245,13 +10326,13 @@
       <c r="N244" s="11"/>
       <c r="O244" s="11"/>
       <c r="P244" s="11"/>
-      <c r="Q244" s="60"/>
-      <c r="R244" s="64"/>
+      <c r="Q244" s="61"/>
+      <c r="R244" s="57"/>
     </row>
     <row r="245" spans="1:18" ht="15.75">
       <c r="A245" s="17"/>
-      <c r="B245" s="61"/>
-      <c r="C245" s="68"/>
+      <c r="B245" s="62"/>
+      <c r="C245" s="65"/>
       <c r="D245" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10280,13 +10361,13 @@
       <c r="N245" s="11"/>
       <c r="O245" s="11"/>
       <c r="P245" s="11"/>
-      <c r="Q245" s="61"/>
-      <c r="R245" s="64"/>
+      <c r="Q245" s="62"/>
+      <c r="R245" s="57"/>
     </row>
     <row r="246" spans="1:18" ht="15.75">
       <c r="A246" s="17"/>
-      <c r="B246" s="61"/>
-      <c r="C246" s="68"/>
+      <c r="B246" s="62"/>
+      <c r="C246" s="65"/>
       <c r="D246" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10315,13 +10396,13 @@
       <c r="N246" s="11"/>
       <c r="O246" s="11"/>
       <c r="P246" s="11"/>
-      <c r="Q246" s="61"/>
-      <c r="R246" s="64"/>
+      <c r="Q246" s="62"/>
+      <c r="R246" s="57"/>
     </row>
     <row r="247" spans="1:18" ht="15.75">
       <c r="A247" s="17"/>
-      <c r="B247" s="61"/>
-      <c r="C247" s="68"/>
+      <c r="B247" s="62"/>
+      <c r="C247" s="65"/>
       <c r="D247" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10350,13 +10431,13 @@
       <c r="N247" s="11"/>
       <c r="O247" s="11"/>
       <c r="P247" s="11"/>
-      <c r="Q247" s="61"/>
-      <c r="R247" s="64"/>
+      <c r="Q247" s="62"/>
+      <c r="R247" s="57"/>
     </row>
     <row r="248" spans="1:18" ht="15.75">
       <c r="A248" s="17"/>
-      <c r="B248" s="61"/>
-      <c r="C248" s="68"/>
+      <c r="B248" s="62"/>
+      <c r="C248" s="65"/>
       <c r="D248" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10385,13 +10466,13 @@
       <c r="N248" s="11"/>
       <c r="O248" s="11"/>
       <c r="P248" s="11"/>
-      <c r="Q248" s="61"/>
-      <c r="R248" s="64"/>
+      <c r="Q248" s="62"/>
+      <c r="R248" s="57"/>
     </row>
     <row r="249" spans="1:18" ht="15.75">
       <c r="A249" s="17"/>
-      <c r="B249" s="61"/>
-      <c r="C249" s="68"/>
+      <c r="B249" s="62"/>
+      <c r="C249" s="65"/>
       <c r="D249" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10420,13 +10501,13 @@
       <c r="N249" s="11"/>
       <c r="O249" s="11"/>
       <c r="P249" s="11"/>
-      <c r="Q249" s="61"/>
-      <c r="R249" s="64"/>
+      <c r="Q249" s="62"/>
+      <c r="R249" s="57"/>
     </row>
     <row r="250" spans="1:18" ht="15.75">
       <c r="A250" s="17"/>
-      <c r="B250" s="61"/>
-      <c r="C250" s="68"/>
+      <c r="B250" s="62"/>
+      <c r="C250" s="65"/>
       <c r="D250" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10455,13 +10536,13 @@
       <c r="N250" s="11"/>
       <c r="O250" s="11"/>
       <c r="P250" s="11"/>
-      <c r="Q250" s="61"/>
-      <c r="R250" s="64"/>
+      <c r="Q250" s="62"/>
+      <c r="R250" s="57"/>
     </row>
     <row r="251" spans="1:18" ht="15.75">
       <c r="A251" s="17"/>
-      <c r="B251" s="61"/>
-      <c r="C251" s="68"/>
+      <c r="B251" s="62"/>
+      <c r="C251" s="65"/>
       <c r="D251" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10490,13 +10571,13 @@
       <c r="N251" s="11"/>
       <c r="O251" s="11"/>
       <c r="P251" s="11"/>
-      <c r="Q251" s="61"/>
-      <c r="R251" s="64"/>
+      <c r="Q251" s="62"/>
+      <c r="R251" s="57"/>
     </row>
     <row r="252" spans="1:18" ht="15.75">
       <c r="A252" s="17"/>
-      <c r="B252" s="61"/>
-      <c r="C252" s="68"/>
+      <c r="B252" s="62"/>
+      <c r="C252" s="65"/>
       <c r="D252" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10525,13 +10606,13 @@
       <c r="N252" s="11"/>
       <c r="O252" s="11"/>
       <c r="P252" s="11"/>
-      <c r="Q252" s="61"/>
-      <c r="R252" s="64"/>
+      <c r="Q252" s="62"/>
+      <c r="R252" s="57"/>
     </row>
     <row r="253" spans="1:18" ht="15.75">
       <c r="A253" s="17"/>
-      <c r="B253" s="61"/>
-      <c r="C253" s="68"/>
+      <c r="B253" s="62"/>
+      <c r="C253" s="65"/>
       <c r="D253" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10560,13 +10641,13 @@
       <c r="N253" s="11"/>
       <c r="O253" s="11"/>
       <c r="P253" s="11"/>
-      <c r="Q253" s="61"/>
-      <c r="R253" s="64"/>
+      <c r="Q253" s="62"/>
+      <c r="R253" s="57"/>
     </row>
     <row r="254" spans="1:18" ht="15.75">
       <c r="A254" s="17"/>
-      <c r="B254" s="61"/>
-      <c r="C254" s="68"/>
+      <c r="B254" s="62"/>
+      <c r="C254" s="65"/>
       <c r="D254" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10595,13 +10676,13 @@
       <c r="N254" s="11"/>
       <c r="O254" s="11"/>
       <c r="P254" s="11"/>
-      <c r="Q254" s="61"/>
-      <c r="R254" s="64"/>
+      <c r="Q254" s="62"/>
+      <c r="R254" s="57"/>
     </row>
     <row r="255" spans="1:18" ht="15.75">
       <c r="A255" s="17"/>
-      <c r="B255" s="61"/>
-      <c r="C255" s="68"/>
+      <c r="B255" s="62"/>
+      <c r="C255" s="65"/>
       <c r="D255" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10630,13 +10711,13 @@
       <c r="N255" s="11"/>
       <c r="O255" s="11"/>
       <c r="P255" s="11"/>
-      <c r="Q255" s="61"/>
-      <c r="R255" s="64"/>
+      <c r="Q255" s="62"/>
+      <c r="R255" s="57"/>
     </row>
     <row r="256" spans="1:18" ht="15.75">
       <c r="A256" s="17"/>
-      <c r="B256" s="61"/>
-      <c r="C256" s="68"/>
+      <c r="B256" s="62"/>
+      <c r="C256" s="65"/>
       <c r="D256" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10665,13 +10746,13 @@
       <c r="N256" s="11"/>
       <c r="O256" s="11"/>
       <c r="P256" s="11"/>
-      <c r="Q256" s="61"/>
-      <c r="R256" s="64"/>
+      <c r="Q256" s="62"/>
+      <c r="R256" s="57"/>
     </row>
     <row r="257" spans="1:18" ht="15.75">
       <c r="A257" s="17"/>
-      <c r="B257" s="61"/>
-      <c r="C257" s="68"/>
+      <c r="B257" s="62"/>
+      <c r="C257" s="65"/>
       <c r="D257" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10700,13 +10781,13 @@
       <c r="N257" s="11"/>
       <c r="O257" s="11"/>
       <c r="P257" s="11"/>
-      <c r="Q257" s="61"/>
-      <c r="R257" s="64"/>
+      <c r="Q257" s="62"/>
+      <c r="R257" s="57"/>
     </row>
     <row r="258" spans="1:18" ht="15.75">
       <c r="A258" s="17"/>
-      <c r="B258" s="62"/>
-      <c r="C258" s="68"/>
+      <c r="B258" s="63"/>
+      <c r="C258" s="65"/>
       <c r="D258" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10735,13 +10816,13 @@
       <c r="N258" s="44"/>
       <c r="O258" s="44"/>
       <c r="P258" s="44"/>
-      <c r="Q258" s="62"/>
-      <c r="R258" s="64"/>
+      <c r="Q258" s="63"/>
+      <c r="R258" s="57"/>
     </row>
     <row r="259" spans="1:18" ht="12.75" customHeight="1">
       <c r="A259" s="17"/>
-      <c r="B259" s="60"/>
-      <c r="C259" s="68"/>
+      <c r="B259" s="61"/>
+      <c r="C259" s="65"/>
       <c r="D259" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10770,13 +10851,13 @@
       <c r="N259" s="44"/>
       <c r="O259" s="44"/>
       <c r="P259" s="44"/>
-      <c r="Q259" s="60"/>
-      <c r="R259" s="64"/>
+      <c r="Q259" s="61"/>
+      <c r="R259" s="57"/>
     </row>
     <row r="260" spans="1:18" ht="15.75">
       <c r="A260" s="17"/>
-      <c r="B260" s="61"/>
-      <c r="C260" s="68"/>
+      <c r="B260" s="62"/>
+      <c r="C260" s="65"/>
       <c r="D260" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10805,13 +10886,13 @@
       <c r="N260" s="44"/>
       <c r="O260" s="44"/>
       <c r="P260" s="44"/>
-      <c r="Q260" s="61"/>
-      <c r="R260" s="64"/>
+      <c r="Q260" s="62"/>
+      <c r="R260" s="57"/>
     </row>
     <row r="261" spans="1:18" ht="15.75">
       <c r="A261" s="17"/>
-      <c r="B261" s="61"/>
-      <c r="C261" s="68"/>
+      <c r="B261" s="62"/>
+      <c r="C261" s="65"/>
       <c r="D261" s="5" t="str">
         <f t="shared" ref="D261:D273" si="16">IF(LEN(E261)&gt;5,IF(LEN(K261&amp;L261&amp;M261)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -10840,13 +10921,13 @@
       <c r="N261" s="44"/>
       <c r="O261" s="44"/>
       <c r="P261" s="44"/>
-      <c r="Q261" s="61"/>
-      <c r="R261" s="64"/>
+      <c r="Q261" s="62"/>
+      <c r="R261" s="57"/>
     </row>
     <row r="262" spans="1:18" ht="15.75">
       <c r="A262" s="17"/>
-      <c r="B262" s="61"/>
-      <c r="C262" s="68"/>
+      <c r="B262" s="62"/>
+      <c r="C262" s="65"/>
       <c r="D262" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -10875,13 +10956,13 @@
       <c r="N262" s="44"/>
       <c r="O262" s="44"/>
       <c r="P262" s="44"/>
-      <c r="Q262" s="61"/>
-      <c r="R262" s="64"/>
+      <c r="Q262" s="62"/>
+      <c r="R262" s="57"/>
     </row>
     <row r="263" spans="1:18" ht="15.75">
       <c r="A263" s="17"/>
-      <c r="B263" s="61"/>
-      <c r="C263" s="68"/>
+      <c r="B263" s="62"/>
+      <c r="C263" s="65"/>
       <c r="D263" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -10910,13 +10991,13 @@
       <c r="N263" s="44"/>
       <c r="O263" s="44"/>
       <c r="P263" s="44"/>
-      <c r="Q263" s="61"/>
-      <c r="R263" s="64"/>
+      <c r="Q263" s="62"/>
+      <c r="R263" s="57"/>
     </row>
     <row r="264" spans="1:18" ht="15.75">
       <c r="A264" s="17"/>
-      <c r="B264" s="61"/>
-      <c r="C264" s="68"/>
+      <c r="B264" s="62"/>
+      <c r="C264" s="65"/>
       <c r="D264" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -10945,13 +11026,13 @@
       <c r="N264" s="44"/>
       <c r="O264" s="44"/>
       <c r="P264" s="44"/>
-      <c r="Q264" s="61"/>
-      <c r="R264" s="64"/>
+      <c r="Q264" s="62"/>
+      <c r="R264" s="57"/>
     </row>
     <row r="265" spans="1:18" ht="15.75">
       <c r="A265" s="17"/>
-      <c r="B265" s="61"/>
-      <c r="C265" s="68"/>
+      <c r="B265" s="62"/>
+      <c r="C265" s="65"/>
       <c r="D265" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -10980,13 +11061,13 @@
       <c r="N265" s="44"/>
       <c r="O265" s="44"/>
       <c r="P265" s="44"/>
-      <c r="Q265" s="61"/>
-      <c r="R265" s="64"/>
+      <c r="Q265" s="62"/>
+      <c r="R265" s="57"/>
     </row>
     <row r="266" spans="1:18" ht="15.75">
       <c r="A266" s="17"/>
-      <c r="B266" s="61"/>
-      <c r="C266" s="68"/>
+      <c r="B266" s="62"/>
+      <c r="C266" s="65"/>
       <c r="D266" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -11014,13 +11095,13 @@
       </c>
       <c r="N266" s="44"/>
       <c r="P266" s="44"/>
-      <c r="Q266" s="61"/>
-      <c r="R266" s="64"/>
+      <c r="Q266" s="62"/>
+      <c r="R266" s="57"/>
     </row>
     <row r="267" spans="1:18" ht="15.75">
       <c r="A267" s="17"/>
-      <c r="B267" s="61"/>
-      <c r="C267" s="68"/>
+      <c r="B267" s="62"/>
+      <c r="C267" s="65"/>
       <c r="D267" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -11049,13 +11130,13 @@
       <c r="N267" s="44"/>
       <c r="O267" s="44"/>
       <c r="P267" s="44"/>
-      <c r="Q267" s="61"/>
-      <c r="R267" s="64"/>
+      <c r="Q267" s="62"/>
+      <c r="R267" s="57"/>
     </row>
     <row r="268" spans="1:18" ht="15.75">
       <c r="A268" s="17"/>
-      <c r="B268" s="61"/>
-      <c r="C268" s="68"/>
+      <c r="B268" s="62"/>
+      <c r="C268" s="65"/>
       <c r="D268" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -11084,13 +11165,13 @@
       <c r="N268" s="44"/>
       <c r="O268" s="44"/>
       <c r="P268" s="44"/>
-      <c r="Q268" s="61"/>
-      <c r="R268" s="64"/>
+      <c r="Q268" s="62"/>
+      <c r="R268" s="57"/>
     </row>
     <row r="269" spans="1:18" ht="15.75">
       <c r="A269" s="17"/>
-      <c r="B269" s="61"/>
-      <c r="C269" s="68"/>
+      <c r="B269" s="62"/>
+      <c r="C269" s="65"/>
       <c r="D269" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -11119,13 +11200,13 @@
       <c r="N269" s="44"/>
       <c r="O269" s="44"/>
       <c r="P269" s="44"/>
-      <c r="Q269" s="61"/>
-      <c r="R269" s="64"/>
+      <c r="Q269" s="62"/>
+      <c r="R269" s="57"/>
     </row>
     <row r="270" spans="1:18" ht="15.75">
       <c r="A270" s="17"/>
-      <c r="B270" s="61"/>
-      <c r="C270" s="68"/>
+      <c r="B270" s="62"/>
+      <c r="C270" s="65"/>
       <c r="D270" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -11154,13 +11235,13 @@
       <c r="N270" s="44"/>
       <c r="O270" s="44"/>
       <c r="P270" s="44"/>
-      <c r="Q270" s="61"/>
-      <c r="R270" s="64"/>
+      <c r="Q270" s="62"/>
+      <c r="R270" s="57"/>
     </row>
     <row r="271" spans="1:18" ht="15.75">
       <c r="A271" s="17"/>
-      <c r="B271" s="61"/>
-      <c r="C271" s="68"/>
+      <c r="B271" s="62"/>
+      <c r="C271" s="65"/>
       <c r="D271" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -11189,13 +11270,13 @@
       <c r="N271" s="44"/>
       <c r="O271" s="44"/>
       <c r="P271" s="44"/>
-      <c r="Q271" s="61"/>
-      <c r="R271" s="64"/>
+      <c r="Q271" s="62"/>
+      <c r="R271" s="57"/>
     </row>
     <row r="272" spans="1:18" ht="15.75">
       <c r="A272" s="17"/>
-      <c r="B272" s="61"/>
-      <c r="C272" s="68"/>
+      <c r="B272" s="62"/>
+      <c r="C272" s="65"/>
       <c r="D272" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -11224,13 +11305,13 @@
       <c r="N272" s="44"/>
       <c r="O272" s="44"/>
       <c r="P272" s="44"/>
-      <c r="Q272" s="61"/>
-      <c r="R272" s="64"/>
+      <c r="Q272" s="62"/>
+      <c r="R272" s="57"/>
     </row>
     <row r="273" spans="1:18" ht="15.75">
       <c r="A273" s="22"/>
-      <c r="B273" s="62"/>
-      <c r="C273" s="68"/>
+      <c r="B273" s="63"/>
+      <c r="C273" s="65"/>
       <c r="D273" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -11259,8 +11340,8 @@
       <c r="N273" s="44"/>
       <c r="O273" s="44"/>
       <c r="P273" s="44"/>
-      <c r="Q273" s="62"/>
-      <c r="R273" s="64"/>
+      <c r="Q273" s="63"/>
+      <c r="R273" s="57"/>
     </row>
     <row r="274" spans="1:18" ht="15.75">
       <c r="G274" s="50"/>
@@ -11278,7 +11359,7 @@
     </row>
     <row r="275" spans="1:18" ht="15.75" customHeight="1">
       <c r="A275" s="51" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B275" s="51"/>
       <c r="C275" s="51"/>
@@ -11314,24 +11395,32 @@
   </sheetData>
   <autoFilter ref="A1:P273"/>
   <mergeCells count="60">
-    <mergeCell ref="A4:A33"/>
-    <mergeCell ref="A34:A93"/>
-    <mergeCell ref="A94:A153"/>
-    <mergeCell ref="B4:B18"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="B34:B48"/>
-    <mergeCell ref="B49:B63"/>
-    <mergeCell ref="B64:B78"/>
-    <mergeCell ref="B79:B93"/>
-    <mergeCell ref="B94:B108"/>
-    <mergeCell ref="B109:B123"/>
-    <mergeCell ref="B124:B138"/>
-    <mergeCell ref="B139:B153"/>
-    <mergeCell ref="B154:B168"/>
-    <mergeCell ref="B169:B183"/>
-    <mergeCell ref="B184:B198"/>
-    <mergeCell ref="B199:B213"/>
-    <mergeCell ref="B214:B228"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="Q229:Q243"/>
+    <mergeCell ref="Q244:Q258"/>
+    <mergeCell ref="Q259:Q273"/>
+    <mergeCell ref="R4:R93"/>
+    <mergeCell ref="R94:R273"/>
+    <mergeCell ref="Q154:Q168"/>
+    <mergeCell ref="Q169:Q183"/>
+    <mergeCell ref="Q184:Q198"/>
+    <mergeCell ref="Q199:Q213"/>
+    <mergeCell ref="Q214:Q228"/>
+    <mergeCell ref="Q79:Q93"/>
+    <mergeCell ref="Q94:Q108"/>
+    <mergeCell ref="Q109:Q123"/>
+    <mergeCell ref="Q124:Q138"/>
+    <mergeCell ref="Q139:Q153"/>
+    <mergeCell ref="Q4:Q18"/>
+    <mergeCell ref="Q19:Q33"/>
+    <mergeCell ref="Q34:Q48"/>
+    <mergeCell ref="Q49:Q63"/>
+    <mergeCell ref="Q64:Q78"/>
+    <mergeCell ref="C199:C213"/>
+    <mergeCell ref="C214:C228"/>
+    <mergeCell ref="C229:C243"/>
+    <mergeCell ref="C244:C258"/>
+    <mergeCell ref="C259:C273"/>
     <mergeCell ref="B229:B243"/>
     <mergeCell ref="B244:B258"/>
     <mergeCell ref="B259:B273"/>
@@ -11348,306 +11437,298 @@
     <mergeCell ref="C154:C168"/>
     <mergeCell ref="C169:C183"/>
     <mergeCell ref="C184:C198"/>
-    <mergeCell ref="C199:C213"/>
-    <mergeCell ref="C214:C228"/>
-    <mergeCell ref="C229:C243"/>
-    <mergeCell ref="C244:C258"/>
-    <mergeCell ref="C259:C273"/>
-    <mergeCell ref="Q4:Q18"/>
-    <mergeCell ref="Q19:Q33"/>
-    <mergeCell ref="Q34:Q48"/>
-    <mergeCell ref="Q49:Q63"/>
-    <mergeCell ref="Q64:Q78"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="Q229:Q243"/>
-    <mergeCell ref="Q244:Q258"/>
-    <mergeCell ref="Q259:Q273"/>
-    <mergeCell ref="R4:R93"/>
-    <mergeCell ref="R94:R273"/>
-    <mergeCell ref="Q154:Q168"/>
-    <mergeCell ref="Q169:Q183"/>
-    <mergeCell ref="Q184:Q198"/>
-    <mergeCell ref="Q199:Q213"/>
-    <mergeCell ref="Q214:Q228"/>
-    <mergeCell ref="Q79:Q93"/>
-    <mergeCell ref="Q94:Q108"/>
-    <mergeCell ref="Q109:Q123"/>
-    <mergeCell ref="Q124:Q138"/>
-    <mergeCell ref="Q139:Q153"/>
+    <mergeCell ref="B154:B168"/>
+    <mergeCell ref="B169:B183"/>
+    <mergeCell ref="B184:B198"/>
+    <mergeCell ref="B199:B213"/>
+    <mergeCell ref="B214:B228"/>
+    <mergeCell ref="A4:A33"/>
+    <mergeCell ref="A34:A93"/>
+    <mergeCell ref="A94:A153"/>
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="B34:B48"/>
+    <mergeCell ref="B49:B63"/>
+    <mergeCell ref="B64:B78"/>
+    <mergeCell ref="B79:B93"/>
+    <mergeCell ref="B94:B108"/>
+    <mergeCell ref="B109:B123"/>
+    <mergeCell ref="B124:B138"/>
+    <mergeCell ref="B139:B153"/>
   </mergeCells>
   <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="83" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="61" stopIfTrue="1">
       <formula>I20="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="62" stopIfTrue="1">
       <formula>I20="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="63" stopIfTrue="1">
       <formula>I20="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="37" stopIfTrue="1">
       <formula>I20="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="38" stopIfTrue="1">
       <formula>I20="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="39" stopIfTrue="1">
       <formula>I20="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="34" stopIfTrue="1">
       <formula>I20="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="35" stopIfTrue="1">
       <formula>I20="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="36" stopIfTrue="1">
       <formula>I20="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="74" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="10" stopIfTrue="1">
       <formula>I21="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="11" stopIfTrue="1">
       <formula>I21="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="12" stopIfTrue="1">
       <formula>I21="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="7" stopIfTrue="1">
       <formula>I21="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="8" stopIfTrue="1">
       <formula>I21="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="9" stopIfTrue="1">
       <formula>I21="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="4" stopIfTrue="1">
       <formula>I21="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="5" stopIfTrue="1">
       <formula>I21="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="6" stopIfTrue="1">
       <formula>I21="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="1" stopIfTrue="1">
       <formula>I21="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="2" stopIfTrue="1">
       <formula>I21="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="3" stopIfTrue="1">
       <formula>I21="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="expression" dxfId="62" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="88" stopIfTrue="1">
       <formula>I20="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="89" stopIfTrue="1">
       <formula>I20="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="90" stopIfTrue="1">
       <formula>I20="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="58" stopIfTrue="1">
       <formula>I79="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="59" stopIfTrue="1">
       <formula>I79="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="60" stopIfTrue="1">
       <formula>I79="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="55" stopIfTrue="1">
       <formula>I79="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="56" stopIfTrue="1">
       <formula>I79="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="57" stopIfTrue="1">
       <formula>I79="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="expression" dxfId="53" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="52" stopIfTrue="1">
       <formula>I95="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="53" stopIfTrue="1">
       <formula>I95="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="54" stopIfTrue="1">
       <formula>I95="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="40" stopIfTrue="1">
       <formula>I95="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="41" stopIfTrue="1">
       <formula>I95="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="42" stopIfTrue="1">
       <formula>I95="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="expression" dxfId="47" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="49" stopIfTrue="1">
       <formula>I109="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="50" stopIfTrue="1">
       <formula>I109="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="51" stopIfTrue="1">
       <formula>I109="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="43" stopIfTrue="1">
       <formula>I109="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="44" stopIfTrue="1">
       <formula>I109="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="45" stopIfTrue="1">
       <formula>I109="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H124">
-    <cfRule type="expression" dxfId="41" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="46" stopIfTrue="1">
       <formula>I124="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="47" stopIfTrue="1">
       <formula>I124="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="48" stopIfTrue="1">
       <formula>I124="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H139">
-    <cfRule type="expression" dxfId="38" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="28" stopIfTrue="1">
       <formula>I80="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="29" stopIfTrue="1">
       <formula>I80="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="30" stopIfTrue="1">
       <formula>I80="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="25" stopIfTrue="1">
       <formula>I139="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="26" stopIfTrue="1">
       <formula>I139="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="27" stopIfTrue="1">
       <formula>I139="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="22" stopIfTrue="1">
       <formula>I139="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="23" stopIfTrue="1">
       <formula>I139="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="24" stopIfTrue="1">
       <formula>I139="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="19" stopIfTrue="1">
       <formula>I80="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="20" stopIfTrue="1">
       <formula>I80="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="21" stopIfTrue="1">
       <formula>I80="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="16" stopIfTrue="1">
       <formula>I139="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="17" stopIfTrue="1">
       <formula>I139="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="18" stopIfTrue="1">
       <formula>I139="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="13" stopIfTrue="1">
       <formula>I139="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="14" stopIfTrue="1">
       <formula>I139="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="15" stopIfTrue="1">
       <formula>I139="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H140">
-    <cfRule type="expression" dxfId="20" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="31" stopIfTrue="1">
       <formula>I140="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="32" stopIfTrue="1">
       <formula>I140="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="33" stopIfTrue="1">
       <formula>I140="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D273">
-    <cfRule type="containsText" dxfId="17" priority="66" operator="containsText" text="Check">
+    <cfRule type="containsText" dxfId="25" priority="66" operator="containsText" text="Check">
       <formula>NOT(ISERROR(SEARCH("Check",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G273">
-    <cfRule type="expression" dxfId="16" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="78" stopIfTrue="1">
       <formula>G4="Aff"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="79" stopIfTrue="1">
       <formula>G4="Doc"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J276">
-    <cfRule type="expression" dxfId="14" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="80" stopIfTrue="1">
       <formula>J4="N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:R273">
-    <cfRule type="containsText" dxfId="13" priority="67" operator="containsText" text="NA">
+    <cfRule type="containsText" dxfId="21" priority="67" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",R4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="68" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="20" priority="68" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",R4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="81" stopIfTrue="1">
       <formula>LEFT(R4,LEN("S"))="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R274:R276">
-    <cfRule type="expression" dxfId="10" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="69" stopIfTrue="1">
       <formula>R274="U"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="70" stopIfTrue="1">
       <formula>R274="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H19 H22:H78 H80:H276">
-    <cfRule type="expression" dxfId="8" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="75" stopIfTrue="1">
       <formula>I4="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="76" stopIfTrue="1">
       <formula>I4="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="77" stopIfTrue="1">
       <formula>I4="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N267:Q276 P266:Q266 N4:Q265 N266">
-    <cfRule type="expression" dxfId="5" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="74" stopIfTrue="1">
       <formula>N4="FI"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="71" stopIfTrue="1">
       <formula>N4="NI"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="72" stopIfTrue="1">
       <formula>N4="PI"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="73" stopIfTrue="1">
       <formula>N4="LI"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11671,24 +11752,28 @@
   <hyperlinks>
     <hyperlink ref="E19" r:id="rId1"/>
     <hyperlink ref="E34" r:id="rId2"/>
-    <hyperlink ref="E35" r:id="rId3"/>
-    <hyperlink ref="E36" r:id="rId4"/>
-    <hyperlink ref="E66" r:id="rId5"/>
-    <hyperlink ref="E65" r:id="rId6" display="GGE2302_Design Data"/>
-    <hyperlink ref="E79" r:id="rId7"/>
-    <hyperlink ref="E94" r:id="rId8"/>
-    <hyperlink ref="E95" r:id="rId9"/>
-    <hyperlink ref="E110" r:id="rId10"/>
-    <hyperlink ref="E109" r:id="rId11"/>
-    <hyperlink ref="E124" r:id="rId12"/>
-    <hyperlink ref="E139" r:id="rId13"/>
-    <hyperlink ref="E140" r:id="rId14"/>
-    <hyperlink ref="E4" r:id="rId15"/>
-    <hyperlink ref="E20" r:id="rId16"/>
-    <hyperlink ref="E49" r:id="rId17"/>
-    <hyperlink ref="E50" r:id="rId18"/>
-    <hyperlink ref="E80" r:id="rId19"/>
-    <hyperlink ref="E81" r:id="rId20"/>
+    <hyperlink ref="E79" r:id="rId3"/>
+    <hyperlink ref="E95" r:id="rId4"/>
+    <hyperlink ref="E109" r:id="rId5"/>
+    <hyperlink ref="E124" r:id="rId6"/>
+    <hyperlink ref="E139" r:id="rId7"/>
+    <hyperlink ref="E140" r:id="rId8"/>
+    <hyperlink ref="E4" r:id="rId9"/>
+    <hyperlink ref="E20" r:id="rId10"/>
+    <hyperlink ref="E49" r:id="rId11"/>
+    <hyperlink ref="E50" r:id="rId12" display="Time Sheet"/>
+    <hyperlink ref="E80" r:id="rId13"/>
+    <hyperlink ref="E5" r:id="rId14"/>
+    <hyperlink ref="E35" r:id="rId15"/>
+    <hyperlink ref="E36" r:id="rId16"/>
+    <hyperlink ref="E37" r:id="rId17"/>
+    <hyperlink ref="E51" r:id="rId18"/>
+    <hyperlink ref="E64" r:id="rId19" display="GGE302_MESRPT"/>
+    <hyperlink ref="E65" r:id="rId20" display="GGE302_Design Data"/>
+    <hyperlink ref="E81" r:id="rId21"/>
+    <hyperlink ref="E94" r:id="rId22"/>
+    <hyperlink ref="E110" r:id="rId23"/>
+    <hyperlink ref="E125" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
